--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB40BC-6C60-2F40-8511-D98CAB221E3E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{91DB40BC-6C60-2F40-8511-D98CAB221E3E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Number_Command_Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Number_Command_Validation" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="448">
   <si>
     <t>target</t>
   </si>
@@ -1393,13 +1393,23 @@
   </si>
   <si>
     <t>14.8002</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1469,8 +1479,160 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1489,8 +1651,246 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1590,135 +1990,595 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="56">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1752,7 +2612,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1777,10 +2637,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1944,21 +2804,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1975,7 +2835,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2029,19 +2889,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -2150,7 +3010,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
@@ -2183,7 +3043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2251,7 +3111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +3176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +3232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +3285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +3332,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2519,7 +3379,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +3420,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +3455,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2627,7 +3487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2653,7 +3513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2679,7 +3539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +3565,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2728,7 +3588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>430</v>
       </c>
@@ -2751,7 +3611,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2768,7 +3628,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>426</v>
       </c>
@@ -2785,7 +3645,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2802,7 +3662,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2819,7 +3679,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2836,7 +3696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2850,7 +3710,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2864,7 +3724,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>188</v>
       </c>
@@ -2875,7 +3735,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>191</v>
       </c>
@@ -2886,7 +3746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -2897,7 +3757,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>197</v>
       </c>
@@ -2908,7 +3768,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>200</v>
       </c>
@@ -2919,7 +3779,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>203</v>
       </c>
@@ -2930,7 +3790,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>206</v>
       </c>
@@ -2941,7 +3801,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>209</v>
       </c>
@@ -2952,7 +3812,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>212</v>
       </c>
@@ -2960,7 +3820,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>214</v>
       </c>
@@ -2968,7 +3828,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>216</v>
       </c>
@@ -2976,7 +3836,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>218</v>
       </c>
@@ -2984,7 +3844,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>220</v>
       </c>
@@ -2992,7 +3852,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>222</v>
       </c>
@@ -3000,7 +3860,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>224</v>
       </c>
@@ -3008,7 +3868,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>226</v>
       </c>
@@ -3016,7 +3876,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>228</v>
       </c>
@@ -3024,7 +3884,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>230</v>
       </c>
@@ -3032,7 +3892,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>232</v>
       </c>
@@ -3040,7 +3900,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>234</v>
       </c>
@@ -3048,7 +3908,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>236</v>
       </c>
@@ -3056,7 +3916,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>238</v>
       </c>
@@ -3064,7 +3924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>240</v>
       </c>
@@ -3072,7 +3932,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>242</v>
       </c>
@@ -3080,7 +3940,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>244</v>
       </c>
@@ -3088,7 +3948,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>397</v>
       </c>
@@ -3096,7 +3956,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>247</v>
       </c>
@@ -3104,7 +3964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>249</v>
       </c>
@@ -3112,167 +3972,167 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="S52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="S53" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="S54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S55" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="S56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S57" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="S58" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="S59" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="S60" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="S61" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="S62" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="S63" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="S64" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="S65" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="S66" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="S67" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="S68" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>283</v>
+        <v>445</v>
       </c>
       <c r="S69" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>287</v>
+        <v>446</v>
       </c>
       <c r="S71" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>289</v>
       </c>
@@ -3280,7 +4140,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>291</v>
       </c>
@@ -3288,7 +4148,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>293</v>
       </c>
@@ -3296,7 +4156,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>295</v>
       </c>
@@ -3304,7 +4164,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>297</v>
       </c>
@@ -3312,7 +4172,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>299</v>
       </c>
@@ -3320,7 +4180,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>301</v>
       </c>
@@ -3328,7 +4188,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>303</v>
       </c>
@@ -3336,7 +4196,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>305</v>
       </c>
@@ -3344,7 +4204,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>307</v>
       </c>
@@ -3352,7 +4212,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>309</v>
       </c>
@@ -3360,7 +4220,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>311</v>
       </c>
@@ -3368,7 +4228,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>313</v>
       </c>
@@ -3376,7 +4236,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>315</v>
       </c>
@@ -3384,7 +4244,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>317</v>
       </c>
@@ -3392,7 +4252,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>319</v>
       </c>
@@ -3400,7 +4260,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>321</v>
       </c>
@@ -3408,7 +4268,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>323</v>
       </c>
@@ -3416,7 +4276,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>325</v>
       </c>
@@ -3424,7 +4284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>327</v>
       </c>
@@ -3432,120 +4292,120 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="S92" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="S93" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="S94" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="S95" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="S96" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="S97" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="S98" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="S99" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="S100" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="S101" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="S102" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="S103" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="S104" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="S105" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="S106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="S107" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="S108" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="18" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="32.6640625" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="5" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>345</v>
       </c>
@@ -3575,7 +4435,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="140" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>350</v>
       </c>
@@ -3595,7 +4455,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -3605,7 +4465,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>352</v>
       </c>
@@ -3650,7 +4510,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>365</v>
       </c>
@@ -3677,7 +4537,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
@@ -3702,7 +4562,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
@@ -3727,7 +4587,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
@@ -3752,7 +4612,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9"/>
       <c r="C9" s="4" t="s">
@@ -3777,7 +4637,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10"/>
       <c r="C10" s="4" t="s">
@@ -3802,7 +4662,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11"/>
       <c r="C11" s="4" t="s">
@@ -3827,7 +4687,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12"/>
       <c r="C12" s="4" t="s">
@@ -3850,7 +4710,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13"/>
       <c r="C13" s="4" t="s">
@@ -3875,7 +4735,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14"/>
       <c r="C14" s="4" t="s">
@@ -3900,7 +4760,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
@@ -3923,7 +4783,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16"/>
       <c r="C16" s="4" t="s">
@@ -3948,7 +4808,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17"/>
       <c r="C17" s="4" t="s">
@@ -3973,7 +4833,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18"/>
       <c r="C18" s="4" t="s">
@@ -3998,7 +4858,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19"/>
       <c r="C19" s="4" t="s">
@@ -4023,7 +4883,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20"/>
       <c r="C20" s="4" t="s">
@@ -4048,7 +4908,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
@@ -4073,7 +4933,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22"/>
       <c r="C22" s="4" t="s">
@@ -4098,7 +4958,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23"/>
       <c r="C23" s="4" t="s">
@@ -4123,7 +4983,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24"/>
       <c r="C24" s="4" t="s">
@@ -4148,7 +5008,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25"/>
       <c r="C25" s="4" t="s">
@@ -4173,7 +5033,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26"/>
       <c r="C26" s="4" t="s">
@@ -4198,7 +5058,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27"/>
       <c r="C27" s="4" t="s">
@@ -4223,7 +5083,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
@@ -4248,7 +5108,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29"/>
       <c r="C29" s="4" t="s">
@@ -4273,7 +5133,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30"/>
       <c r="C30" s="4" t="s">
@@ -4298,8 +5158,9 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
+      <c r="B31"/>
       <c r="C31" s="4" t="s">
         <v>1</v>
       </c>
@@ -4312,14 +5173,21 @@
       <c r="F31" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
+      <c r="B32"/>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>442</v>
@@ -4330,59 +5198,64 @@
       <c r="G32" s="5" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row customHeight="1" ht="19" r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
     </row>
-    <row r="35" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
     </row>
-    <row r="36" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:15" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="37" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="38" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="39" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="40" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="41" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="44" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="45" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="48" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="79" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
@@ -4399,936 +5272,936 @@
       <c r="N79" s="7"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1007" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -5336,25 +6209,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C707" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C707" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D705" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D705" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{91DB40BC-6C60-2F40-8511-D98CAB221E3E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EF503B5C-1A1F-314C-A624-CF5F5272821B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="-20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -18,47 +18,43 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="470">
   <si>
     <t>target</t>
   </si>
@@ -144,9 +140,6 @@
     <t>assertCorrectness(json,schema)</t>
   </si>
   <si>
-    <t>send(to,subject,body)</t>
-  </si>
-  <si>
     <t>assertContentEqual(actualPdf,expectedPdf)</t>
   </si>
   <si>
@@ -813,15 +806,9 @@
     <t>closeAll()</t>
   </si>
   <si>
-    <t>getTableRows(var,beginRow,endRow)</t>
-  </si>
-  <si>
     <t>deselectMulti(locator,array)</t>
   </si>
   <si>
-    <t>getTableRowsAll(var)</t>
-  </si>
-  <si>
     <t>dismissInvalidCert()</t>
   </si>
   <si>
@@ -966,9 +953,6 @@
     <t>toggleExplorerBar()</t>
   </si>
   <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
-  </si>
-  <si>
     <t>typeAppendTextArea(name,text1,text2,text3,text4)</t>
   </si>
   <si>
@@ -1329,9 +1313,6 @@
     <t>assertTextNotPresent(text)</t>
   </si>
   <si>
-    <t>assertBetween(num,lower,upper)</t>
-  </si>
-  <si>
     <t>story / feature</t>
   </si>
   <si>
@@ -1401,7 +1382,88 @@
     <t>saveTableRowsRange(var,beginRow,endRow)</t>
   </si>
   <si>
-    <t>assertBetween(num,min,max)</t>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1471,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1493,6 +1555,24 @@
       <u val="none"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="5A5A32"/>
@@ -1569,6 +1649,24 @@
       <u val="none"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="5A5A32"/>
@@ -1632,7 +1730,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,6 +1764,40 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6EFD7"/>
         <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -1789,6 +1921,40 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <bgColor rgb="ECECE8"/>
       </patternFill>
     </fill>
@@ -1890,7 +2056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2050,6 +2216,94 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -2250,6 +2504,94 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
         <color rgb="DCDCDC"/>
       </top>
       <bottom style="thin"/>
@@ -2383,7 +2725,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2509,70 +2851,88 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="12" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="12" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="16" numFmtId="0" xfId="0">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="18" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="21" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="19" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="24" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="51" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="36" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="37" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2890,7 +3250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -2906,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2948,36 +3308,45 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
-        <v>426</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>421</v>
+      </c>
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3001,46 +3370,55 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>448</v>
       </c>
       <c r="L2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>447</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
       <c r="P2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q2" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="R2" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="S2" t="s">
+        <v>406</v>
+      </c>
+      <c r="T2" t="s">
+        <v>422</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z2" t="s">
         <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -3048,67 +3426,73 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
       <c r="P3" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="R3" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="S3" t="s">
+        <v>407</v>
+      </c>
+      <c r="T3" t="s">
+        <v>423</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" t="s">
         <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>393</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -3116,64 +3500,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>428</v>
+      </c>
+      <c r="R4" t="s">
+        <v>457</v>
+      </c>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>424</v>
+      </c>
+      <c r="U4" t="s">
         <v>63</v>
       </c>
-      <c r="P4" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>429</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>64</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>65</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>66</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z4" t="s">
         <v>67</v>
-      </c>
-      <c r="W4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -3181,55 +3571,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>429</v>
+      </c>
+      <c r="R5" t="s">
+        <v>458</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
         <v>75</v>
       </c>
-      <c r="P5" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>76</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>77</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>78</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z5" t="s">
         <v>79</v>
-      </c>
-      <c r="W5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -3237,52 +3633,55 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>82</v>
       </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P6" t="s">
+        <v>430</v>
+      </c>
+      <c r="S6" t="s">
+        <v>385</v>
+      </c>
+      <c r="U6" t="s">
         <v>86</v>
       </c>
-      <c r="O6" t="s">
-        <v>420</v>
-      </c>
-      <c r="P6" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>389</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>87</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>88</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>89</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z6" t="s">
         <v>90</v>
-      </c>
-      <c r="W6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -3290,46 +3689,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P7" t="s">
+        <v>431</v>
+      </c>
+      <c r="S7" t="s">
+        <v>386</v>
+      </c>
+      <c r="U7" t="s">
         <v>98</v>
       </c>
-      <c r="P7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>390</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="W7" t="s">
         <v>99</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>100</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z7" t="s">
         <v>101</v>
-      </c>
-      <c r="W7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -3337,46 +3742,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s">
+        <v>432</v>
+      </c>
+      <c r="S8" t="s">
+        <v>387</v>
+      </c>
+      <c r="U8" t="s">
         <v>108</v>
       </c>
-      <c r="P8" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>391</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="W8" t="s">
         <v>109</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>110</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Y8" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z8" t="s">
         <v>111</v>
-      </c>
-      <c r="W8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -3384,40 +3792,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s">
+        <v>433</v>
+      </c>
+      <c r="S9" t="s">
+        <v>388</v>
+      </c>
+      <c r="U9" t="s">
         <v>118</v>
       </c>
-      <c r="P9" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>392</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="X9" t="s">
         <v>119</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Z9" t="s">
         <v>120</v>
-      </c>
-      <c r="W9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -3425,34 +3833,34 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
         <v>115</v>
       </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>452</v>
       </c>
       <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s">
+        <v>434</v>
+      </c>
+      <c r="U10" t="s">
         <v>127</v>
       </c>
-      <c r="P10" t="s">
-        <v>439</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="X10" t="s">
         <v>128</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Z10" t="s">
         <v>129</v>
-      </c>
-      <c r="W10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -3460,31 +3868,31 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="s">
-        <v>133</v>
-      </c>
       <c r="M11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" t="s">
         <v>135</v>
       </c>
-      <c r="S11" t="s">
+      <c r="X11" t="s">
         <v>136</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Z11" t="s">
         <v>137</v>
-      </c>
-      <c r="W11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -3492,25 +3900,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
         <v>132</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12" t="s">
         <v>143</v>
       </c>
-      <c r="S12" t="s">
+      <c r="X12" t="s">
         <v>144</v>
-      </c>
-      <c r="V12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -3518,25 +3929,25 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="U13" t="s">
         <v>150</v>
       </c>
-      <c r="S13" t="s">
+      <c r="X13" t="s">
         <v>151</v>
-      </c>
-      <c r="V13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3544,25 +3955,25 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="U14" t="s">
         <v>156</v>
       </c>
-      <c r="S14" t="s">
+      <c r="X14" t="s">
         <v>157</v>
-      </c>
-      <c r="V14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -3570,811 +3981,847 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="M15" t="s">
+        <v>148</v>
       </c>
       <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="U15" t="s">
         <v>162</v>
       </c>
-      <c r="S15" t="s">
+      <c r="X15" t="s">
         <v>163</v>
-      </c>
-      <c r="V15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C16" t="s">
+        <v>445</v>
+      </c>
+      <c r="E16" t="s">
         <v>153</v>
       </c>
-      <c r="E16" t="s">
-        <v>154</v>
-      </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" t="s">
         <v>168</v>
       </c>
-      <c r="S16" t="s">
+      <c r="X16" t="s">
         <v>169</v>
-      </c>
-      <c r="V16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
         <v>159</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>160</v>
       </c>
-      <c r="I17" t="s">
-        <v>161</v>
-      </c>
-      <c r="S17" t="s">
-        <v>174</v>
+      <c r="U17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
       <c r="I18" t="s">
-        <v>421</v>
-      </c>
-      <c r="S18" t="s">
-        <v>178</v>
+        <v>417</v>
+      </c>
+      <c r="U18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
         <v>171</v>
       </c>
-      <c r="E19" t="s">
-        <v>172</v>
-      </c>
       <c r="I19" t="s">
-        <v>167</v>
-      </c>
-      <c r="S19" t="s">
-        <v>181</v>
+        <v>166</v>
+      </c>
+      <c r="U19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
         <v>175</v>
       </c>
-      <c r="E20" t="s">
-        <v>176</v>
-      </c>
       <c r="I20" t="s">
-        <v>173</v>
-      </c>
-      <c r="S20" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="U20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
         <v>179</v>
       </c>
-      <c r="E21" t="s">
-        <v>180</v>
-      </c>
       <c r="I21" t="s">
-        <v>177</v>
-      </c>
-      <c r="S21" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="U21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" t="s">
         <v>182</v>
       </c>
-      <c r="E22" t="s">
-        <v>183</v>
-      </c>
-      <c r="S22" t="s">
-        <v>190</v>
+      <c r="U22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="U23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="U24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="U25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" t="s">
-        <v>186</v>
-      </c>
-      <c r="S23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" t="s">
-        <v>189</v>
-      </c>
-      <c r="S24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" t="s">
-        <v>192</v>
-      </c>
-      <c r="S25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26">
       <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
         <v>194</v>
       </c>
-      <c r="E26" t="s">
-        <v>195</v>
-      </c>
-      <c r="S26" t="s">
-        <v>202</v>
+      <c r="U26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
         <v>197</v>
       </c>
-      <c r="E27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S27" t="s">
-        <v>205</v>
+      <c r="U27" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="s">
         <v>200</v>
       </c>
-      <c r="E28" t="s">
-        <v>201</v>
-      </c>
-      <c r="S28" t="s">
-        <v>208</v>
+      <c r="U28" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
         <v>203</v>
       </c>
-      <c r="E29" t="s">
-        <v>204</v>
-      </c>
-      <c r="S29" t="s">
-        <v>211</v>
+      <c r="U29" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
         <v>206</v>
       </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
-      <c r="S30" t="s">
-        <v>213</v>
+      <c r="U30" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" t="s">
         <v>209</v>
       </c>
-      <c r="E31" t="s">
-        <v>210</v>
-      </c>
-      <c r="S31" t="s">
-        <v>215</v>
+      <c r="U31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>205</v>
+      </c>
       <c r="E32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S32" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="U32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>208</v>
+      </c>
       <c r="E33" t="s">
-        <v>214</v>
-      </c>
-      <c r="S33" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="U33" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>216</v>
-      </c>
-      <c r="S34" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="U34" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>218</v>
-      </c>
-      <c r="S35" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="U35" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>220</v>
-      </c>
-      <c r="S36" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="U36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>222</v>
-      </c>
-      <c r="S37" t="s">
-        <v>422</v>
+        <v>221</v>
+      </c>
+      <c r="U37" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>224</v>
-      </c>
-      <c r="S38" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="U38" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
+        <v>225</v>
+      </c>
+      <c r="U39" t="s">
         <v>226</v>
-      </c>
-      <c r="S39" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="U40" t="s">
         <v>228</v>
-      </c>
-      <c r="S40" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
+        <v>229</v>
+      </c>
+      <c r="U41" t="s">
         <v>230</v>
-      </c>
-      <c r="S41" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
+        <v>231</v>
+      </c>
+      <c r="U42" t="s">
         <v>232</v>
-      </c>
-      <c r="S42" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
+        <v>233</v>
+      </c>
+      <c r="U43" t="s">
         <v>234</v>
-      </c>
-      <c r="S43" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
+        <v>235</v>
+      </c>
+      <c r="U44" t="s">
         <v>236</v>
-      </c>
-      <c r="S44" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="U45" t="s">
         <v>238</v>
-      </c>
-      <c r="S45" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
+        <v>239</v>
+      </c>
+      <c r="U46" t="s">
         <v>240</v>
-      </c>
-      <c r="S46" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
+        <v>241</v>
+      </c>
+      <c r="U47" t="s">
         <v>242</v>
-      </c>
-      <c r="S47" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
+        <v>243</v>
+      </c>
+      <c r="U48" t="s">
         <v>244</v>
-      </c>
-      <c r="S48" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>397</v>
-      </c>
-      <c r="S49" t="s">
-        <v>248</v>
+        <v>393</v>
+      </c>
+      <c r="U49" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
+        <v>246</v>
+      </c>
+      <c r="U50" t="s">
         <v>247</v>
-      </c>
-      <c r="S50" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="U51" t="s">
         <v>249</v>
-      </c>
-      <c r="S51" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>255</v>
-      </c>
-      <c r="S52" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="U52" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>257</v>
-      </c>
-      <c r="S53" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="U53" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>259</v>
-      </c>
-      <c r="S54" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="U54" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>261</v>
-      </c>
-      <c r="S55" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="U55" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>263</v>
-      </c>
-      <c r="S56" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="U56" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>265</v>
-      </c>
-      <c r="S57" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="U57" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>267</v>
-      </c>
-      <c r="S58" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="U58" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>269</v>
-      </c>
-      <c r="S59" t="s">
-        <v>418</v>
+        <v>266</v>
+      </c>
+      <c r="U59" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>271</v>
-      </c>
-      <c r="S60" t="s">
         <v>268</v>
+      </c>
+      <c r="U60" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>273</v>
-      </c>
-      <c r="S61" t="s">
         <v>270</v>
+      </c>
+      <c r="U61" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>398</v>
-      </c>
-      <c r="S62" t="s">
-        <v>272</v>
+        <v>394</v>
+      </c>
+      <c r="U62" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>399</v>
-      </c>
-      <c r="S63" t="s">
-        <v>274</v>
+        <v>395</v>
+      </c>
+      <c r="U63" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>277</v>
-      </c>
-      <c r="S64" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="U64" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>279</v>
-      </c>
-      <c r="S65" t="s">
         <v>276</v>
+      </c>
+      <c r="U65" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>281</v>
-      </c>
-      <c r="S66" t="s">
         <v>278</v>
+      </c>
+      <c r="U66" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>283</v>
-      </c>
-      <c r="S67" t="s">
         <v>280</v>
+      </c>
+      <c r="U67" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>285</v>
-      </c>
-      <c r="S68" t="s">
         <v>282</v>
+      </c>
+      <c r="U68" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>445</v>
-      </c>
-      <c r="S69" t="s">
-        <v>284</v>
+        <v>440</v>
+      </c>
+      <c r="U69" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>287</v>
-      </c>
-      <c r="S70" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="U70" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>446</v>
-      </c>
-      <c r="S71" t="s">
-        <v>288</v>
+        <v>441</v>
+      </c>
+      <c r="U71" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>289</v>
-      </c>
-      <c r="S72" t="s">
-        <v>290</v>
+        <v>286</v>
+      </c>
+      <c r="U72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>291</v>
-      </c>
-      <c r="S73" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="U73" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>293</v>
-      </c>
-      <c r="S74" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="U74" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>295</v>
-      </c>
-      <c r="S75" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="U75" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>297</v>
-      </c>
-      <c r="S76" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="U76" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>299</v>
-      </c>
-      <c r="S77" t="s">
-        <v>300</v>
+        <v>447</v>
+      </c>
+      <c r="U77" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>301</v>
-      </c>
-      <c r="S78" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="U78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>303</v>
-      </c>
-      <c r="S79" t="s">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="U79" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>305</v>
-      </c>
-      <c r="S80" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="U80" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>307</v>
-      </c>
-      <c r="S81" t="s">
-        <v>308</v>
+        <v>301</v>
+      </c>
+      <c r="U81" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>309</v>
-      </c>
-      <c r="S82" t="s">
-        <v>310</v>
+        <v>303</v>
+      </c>
+      <c r="U82" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>311</v>
-      </c>
-      <c r="S83" t="s">
-        <v>312</v>
+        <v>305</v>
+      </c>
+      <c r="U83" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>313</v>
-      </c>
-      <c r="S84" t="s">
-        <v>314</v>
+        <v>307</v>
+      </c>
+      <c r="U84" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>315</v>
-      </c>
-      <c r="S85" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="U85" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>317</v>
-      </c>
-      <c r="S86" t="s">
-        <v>412</v>
+        <v>311</v>
+      </c>
+      <c r="U86" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>319</v>
-      </c>
-      <c r="S87" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="U87" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>321</v>
-      </c>
-      <c r="S88" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="U88" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>323</v>
-      </c>
-      <c r="S89" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="U89" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>325</v>
-      </c>
-      <c r="S90" t="s">
-        <v>324</v>
+        <v>319</v>
+      </c>
+      <c r="U90" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>321</v>
+      </c>
+      <c r="U91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>323</v>
+      </c>
+      <c r="U92" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="U95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="U96" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="U97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="U98" t="s">
         <v>327</v>
       </c>
-      <c r="S91" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="S92" t="s">
+    </row>
+    <row r="99">
+      <c r="U99" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="100">
-      <c r="S100" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="101">
-      <c r="S101" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="102">
-      <c r="S102" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103">
-      <c r="S103" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="104">
-      <c r="S104" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="S105" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="S106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="S107" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="S108" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4407,29 +4854,29 @@
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J1" s="7"/>
       <c r="L1" s="23" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
@@ -4437,7 +4884,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -4447,7 +4894,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J2" s="7"/>
       <c r="L2" s="29"/>
@@ -4467,65 +4914,65 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -4544,13 +4991,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -4569,13 +5016,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -4594,13 +5041,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -4619,13 +5066,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4644,13 +5091,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -4669,13 +5116,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -4694,10 +5141,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -4717,13 +5164,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -4742,13 +5189,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -4767,10 +5214,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4790,13 +5237,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -4815,13 +5262,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -4840,13 +5287,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -4865,13 +5312,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -4890,13 +5337,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -4915,13 +5362,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -4940,13 +5387,13 @@
         <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -4965,13 +5412,13 @@
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -4990,13 +5437,13 @@
         <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -5015,13 +5462,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -5040,13 +5487,13 @@
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -5065,13 +5512,13 @@
         <v>11</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -5090,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -5115,13 +5562,13 @@
         <v>11</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -5140,13 +5587,13 @@
         <v>11</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -5165,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -5187,16 +5634,16 @@
         <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="471">
   <si>
     <t>target</t>
   </si>
@@ -1464,6 +1464,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1474,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1729,8 +1732,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2055,8 +2152,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2720,12 +2970,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2890,49 +3422,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="33" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="36" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="39" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="48" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="51" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="72" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="75" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3250,7 +3827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4462,7 +5039,7 @@
         <v>266</v>
       </c>
       <c r="U59" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60">
@@ -4470,7 +5047,7 @@
         <v>268</v>
       </c>
       <c r="U60" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
@@ -4478,7 +5055,7 @@
         <v>270</v>
       </c>
       <c r="U61" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62">
@@ -4486,7 +5063,7 @@
         <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63">
@@ -4494,7 +5071,7 @@
         <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>460</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64">
@@ -4502,7 +5079,7 @@
         <v>274</v>
       </c>
       <c r="U64" t="s">
-        <v>269</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65">
@@ -4510,7 +5087,7 @@
         <v>276</v>
       </c>
       <c r="U65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66">
@@ -4518,7 +5095,7 @@
         <v>278</v>
       </c>
       <c r="U66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67">
@@ -4526,7 +5103,7 @@
         <v>280</v>
       </c>
       <c r="U67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68">
@@ -4534,7 +5111,7 @@
         <v>282</v>
       </c>
       <c r="U68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69">
@@ -4542,7 +5119,7 @@
         <v>440</v>
       </c>
       <c r="U69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70">
@@ -4550,7 +5127,7 @@
         <v>284</v>
       </c>
       <c r="U70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71">
@@ -4558,7 +5135,7 @@
         <v>441</v>
       </c>
       <c r="U71" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72">
@@ -4566,7 +5143,7 @@
         <v>286</v>
       </c>
       <c r="U72" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73">
@@ -4574,7 +5151,7 @@
         <v>288</v>
       </c>
       <c r="U73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74">
@@ -4582,7 +5159,7 @@
         <v>290</v>
       </c>
       <c r="U74" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75">
@@ -4590,7 +5167,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76">
@@ -4598,7 +5175,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77">
@@ -4606,7 +5183,7 @@
         <v>447</v>
       </c>
       <c r="U77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78">
@@ -4614,7 +5191,7 @@
         <v>296</v>
       </c>
       <c r="U78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79">
@@ -4622,7 +5199,7 @@
         <v>298</v>
       </c>
       <c r="U79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80">
@@ -4630,7 +5207,7 @@
         <v>299</v>
       </c>
       <c r="U80" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81">
@@ -4638,7 +5215,7 @@
         <v>301</v>
       </c>
       <c r="U81" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82">
@@ -4646,7 +5223,7 @@
         <v>303</v>
       </c>
       <c r="U82" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83">
@@ -4654,7 +5231,7 @@
         <v>305</v>
       </c>
       <c r="U83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84">
@@ -4662,7 +5239,7 @@
         <v>307</v>
       </c>
       <c r="U84" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85">
@@ -4670,7 +5247,7 @@
         <v>309</v>
       </c>
       <c r="U85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86">
@@ -4678,7 +5255,7 @@
         <v>311</v>
       </c>
       <c r="U86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87">
@@ -4686,7 +5263,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88">
@@ -4694,7 +5271,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89">
@@ -4702,7 +5279,7 @@
         <v>317</v>
       </c>
       <c r="U89" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90">
@@ -4710,7 +5287,7 @@
         <v>319</v>
       </c>
       <c r="U90" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91">
@@ -4718,7 +5295,7 @@
         <v>321</v>
       </c>
       <c r="U91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92">
@@ -4726,101 +5303,106 @@
         <v>323</v>
       </c>
       <c r="U92" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="479">
   <si>
     <t>target</t>
   </si>
@@ -1467,6 +1467,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1826,8 +1850,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2305,8 +2423,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -3252,12 +3523,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3467,49 +4020,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="72" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="72" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="75" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="75" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="87" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="90" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="93" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="99" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3827,7 +4425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4153,6 +4751,9 @@
       <c r="C5" t="s">
         <v>68</v>
       </c>
+      <c r="D5" t="s">
+        <v>471</v>
+      </c>
       <c r="E5" t="s">
         <v>54</v>
       </c>
@@ -4246,7 +4847,7 @@
         <v>86</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>477</v>
       </c>
       <c r="W6" t="s">
         <v>88</v>
@@ -4301,6 +4902,9 @@
       <c r="U7" t="s">
         <v>98</v>
       </c>
+      <c r="V7" t="s">
+        <v>478</v>
+      </c>
       <c r="W7" t="s">
         <v>99</v>
       </c>
@@ -4351,6 +4955,9 @@
       <c r="U8" t="s">
         <v>108</v>
       </c>
+      <c r="V8" t="s">
+        <v>87</v>
+      </c>
       <c r="W8" t="s">
         <v>109</v>
       </c>
@@ -4419,7 +5026,7 @@
         <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="M10" t="s">
         <v>452</v>
@@ -4454,7 +5061,7 @@
         <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
         <v>116</v>
@@ -4486,7 +5093,7 @@
         <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s">
         <v>125</v>
@@ -4514,6 +5121,9 @@
       <c r="I13" t="s">
         <v>140</v>
       </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
       <c r="M13" t="s">
         <v>133</v>
       </c>
@@ -4664,7 +5274,7 @@
         <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>472</v>
       </c>
       <c r="U20" t="s">
         <v>183</v>
@@ -4681,7 +5291,7 @@
         <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U21" t="s">
         <v>186</v>
@@ -4697,6 +5307,9 @@
       <c r="E22" t="s">
         <v>182</v>
       </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
       <c r="U22" t="s">
         <v>189</v>
       </c>
@@ -4927,7 +5540,7 @@
         <v>237</v>
       </c>
       <c r="U45" t="s">
-        <v>238</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46">
@@ -4935,7 +5548,7 @@
         <v>239</v>
       </c>
       <c r="U46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47">
@@ -4943,7 +5556,7 @@
         <v>241</v>
       </c>
       <c r="U47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48">
@@ -4951,7 +5564,7 @@
         <v>243</v>
       </c>
       <c r="U48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49">
@@ -4959,7 +5572,7 @@
         <v>393</v>
       </c>
       <c r="U49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50">
@@ -4967,7 +5580,7 @@
         <v>246</v>
       </c>
       <c r="U50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51">
@@ -4975,7 +5588,7 @@
         <v>248</v>
       </c>
       <c r="U51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52">
@@ -4983,7 +5596,7 @@
         <v>252</v>
       </c>
       <c r="U52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -4991,7 +5604,7 @@
         <v>254</v>
       </c>
       <c r="U53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -4999,7 +5612,7 @@
         <v>256</v>
       </c>
       <c r="U54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -5007,7 +5620,7 @@
         <v>258</v>
       </c>
       <c r="U55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56">
@@ -5015,7 +5628,7 @@
         <v>260</v>
       </c>
       <c r="U56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57">
@@ -5023,7 +5636,7 @@
         <v>262</v>
       </c>
       <c r="U57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58">
@@ -5031,7 +5644,7 @@
         <v>264</v>
       </c>
       <c r="U58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59">
@@ -5039,7 +5652,7 @@
         <v>266</v>
       </c>
       <c r="U59" t="s">
-        <v>470</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60">
@@ -5047,7 +5660,7 @@
         <v>268</v>
       </c>
       <c r="U60" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61">
@@ -5055,7 +5668,7 @@
         <v>270</v>
       </c>
       <c r="U61" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62">
@@ -5063,7 +5676,7 @@
         <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -5071,7 +5684,7 @@
         <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>267</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64">
@@ -5079,7 +5692,7 @@
         <v>274</v>
       </c>
       <c r="U64" t="s">
-        <v>460</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65">
@@ -5087,7 +5700,7 @@
         <v>276</v>
       </c>
       <c r="U65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66">
@@ -5095,7 +5708,7 @@
         <v>278</v>
       </c>
       <c r="U66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67">
@@ -5103,7 +5716,7 @@
         <v>280</v>
       </c>
       <c r="U67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
@@ -5111,7 +5724,7 @@
         <v>282</v>
       </c>
       <c r="U68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69">
@@ -5119,7 +5732,7 @@
         <v>440</v>
       </c>
       <c r="U69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
@@ -5127,7 +5740,7 @@
         <v>284</v>
       </c>
       <c r="U70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71">
@@ -5135,7 +5748,7 @@
         <v>441</v>
       </c>
       <c r="U71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72">
@@ -5143,7 +5756,7 @@
         <v>286</v>
       </c>
       <c r="U72" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73">
@@ -5151,7 +5764,7 @@
         <v>288</v>
       </c>
       <c r="U73" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74">
@@ -5159,7 +5772,7 @@
         <v>290</v>
       </c>
       <c r="U74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75">
@@ -5167,7 +5780,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76">
@@ -5175,7 +5788,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77">
@@ -5183,7 +5796,7 @@
         <v>447</v>
       </c>
       <c r="U77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78">
@@ -5191,7 +5804,7 @@
         <v>296</v>
       </c>
       <c r="U78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79">
@@ -5199,7 +5812,7 @@
         <v>298</v>
       </c>
       <c r="U79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80">
@@ -5207,7 +5820,7 @@
         <v>299</v>
       </c>
       <c r="U80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81">
@@ -5215,7 +5828,7 @@
         <v>301</v>
       </c>
       <c r="U81" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82">
@@ -5223,7 +5836,7 @@
         <v>303</v>
       </c>
       <c r="U82" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
@@ -5231,7 +5844,7 @@
         <v>305</v>
       </c>
       <c r="U83" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84">
@@ -5239,7 +5852,7 @@
         <v>307</v>
       </c>
       <c r="U84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85">
@@ -5247,7 +5860,7 @@
         <v>309</v>
       </c>
       <c r="U85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86">
@@ -5255,7 +5868,7 @@
         <v>311</v>
       </c>
       <c r="U86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87">
@@ -5263,7 +5876,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88">
@@ -5271,7 +5884,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89">
@@ -5279,7 +5892,7 @@
         <v>317</v>
       </c>
       <c r="U89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90">
@@ -5287,7 +5900,7 @@
         <v>319</v>
       </c>
       <c r="U90" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91">
@@ -5295,7 +5908,7 @@
         <v>321</v>
       </c>
       <c r="U91" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92">
@@ -5303,106 +5916,116 @@
         <v>323</v>
       </c>
       <c r="U92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>333</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="479">
   <si>
     <t>target</t>
   </si>
@@ -1498,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="85" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1944,8 +1944,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2576,8 +2670,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="121">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -3805,12 +4052,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4065,49 +4594,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="87" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="87" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="90" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="90" fontId="57" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="93" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="93" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="99" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="99" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="102" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="105" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="114" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="117" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="120" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="126" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="129" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="479">
   <si>
     <t>target</t>
   </si>
@@ -1498,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2038,8 +2038,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2823,8 +2917,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="149">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -4334,12 +4581,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4639,49 +5168,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="114" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="114" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="117" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="117" fontId="72" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="120" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="120" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="126" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="126" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="129" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="129" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="132" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="141" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="144" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="147" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="153" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="156" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5456,7 +6030,7 @@
         <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
         <v>84</v>
@@ -5512,7 +6086,7 @@
         <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
         <v>96</v>
@@ -5562,7 +6136,7 @@
         <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
         <v>106</v>
@@ -5600,7 +6174,7 @@
         <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>473</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
         <v>452</v>
@@ -5635,7 +6209,7 @@
         <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="M11" t="s">
         <v>116</v>
@@ -5667,7 +6241,7 @@
         <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
         <v>125</v>
@@ -5696,7 +6270,7 @@
         <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s">
         <v>133</v>
@@ -5723,6 +6297,9 @@
       </c>
       <c r="I14" t="s">
         <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
       </c>
       <c r="M14" t="s">
         <v>141</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="482">
   <si>
     <t>target</t>
   </si>
@@ -1491,6 +1491,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="145" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2132,8 +2141,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3070,8 +3361,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="261">
     <border>
       <left/>
       <right/>
@@ -4863,12 +5613,858 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5213,49 +6809,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="141" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="141" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="144" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="144" fontId="87" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="147" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="147" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="153" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="153" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="156" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="156" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="159" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="168" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="171" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="174" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="180" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="183" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="186" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="186" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="212" fillId="195" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="198" fontId="117" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="201" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="120" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="207" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="210" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="213" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="222" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="225" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="228" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="234" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="237" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5761,7 +7492,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>481</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -5835,7 +7566,7 @@
         <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -5906,7 +7637,7 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>70</v>
@@ -5968,7 +7699,7 @@
         <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -6024,7 +7755,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -6080,7 +7811,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>104</v>
@@ -6132,6 +7863,9 @@
       <c r="E9" t="s">
         <v>92</v>
       </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
       <c r="I9" t="s">
         <v>415</v>
       </c>
@@ -6169,6 +7903,9 @@
       </c>
       <c r="E10" t="s">
         <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
       </c>
       <c r="I10" t="s">
         <v>114</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5588" uniqueCount="486">
   <si>
     <t>target</t>
   </si>
@@ -1500,6 +1500,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1519,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="145" x14ac:knownFonts="1">
+  <fonts count="175" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2423,8 +2435,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3820,8 +4020,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="261">
+  <borders count="317">
     <border>
       <left/>
       <right/>
@@ -6459,12 +6965,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6944,49 +8014,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="222" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="240" fillId="222" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="225" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="225" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="228" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="228" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="234" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="234" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="237" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="237" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="240" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="268" fillId="249" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="252" fontId="147" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="255" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="150" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="261" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="264" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="267" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="267" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="276" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="279" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="282" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="288" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="291" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7412,7 +8572,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>483</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -7492,7 +8652,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -7566,7 +8726,7 @@
         <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -7637,7 +8797,7 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>481</v>
       </c>
       <c r="H5" t="s">
         <v>70</v>
@@ -7699,7 +8859,7 @@
         <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -7755,7 +8915,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -7811,7 +8971,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>104</v>
@@ -7864,7 +9024,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>485</v>
       </c>
       <c r="I9" t="s">
         <v>415</v>
@@ -7905,7 +9065,7 @@
         <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>114</v>
@@ -7942,6 +9102,9 @@
       <c r="E11" t="s">
         <v>113</v>
       </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
       <c r="I11" t="s">
         <v>123</v>
       </c>
@@ -7974,6 +9137,9 @@
       <c r="E12" t="s">
         <v>122</v>
       </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
       <c r="I12" t="s">
         <v>131</v>
       </c>
@@ -8003,6 +9169,9 @@
       <c r="E13" t="s">
         <v>130</v>
       </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
       <c r="I13" t="s">
         <v>140</v>
       </c>
@@ -8207,7 +9376,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="E23" t="s">
         <v>185</v>
@@ -8221,7 +9390,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
         <v>188</v>
@@ -8235,7 +9404,7 @@
         <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>446</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
         <v>191</v>
@@ -8249,7 +9418,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>446</v>
       </c>
       <c r="E26" t="s">
         <v>194</v>
@@ -8260,7 +9429,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
         <v>197</v>
@@ -8271,7 +9440,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
         <v>200</v>
@@ -8282,7 +9451,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
         <v>203</v>
@@ -8293,7 +9462,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
         <v>206</v>
@@ -8304,7 +9473,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
         <v>209</v>
@@ -8315,7 +9484,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
         <v>211</v>
@@ -8326,7 +9495,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
         <v>213</v>
@@ -8336,6 +9505,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" t="s">
         <v>215</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5588" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="488">
   <si>
     <t>target</t>
   </si>
@@ -1512,6 +1512,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1525,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="175" x14ac:knownFonts="1">
+  <fonts count="205" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2623,8 +2629,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4326,8 +4520,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="317">
+  <borders count="373">
     <border>
       <left/>
       <right/>
@@ -7529,12 +8029,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="227">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -8104,49 +9168,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="276" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="296" fillId="276" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="279" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="279" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="282" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="282" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="288" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="288" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="291" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="291" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="294" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="324" fillId="303" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="306" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="309" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="315" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="318" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="321" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="330" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="333" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="336" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="342" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="345" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8464,7 +9618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9856,7 +11010,7 @@
         <v>447</v>
       </c>
       <c r="U77" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78">
@@ -9864,7 +11018,7 @@
         <v>296</v>
       </c>
       <c r="U78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79">
@@ -9872,7 +11026,7 @@
         <v>298</v>
       </c>
       <c r="U79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80">
@@ -9880,7 +11034,7 @@
         <v>299</v>
       </c>
       <c r="U80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81">
@@ -9888,7 +11042,7 @@
         <v>301</v>
       </c>
       <c r="U81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82">
@@ -9896,7 +11050,7 @@
         <v>303</v>
       </c>
       <c r="U82" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
@@ -9904,7 +11058,7 @@
         <v>305</v>
       </c>
       <c r="U83" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84">
@@ -9912,7 +11066,7 @@
         <v>307</v>
       </c>
       <c r="U84" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85">
@@ -9920,7 +11074,7 @@
         <v>309</v>
       </c>
       <c r="U85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86">
@@ -9928,7 +11082,7 @@
         <v>311</v>
       </c>
       <c r="U86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87">
@@ -9936,7 +11090,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88">
@@ -9944,7 +11098,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89">
@@ -9952,7 +11106,7 @@
         <v>317</v>
       </c>
       <c r="U89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90">
@@ -9960,7 +11114,7 @@
         <v>319</v>
       </c>
       <c r="U90" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91">
@@ -9968,7 +11122,7 @@
         <v>321</v>
       </c>
       <c r="U91" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92">
@@ -9976,116 +11130,121 @@
         <v>323</v>
       </c>
       <c r="U92" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="489">
   <si>
     <t>target</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="205" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2817,8 +2820,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4826,8 +4923,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="373">
+  <borders count="401">
     <border>
       <left/>
       <right/>
@@ -8593,12 +8843,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="242">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -9258,49 +9790,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="330" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="352" fillId="330" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="333" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="333" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="336" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="336" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="342" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="345" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="342" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="345" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="348" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="348" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="357" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="360" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="363" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="369" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="372" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9618,7 +10195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10954,7 +11531,7 @@
         <v>284</v>
       </c>
       <c r="U70" t="s">
-        <v>275</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
@@ -10962,7 +11539,7 @@
         <v>441</v>
       </c>
       <c r="U71" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72">
@@ -10970,7 +11547,7 @@
         <v>286</v>
       </c>
       <c r="U72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73">
@@ -10978,7 +11555,7 @@
         <v>288</v>
       </c>
       <c r="U73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74">
@@ -10986,7 +11563,7 @@
         <v>290</v>
       </c>
       <c r="U74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75">
@@ -10994,7 +11571,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76">
@@ -11002,7 +11579,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77">
@@ -11010,7 +11587,7 @@
         <v>447</v>
       </c>
       <c r="U77" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78">
@@ -11018,7 +11595,7 @@
         <v>296</v>
       </c>
       <c r="U78" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79">
@@ -11026,7 +11603,7 @@
         <v>298</v>
       </c>
       <c r="U79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80">
@@ -11034,7 +11611,7 @@
         <v>299</v>
       </c>
       <c r="U80" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81">
@@ -11042,7 +11619,7 @@
         <v>301</v>
       </c>
       <c r="U81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82">
@@ -11050,7 +11627,7 @@
         <v>303</v>
       </c>
       <c r="U82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83">
@@ -11058,7 +11635,7 @@
         <v>305</v>
       </c>
       <c r="U83" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84">
@@ -11066,7 +11643,7 @@
         <v>307</v>
       </c>
       <c r="U84" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85">
@@ -11074,7 +11651,7 @@
         <v>309</v>
       </c>
       <c r="U85" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86">
@@ -11082,7 +11659,7 @@
         <v>311</v>
       </c>
       <c r="U86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87">
@@ -11090,7 +11667,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
@@ -11098,7 +11675,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89">
@@ -11106,7 +11683,7 @@
         <v>317</v>
       </c>
       <c r="U89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90">
@@ -11114,7 +11691,7 @@
         <v>319</v>
       </c>
       <c r="U90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91">
@@ -11122,7 +11699,7 @@
         <v>321</v>
       </c>
       <c r="U91" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92">
@@ -11130,121 +11707,126 @@
         <v>323</v>
       </c>
       <c r="U92" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7443" uniqueCount="490">
   <si>
     <t>target</t>
   </si>
@@ -1521,6 +1521,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1531,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="220" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2914,8 +2917,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5076,8 +5173,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="401">
+  <borders count="429">
     <border>
       <left/>
       <right/>
@@ -9125,12 +9375,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="257">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -9835,49 +10367,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="357" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="380" fillId="357" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="360" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="360" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="363" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="363" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="369" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="372" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="369" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="372" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="375" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="375" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="384" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="387" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="390" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="396" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="399" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10528,7 +11105,7 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H5" t="s">
         <v>70</v>
@@ -10590,7 +11167,7 @@
         <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -10646,7 +11223,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>480</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -10702,7 +11279,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>104</v>
@@ -10755,7 +11332,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
         <v>415</v>
@@ -10796,7 +11373,7 @@
         <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>485</v>
       </c>
       <c r="I10" t="s">
         <v>114</v>
@@ -10834,7 +11411,7 @@
         <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
         <v>123</v>
@@ -10869,7 +11446,7 @@
         <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
         <v>131</v>
@@ -10901,7 +11478,7 @@
         <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
         <v>140</v>
@@ -10931,6 +11508,9 @@
       </c>
       <c r="E14" t="s">
         <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
       </c>
       <c r="I14" t="s">
         <v>147</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7443" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="491">
   <si>
     <t>target</t>
   </si>
@@ -1524,6 +1524,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="250" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3011,8 +3014,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5326,8 +5423,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="429">
+  <borders count="457">
     <border>
       <left/>
       <right/>
@@ -9657,12 +9907,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="272">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -10412,49 +10944,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="384" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="408" fillId="384" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="387" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="387" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="390" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="390" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="396" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="399" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="420" fillId="396" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="399" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="402" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="402" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="411" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="414" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="417" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="423" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="426" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="429" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11513,7 +12090,7 @@
         <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>490</v>
       </c>
       <c r="K14" t="s">
         <v>132</v>
@@ -11542,7 +12119,7 @@
         <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s">
         <v>148</v>
@@ -11568,7 +12145,7 @@
         <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>405</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s">
         <v>167</v>
@@ -11591,7 +12168,7 @@
         <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="U17" t="s">
         <v>173</v>
@@ -11608,7 +12185,7 @@
         <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
       <c r="U18" t="s">
         <v>177</v>
@@ -11625,7 +12202,7 @@
         <v>171</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="U19" t="s">
         <v>180</v>
@@ -11642,7 +12219,7 @@
         <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
+        <v>166</v>
       </c>
       <c r="U20" t="s">
         <v>183</v>
@@ -11659,7 +12236,7 @@
         <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>472</v>
       </c>
       <c r="U21" t="s">
         <v>186</v>
@@ -11676,7 +12253,7 @@
         <v>182</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U22" t="s">
         <v>189</v>
@@ -11691,6 +12268,9 @@
       </c>
       <c r="E23" t="s">
         <v>185</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
       </c>
       <c r="U23" t="s">
         <v>192</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8377" uniqueCount="493">
   <si>
     <t>target</t>
   </si>
@@ -1527,6 +1527,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1540,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="250" x14ac:knownFonts="1">
+  <fonts count="265" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3108,8 +3114,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5576,8 +5676,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="457">
+  <borders count="485">
     <border>
       <left/>
       <right/>
@@ -10189,12 +10442,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="287">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -10989,49 +11524,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="411" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="411" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="414" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="440" fillId="414" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="417" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="417" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="423" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="426" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="429" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="448" fillId="423" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="426" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="429" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="429" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="438" borderId="464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="441" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="444" borderId="472" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="450" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="453" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11528,7 +12108,7 @@
         <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
         <v>390</v>
@@ -11602,7 +12182,7 @@
         <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -11673,7 +12253,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
         <v>471</v>
@@ -11738,7 +12318,7 @@
         <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>413</v>
@@ -11794,7 +12374,7 @@
         <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>391</v>
@@ -11850,7 +12430,7 @@
         <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>392</v>
@@ -11903,7 +12483,7 @@
         <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
@@ -11944,7 +12524,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -11982,7 +12562,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>113</v>
@@ -12017,7 +12597,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>122</v>
@@ -12049,7 +12629,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>130</v>
@@ -12081,7 +12661,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>139</v>
@@ -12113,7 +12693,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>146</v>
@@ -12139,7 +12719,7 @@
         <v>425</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="E16" t="s">
         <v>153</v>
@@ -12162,7 +12742,7 @@
         <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="E17" t="s">
         <v>159</v>
@@ -12179,7 +12759,7 @@
         <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
         <v>165</v>
@@ -12196,7 +12776,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
         <v>171</v>
@@ -12213,7 +12793,7 @@
         <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
         <v>175</v>
@@ -12230,7 +12810,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
         <v>179</v>
@@ -12247,7 +12827,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>182</v>
@@ -12264,7 +12844,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>482</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
         <v>185</v>
@@ -12281,7 +12861,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
         <v>188</v>
@@ -12295,7 +12875,7 @@
         <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>482</v>
       </c>
       <c r="E25" t="s">
         <v>191</v>
@@ -12309,7 +12889,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>446</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
         <v>194</v>
@@ -12320,7 +12900,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
         <v>197</v>
@@ -12331,7 +12911,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>190</v>
+        <v>446</v>
       </c>
       <c r="E28" t="s">
         <v>200</v>
@@ -12342,7 +12922,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
         <v>203</v>
@@ -12353,7 +12933,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
         <v>206</v>
@@ -12364,7 +12944,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
         <v>209</v>
@@ -12375,7 +12955,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E32" t="s">
         <v>211</v>
@@ -12386,7 +12966,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E33" t="s">
         <v>213</v>
@@ -12397,7 +12977,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
         <v>215</v>
@@ -12407,6 +12987,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
       <c r="E35" t="s">
         <v>217</v>
       </c>
@@ -12415,6 +12998,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
       <c r="E36" t="s">
         <v>219</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8377" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8846" uniqueCount="494">
   <si>
     <t>target</t>
   </si>
@@ -1533,6 +1533,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="265" x14ac:knownFonts="1">
+  <fonts count="280" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3208,8 +3211,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5829,8 +5926,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="485">
+  <borders count="513">
     <border>
       <left/>
       <right/>
@@ -10724,12 +10974,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="302">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -11569,49 +12101,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="438" borderId="464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="464" fillId="438" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="441" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="441" fontId="252" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="444" borderId="472" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="444" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="450" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="453" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="476" fillId="450" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="453" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="456" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="465" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="468" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="471" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="477" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="480" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11929,7 +12506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13141,7 +13718,7 @@
         <v>254</v>
       </c>
       <c r="U53" t="s">
-        <v>250</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54">
@@ -13149,7 +13726,7 @@
         <v>256</v>
       </c>
       <c r="U54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55">
@@ -13157,7 +13734,7 @@
         <v>258</v>
       </c>
       <c r="U55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56">
@@ -13165,7 +13742,7 @@
         <v>260</v>
       </c>
       <c r="U56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -13173,7 +13750,7 @@
         <v>262</v>
       </c>
       <c r="U57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58">
@@ -13181,7 +13758,7 @@
         <v>264</v>
       </c>
       <c r="U58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59">
@@ -13189,7 +13766,7 @@
         <v>266</v>
       </c>
       <c r="U59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60">
@@ -13197,7 +13774,7 @@
         <v>268</v>
       </c>
       <c r="U60" t="s">
-        <v>470</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61">
@@ -13205,7 +13782,7 @@
         <v>270</v>
       </c>
       <c r="U61" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62">
@@ -13213,7 +13790,7 @@
         <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63">
@@ -13221,7 +13798,7 @@
         <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
@@ -13229,7 +13806,7 @@
         <v>274</v>
       </c>
       <c r="U64" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
@@ -13237,7 +13814,7 @@
         <v>276</v>
       </c>
       <c r="U65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66">
@@ -13245,7 +13822,7 @@
         <v>278</v>
       </c>
       <c r="U66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67">
@@ -13253,7 +13830,7 @@
         <v>280</v>
       </c>
       <c r="U67" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68">
@@ -13261,7 +13838,7 @@
         <v>282</v>
       </c>
       <c r="U68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69">
@@ -13269,7 +13846,7 @@
         <v>440</v>
       </c>
       <c r="U69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
@@ -13277,7 +13854,7 @@
         <v>284</v>
       </c>
       <c r="U70" t="s">
-        <v>488</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
@@ -13285,7 +13862,7 @@
         <v>441</v>
       </c>
       <c r="U71" t="s">
-        <v>275</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72">
@@ -13293,7 +13870,7 @@
         <v>286</v>
       </c>
       <c r="U72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73">
@@ -13301,7 +13878,7 @@
         <v>288</v>
       </c>
       <c r="U73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74">
@@ -13309,7 +13886,7 @@
         <v>290</v>
       </c>
       <c r="U74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75">
@@ -13317,7 +13894,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76">
@@ -13325,7 +13902,7 @@
         <v>294</v>
       </c>
       <c r="U76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77">
@@ -13333,7 +13910,7 @@
         <v>447</v>
       </c>
       <c r="U77" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78">
@@ -13341,7 +13918,7 @@
         <v>296</v>
       </c>
       <c r="U78" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79">
@@ -13349,7 +13926,7 @@
         <v>298</v>
       </c>
       <c r="U79" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80">
@@ -13357,7 +13934,7 @@
         <v>299</v>
       </c>
       <c r="U80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81">
@@ -13365,7 +13942,7 @@
         <v>301</v>
       </c>
       <c r="U81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82">
@@ -13373,7 +13950,7 @@
         <v>303</v>
       </c>
       <c r="U82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83">
@@ -13381,7 +13958,7 @@
         <v>305</v>
       </c>
       <c r="U83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84">
@@ -13389,7 +13966,7 @@
         <v>307</v>
       </c>
       <c r="U84" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85">
@@ -13397,7 +13974,7 @@
         <v>309</v>
       </c>
       <c r="U85" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86">
@@ -13405,7 +13982,7 @@
         <v>311</v>
       </c>
       <c r="U86" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87">
@@ -13413,7 +13990,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88">
@@ -13421,7 +13998,7 @@
         <v>315</v>
       </c>
       <c r="U88" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89">
@@ -13429,7 +14006,7 @@
         <v>317</v>
       </c>
       <c r="U89" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90">
@@ -13437,7 +14014,7 @@
         <v>319</v>
       </c>
       <c r="U90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91">
@@ -13445,7 +14022,7 @@
         <v>321</v>
       </c>
       <c r="U91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92">
@@ -13453,126 +14030,131 @@
         <v>323</v>
       </c>
       <c r="U92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8846" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9315" uniqueCount="494">
   <si>
     <t>target</t>
   </si>
@@ -1543,7 +1543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="280" x14ac:knownFonts="1">
+  <fonts count="295" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3305,8 +3305,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6079,8 +6173,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="513">
+  <borders count="541">
     <border>
       <left/>
       <right/>
@@ -11256,12 +11503,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -12146,49 +12675,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="465" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="492" fillId="465" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="468" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="468" fontId="267" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="471" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="471" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="477" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="480" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="504" fillId="477" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="480" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="483" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="483" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="492" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="495" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="498" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="504" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="507" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -18,43 +18,44 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9315" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9790" uniqueCount="499">
   <si>
     <t>target</t>
   </si>
@@ -1536,6 +1537,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1559,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="295" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3399,8 +3415,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6326,8 +6443,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="541">
+  <borders count="569">
     <border>
       <left/>
       <right/>
@@ -11785,12 +12055,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="333">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -12720,49 +13272,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="492" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="520" fillId="492" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="495" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="495" fontId="282" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="498" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="498" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="504" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="507" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="504" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="536" fillId="507" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="510" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="510" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="519" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="522" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="525" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="528" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="534" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="537" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13080,7 +13680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13099,75 +13699,78 @@
         <v>396</v>
       </c>
       <c r="C1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>425</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>442</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>443</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>421</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>444</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13179,1556 +13782,1571 @@
         <v>397</v>
       </c>
       <c r="C2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>483</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>409</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>448</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>449</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>450</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>454</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>455</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>406</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>422</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>463</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
         <v>398</v>
       </c>
       <c r="C3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" t="s">
         <v>491</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>390</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>451</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>456</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>407</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>423</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>389</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>399</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>412</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>484</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>57</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>62</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>428</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>457</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>30</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>424</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>63</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>64</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>65</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>464</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>400</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>492</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>471</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>489</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>497</v>
+      </c>
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>60</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>74</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>429</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>458</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>48</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>75</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>76</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>77</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>465</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>401</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>413</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>481</v>
       </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>416</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>430</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>385</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>86</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>477</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>88</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>466</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>402</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>391</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>480</v>
       </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>453</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>431</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>386</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>98</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>478</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>467</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>403</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>392</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
         <v>83</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>107</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>432</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>387</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>108</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>87</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>109</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>468</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>404</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
-        <v>415</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>117</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>433</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>388</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>118</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>485</v>
       </c>
-      <c r="I10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>415</v>
+      </c>
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>452</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>126</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>434</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>127</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>128</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
         <v>473</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>116</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>134</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>135</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>136</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>122</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
         <v>115</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>125</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>142</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>143</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>130</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>93</v>
       </c>
-      <c r="I13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>133</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>149</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>150</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>138</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>139</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
-        <v>490</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
         <v>132</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>141</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>155</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>156</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>145</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>146</v>
       </c>
-      <c r="I15" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>490</v>
+      </c>
+      <c r="N15" t="s">
         <v>148</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>161</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>162</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>410</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>153</v>
       </c>
-      <c r="I16" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
         <v>167</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>168</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" t="s">
         <v>411</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
-        <v>405</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="V17" t="s">
         <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" t="s">
         <v>445</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>165</v>
       </c>
-      <c r="I18" t="s">
-        <v>160</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>405</v>
+      </c>
+      <c r="V18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D19" t="s">
         <v>152</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>171</v>
       </c>
-      <c r="I19" t="s">
-        <v>417</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="V19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>158</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>175</v>
       </c>
-      <c r="I20" t="s">
-        <v>166</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>417</v>
+      </c>
+      <c r="V20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" t="s">
         <v>164</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>179</v>
       </c>
-      <c r="I21" t="s">
-        <v>472</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="V21" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>170</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>182</v>
       </c>
-      <c r="I22" t="s">
-        <v>172</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>472</v>
+      </c>
+      <c r="V22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>174</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>185</v>
       </c>
-      <c r="I23" t="s">
-        <v>176</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="V23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
         <v>178</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>188</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>176</v>
+      </c>
+      <c r="V24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>482</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>191</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
+        <v>444</v>
+      </c>
+      <c r="D26" t="s">
         <v>181</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>194</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
         <v>184</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>197</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>446</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>200</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>187</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>203</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>190</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>206</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>193</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>209</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>196</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>211</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>199</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>213</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>202</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>215</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>205</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>217</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>208</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>219</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>221</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>223</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>225</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>227</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>229</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>231</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>233</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>235</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>237</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>239</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>241</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>243</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>393</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>246</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>248</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>252</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>254</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>256</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>258</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>260</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>262</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>264</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>266</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>268</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>270</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>394</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>395</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>274</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>276</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>278</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>280</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>282</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>440</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>284</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>441</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>286</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>288</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>290</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>292</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>294</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>447</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>296</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>298</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>299</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>301</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>303</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>305</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>307</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>309</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>311</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>313</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>315</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>317</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>319</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>321</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>323</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9790" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10266" uniqueCount="501">
   <si>
     <t>target</t>
   </si>
@@ -1552,6 +1552,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1565,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3516,8 +3522,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6596,8 +6703,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="569">
+  <borders count="597">
     <border>
       <left/>
       <right/>
@@ -12337,12 +12597,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="349">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -13317,52 +13859,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="519" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="548" fillId="519" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="522" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="522" fontId="297" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="525" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="525" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="528" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="528" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="534" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="537" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="560" fillId="534" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="537" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="540" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="540" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="555" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13680,7 +14270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13782,7 +14372,7 @@
         <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -14894,7 +15484,7 @@
         <v>248</v>
       </c>
       <c r="V51" t="s">
-        <v>247</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
@@ -14902,7 +15492,7 @@
         <v>252</v>
       </c>
       <c r="V52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53">
@@ -14910,7 +15500,7 @@
         <v>254</v>
       </c>
       <c r="V53" t="s">
-        <v>493</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54">
@@ -14918,7 +15508,7 @@
         <v>256</v>
       </c>
       <c r="V54" t="s">
-        <v>250</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55">
@@ -14926,7 +15516,7 @@
         <v>258</v>
       </c>
       <c r="V55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56">
@@ -14934,7 +15524,7 @@
         <v>260</v>
       </c>
       <c r="V56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57">
@@ -14942,7 +15532,7 @@
         <v>262</v>
       </c>
       <c r="V57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58">
@@ -14950,7 +15540,7 @@
         <v>264</v>
       </c>
       <c r="V58" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -14958,7 +15548,7 @@
         <v>266</v>
       </c>
       <c r="V59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60">
@@ -14966,7 +15556,7 @@
         <v>268</v>
       </c>
       <c r="V60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61">
@@ -14974,7 +15564,7 @@
         <v>270</v>
       </c>
       <c r="V61" t="s">
-        <v>470</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62">
@@ -14982,7 +15572,7 @@
         <v>394</v>
       </c>
       <c r="V62" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63">
@@ -14990,7 +15580,7 @@
         <v>395</v>
       </c>
       <c r="V63" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64">
@@ -14998,7 +15588,7 @@
         <v>274</v>
       </c>
       <c r="V64" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65">
@@ -15006,7 +15596,7 @@
         <v>276</v>
       </c>
       <c r="V65" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66">
@@ -15014,7 +15604,7 @@
         <v>278</v>
       </c>
       <c r="V66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67">
@@ -15022,7 +15612,7 @@
         <v>280</v>
       </c>
       <c r="V67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68">
@@ -15030,7 +15620,7 @@
         <v>282</v>
       </c>
       <c r="V68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
@@ -15038,7 +15628,7 @@
         <v>440</v>
       </c>
       <c r="V69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70">
@@ -15046,7 +15636,7 @@
         <v>284</v>
       </c>
       <c r="V70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71">
@@ -15054,7 +15644,7 @@
         <v>441</v>
       </c>
       <c r="V71" t="s">
-        <v>488</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72">
@@ -15062,7 +15652,7 @@
         <v>286</v>
       </c>
       <c r="V72" t="s">
-        <v>275</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73">
@@ -15070,7 +15660,7 @@
         <v>288</v>
       </c>
       <c r="V73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74">
@@ -15078,7 +15668,7 @@
         <v>290</v>
       </c>
       <c r="V74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75">
@@ -15086,7 +15676,7 @@
         <v>292</v>
       </c>
       <c r="V75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76">
@@ -15094,7 +15684,7 @@
         <v>294</v>
       </c>
       <c r="V76" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77">
@@ -15102,7 +15692,7 @@
         <v>447</v>
       </c>
       <c r="V77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78">
@@ -15110,7 +15700,7 @@
         <v>296</v>
       </c>
       <c r="V78" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79">
@@ -15118,7 +15708,7 @@
         <v>298</v>
       </c>
       <c r="V79" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80">
@@ -15126,7 +15716,7 @@
         <v>299</v>
       </c>
       <c r="V80" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81">
@@ -15134,7 +15724,7 @@
         <v>301</v>
       </c>
       <c r="V81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82">
@@ -15142,7 +15732,7 @@
         <v>303</v>
       </c>
       <c r="V82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83">
@@ -15150,7 +15740,7 @@
         <v>305</v>
       </c>
       <c r="V83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84">
@@ -15158,7 +15748,7 @@
         <v>307</v>
       </c>
       <c r="V84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85">
@@ -15166,7 +15756,7 @@
         <v>309</v>
       </c>
       <c r="V85" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86">
@@ -15174,7 +15764,7 @@
         <v>311</v>
       </c>
       <c r="V86" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87">
@@ -15182,7 +15772,7 @@
         <v>313</v>
       </c>
       <c r="V87" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88">
@@ -15190,7 +15780,7 @@
         <v>315</v>
       </c>
       <c r="V88" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89">
@@ -15198,7 +15788,7 @@
         <v>317</v>
       </c>
       <c r="V89" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90">
@@ -15206,7 +15796,7 @@
         <v>319</v>
       </c>
       <c r="V90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91">
@@ -15214,7 +15804,7 @@
         <v>321</v>
       </c>
       <c r="V91" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92">
@@ -15222,131 +15812,136 @@
         <v>323</v>
       </c>
       <c r="V92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10266" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11698" uniqueCount="504">
   <si>
     <t>target</t>
   </si>
@@ -1558,6 +1558,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="327" x14ac:knownFonts="1">
+  <fonts count="375" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3623,8 +3632,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6856,8 +7168,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="597">
+  <borders count="681">
     <border>
       <left/>
       <right/>
@@ -12879,12 +13650,858 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="397">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -13907,52 +15524,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="576" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="580" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="555" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="555" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="588" fillId="561" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="592" fillId="564" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="567" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="567" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="604" fillId="573" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="608" fillId="576" fontId="329" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="579" fontId="330" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="582" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="333" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="616" fillId="588" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="620" fillId="591" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="594" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="594" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="632" fillId="600" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="636" fillId="603" fontId="345" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="606" fontId="346" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="609" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="644" fillId="615" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="648" fillId="618" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="621" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="621" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="627" borderId="660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="630" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="633" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="636" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="642" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="645" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="648" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14390,7 +16151,7 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>503</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -14473,7 +16234,7 @@
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -14544,7 +16305,7 @@
         <v>484</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
@@ -14615,7 +16376,7 @@
         <v>489</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
         <v>497</v>
@@ -14675,6 +16436,9 @@
       </c>
       <c r="G6" t="s">
         <v>481</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11698" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13137" uniqueCount="508">
   <si>
     <t>target</t>
   </si>
@@ -1567,6 +1567,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="375" x14ac:knownFonts="1">
+  <fonts count="423" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3935,8 +3947,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7627,8 +7942,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="681">
+  <borders count="765">
     <border>
       <left/>
       <right/>
@@ -14496,12 +15270,858 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="445">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -15668,52 +17288,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="627" borderId="660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="660" fillId="627" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="630" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="664" fillId="630" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="633" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="633" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="636" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="636" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="367" fillId="642" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="645" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="648" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="371" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="672" fillId="642" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="676" fillId="645" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="648" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="648" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="688" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="657" fontId="377" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="660" fontId="378" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="663" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="700" fillId="669" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="704" fillId="672" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="675" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="675" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="716" fillId="681" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="720" fillId="684" fontId="393" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="687" fontId="394" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="690" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="397" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="728" fillId="696" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="732" fillId="699" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="702" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="702" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="708" borderId="744" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="711" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="714" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="717" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="723" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="726" borderId="760" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="729" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="729" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16031,7 +17795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16899,7 +18663,7 @@
         <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>507</v>
       </c>
       <c r="V19" t="s">
         <v>180</v>
@@ -16916,7 +18680,7 @@
         <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
       <c r="V20" t="s">
         <v>183</v>
@@ -16933,7 +18697,7 @@
         <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="V21" t="s">
         <v>186</v>
@@ -16950,7 +18714,7 @@
         <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>472</v>
+        <v>166</v>
       </c>
       <c r="V22" t="s">
         <v>189</v>
@@ -16967,7 +18731,7 @@
         <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>472</v>
       </c>
       <c r="V23" t="s">
         <v>192</v>
@@ -16984,7 +18748,7 @@
         <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="V24" t="s">
         <v>195</v>
@@ -17000,6 +18764,9 @@
       <c r="F25" t="s">
         <v>191</v>
       </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
       <c r="V25" t="s">
         <v>198</v>
       </c>
@@ -17034,7 +18801,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="F28" t="s">
         <v>200</v>
@@ -17045,7 +18812,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>187</v>
+        <v>506</v>
       </c>
       <c r="F29" t="s">
         <v>203</v>
@@ -17056,7 +18823,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>190</v>
+        <v>446</v>
       </c>
       <c r="F30" t="s">
         <v>206</v>
@@ -17067,7 +18834,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
         <v>209</v>
@@ -17078,7 +18845,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
         <v>211</v>
@@ -17089,7 +18856,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F33" t="s">
         <v>213</v>
@@ -17100,7 +18867,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
         <v>215</v>
@@ -17111,7 +18878,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
         <v>217</v>
@@ -17122,7 +18889,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
         <v>219</v>
@@ -17132,6 +18899,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
       <c r="F37" t="s">
         <v>221</v>
       </c>
@@ -17140,6 +18910,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
       <c r="F38" t="s">
         <v>223</v>
       </c>
@@ -17424,7 +19197,7 @@
         <v>288</v>
       </c>
       <c r="V73" t="s">
-        <v>275</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74">
@@ -17432,7 +19205,7 @@
         <v>290</v>
       </c>
       <c r="V74" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75">
@@ -17440,7 +19213,7 @@
         <v>292</v>
       </c>
       <c r="V75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76">
@@ -17448,7 +19221,7 @@
         <v>294</v>
       </c>
       <c r="V76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
@@ -17456,7 +19229,7 @@
         <v>447</v>
       </c>
       <c r="V77" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78">
@@ -17464,7 +19237,7 @@
         <v>296</v>
       </c>
       <c r="V78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79">
@@ -17472,7 +19245,7 @@
         <v>298</v>
       </c>
       <c r="V79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80">
@@ -17480,7 +19253,7 @@
         <v>299</v>
       </c>
       <c r="V80" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81">
@@ -17488,7 +19261,7 @@
         <v>301</v>
       </c>
       <c r="V81" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82">
@@ -17496,7 +19269,7 @@
         <v>303</v>
       </c>
       <c r="V82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83">
@@ -17504,7 +19277,7 @@
         <v>305</v>
       </c>
       <c r="V83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84">
@@ -17512,7 +19285,7 @@
         <v>307</v>
       </c>
       <c r="V84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85">
@@ -17520,7 +19293,7 @@
         <v>309</v>
       </c>
       <c r="V85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86">
@@ -17528,7 +19301,7 @@
         <v>311</v>
       </c>
       <c r="V86" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87">
@@ -17536,7 +19309,7 @@
         <v>313</v>
       </c>
       <c r="V87" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88">
@@ -17544,7 +19317,7 @@
         <v>315</v>
       </c>
       <c r="V88" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89">
@@ -17552,7 +19325,7 @@
         <v>317</v>
       </c>
       <c r="V89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
@@ -17560,7 +19333,7 @@
         <v>319</v>
       </c>
       <c r="V90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91">
@@ -17568,7 +19341,7 @@
         <v>321</v>
       </c>
       <c r="V91" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92">
@@ -17576,136 +19349,141 @@
         <v>323</v>
       </c>
       <c r="V92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13137" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13620" uniqueCount="510">
   <si>
     <t>target</t>
   </si>
@@ -1579,6 +1579,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1592,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="423" x14ac:knownFonts="1">
+  <fonts count="439" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4250,8 +4256,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8401,8 +8508,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="765">
+  <borders count="793">
     <border>
       <left/>
       <right/>
@@ -16116,12 +16376,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="445">
+  <cellXfs count="461">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -17432,52 +17974,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="708" borderId="744" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="744" fillId="708" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="711" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="748" fillId="711" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="714" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="714" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="717" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="717" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="723" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="726" borderId="760" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="729" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="729" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="756" fillId="723" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="760" fillId="726" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="729" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="729" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="735" borderId="772" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="738" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="741" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="744" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="750" borderId="784" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="753" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="756" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="756" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18452,7 +19042,7 @@
         <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="N11" t="s">
         <v>116</v>
@@ -18487,7 +19077,7 @@
         <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>473</v>
       </c>
       <c r="N12" t="s">
         <v>125</v>
@@ -18519,7 +19109,7 @@
         <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>509</v>
       </c>
       <c r="N13" t="s">
         <v>133</v>
@@ -18551,7 +19141,7 @@
         <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="N14" t="s">
         <v>141</v>
@@ -18579,6 +19169,9 @@
       <c r="J15" t="s">
         <v>490</v>
       </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
       <c r="N15" t="s">
         <v>148</v>
       </c>
@@ -18604,6 +19197,9 @@
       </c>
       <c r="J16" t="s">
         <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
       </c>
       <c r="O16" t="s">
         <v>167</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13620" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14106" uniqueCount="513">
   <si>
     <t>target</t>
   </si>
@@ -1585,6 +1585,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="439" x14ac:knownFonts="1">
+  <fonts count="455" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4357,8 +4366,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8661,8 +8771,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="793">
+  <borders count="821">
     <border>
       <left/>
       <right/>
@@ -16658,12 +16921,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="461">
+  <cellXfs count="477">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -18022,52 +18567,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="735" borderId="772" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="772" fillId="735" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="738" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="776" fillId="738" fontId="425" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="741" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="741" fontId="426" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="744" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="744" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="429" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="750" borderId="784" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="432" fillId="753" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="756" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="756" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="435" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="784" fillId="750" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="753" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="756" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="756" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="762" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="765" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="768" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="771" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="777" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="780" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18385,7 +18978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18984,7 +19577,7 @@
         <v>119</v>
       </c>
       <c r="AA9" t="s">
-        <v>120</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10">
@@ -19022,7 +19615,7 @@
         <v>128</v>
       </c>
       <c r="AA10" t="s">
-        <v>129</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11">
@@ -19057,7 +19650,7 @@
         <v>136</v>
       </c>
       <c r="AA11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -19091,6 +19684,9 @@
       <c r="Y12" t="s">
         <v>144</v>
       </c>
+      <c r="AA12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -19123,6 +19719,9 @@
       <c r="Y13" t="s">
         <v>151</v>
       </c>
+      <c r="AA13" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -19713,7 +20312,7 @@
         <v>395</v>
       </c>
       <c r="V63" t="s">
-        <v>263</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64">
@@ -19721,7 +20320,7 @@
         <v>274</v>
       </c>
       <c r="V64" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65">
@@ -19729,7 +20328,7 @@
         <v>276</v>
       </c>
       <c r="V65" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66">
@@ -19737,7 +20336,7 @@
         <v>278</v>
       </c>
       <c r="V66" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67">
@@ -19745,7 +20344,7 @@
         <v>280</v>
       </c>
       <c r="V67" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68">
@@ -19753,7 +20352,7 @@
         <v>282</v>
       </c>
       <c r="V68" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69">
@@ -19761,7 +20360,7 @@
         <v>440</v>
       </c>
       <c r="V69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70">
@@ -19769,7 +20368,7 @@
         <v>284</v>
       </c>
       <c r="V70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71">
@@ -19777,7 +20376,7 @@
         <v>441</v>
       </c>
       <c r="V71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72">
@@ -19785,7 +20384,7 @@
         <v>286</v>
       </c>
       <c r="V72" t="s">
-        <v>488</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73">
@@ -19793,7 +20392,7 @@
         <v>288</v>
       </c>
       <c r="V73" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74">
@@ -19801,7 +20400,7 @@
         <v>290</v>
       </c>
       <c r="V74" t="s">
-        <v>275</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75">
@@ -19809,7 +20408,7 @@
         <v>292</v>
       </c>
       <c r="V75" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76">
@@ -19817,7 +20416,7 @@
         <v>294</v>
       </c>
       <c r="V76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77">
@@ -19825,7 +20424,7 @@
         <v>447</v>
       </c>
       <c r="V77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78">
@@ -19833,7 +20432,7 @@
         <v>296</v>
       </c>
       <c r="V78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79">
@@ -19841,7 +20440,7 @@
         <v>298</v>
       </c>
       <c r="V79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80">
@@ -19849,7 +20448,7 @@
         <v>299</v>
       </c>
       <c r="V80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81">
@@ -19857,7 +20456,7 @@
         <v>301</v>
       </c>
       <c r="V81" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82">
@@ -19865,7 +20464,7 @@
         <v>303</v>
       </c>
       <c r="V82" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83">
@@ -19873,7 +20472,7 @@
         <v>305</v>
       </c>
       <c r="V83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84">
@@ -19881,7 +20480,7 @@
         <v>307</v>
       </c>
       <c r="V84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85">
@@ -19889,7 +20488,7 @@
         <v>309</v>
       </c>
       <c r="V85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86">
@@ -19897,7 +20496,7 @@
         <v>311</v>
       </c>
       <c r="V86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87">
@@ -19905,7 +20504,7 @@
         <v>313</v>
       </c>
       <c r="V87" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88">
@@ -19913,7 +20512,7 @@
         <v>315</v>
       </c>
       <c r="V88" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89">
@@ -19921,7 +20520,7 @@
         <v>317</v>
       </c>
       <c r="V89" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90">
@@ -19929,7 +20528,7 @@
         <v>319</v>
       </c>
       <c r="V90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91">
@@ -19937,7 +20536,7 @@
         <v>321</v>
       </c>
       <c r="V91" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92">
@@ -19945,141 +20544,146 @@
         <v>323</v>
       </c>
       <c r="V92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -24,38 +24,39 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14106" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14600" uniqueCount="522">
   <si>
     <t>target</t>
   </si>
@@ -1594,6 +1595,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1629,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="455" x14ac:knownFonts="1">
+  <fonts count="471" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4467,8 +4495,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8924,8 +9053,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="821">
+  <borders count="849">
     <border>
       <left/>
       <right/>
@@ -17203,12 +17485,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="493">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -18615,52 +19179,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="762" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="800" fillId="762" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="765" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="804" fillId="765" fontId="441" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="768" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="768" fontId="442" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="771" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="771" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="445" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="447" fillId="777" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="780" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="449" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="451" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="452" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="812" fillId="777" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="816" fillId="780" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="783" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="783" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="789" borderId="828" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="792" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="795" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="798" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="804" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="807" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="810" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="810" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18978,7 +19590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19027,48 +19639,51 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>442</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>443</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>421</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>444</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -19110,48 +19725,51 @@
         <v>448</v>
       </c>
       <c r="M2" t="s">
+        <v>516</v>
+      </c>
+      <c r="N2" t="s">
         <v>449</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>450</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>454</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>455</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>406</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>422</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>463</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -19178,7 +19796,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
@@ -19192,43 +19810,46 @@
       <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O3" t="s">
         <v>451</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>456</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>407</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>423</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>389</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -19251,6 +19872,9 @@
       <c r="G4" t="s">
         <v>484</v>
       </c>
+      <c r="H4" t="s">
+        <v>515</v>
+      </c>
       <c r="I4" t="s">
         <v>41</v>
       </c>
@@ -19263,43 +19887,46 @@
       <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>518</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>428</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>457</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>30</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>424</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>63</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>64</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>464</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -19331,40 +19958,40 @@
       <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>60</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>73</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>429</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>458</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>48</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>75</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>76</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>465</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19393,37 +20020,37 @@
       <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>85</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>416</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>430</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>385</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>86</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>477</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>88</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>89</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>466</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -19449,37 +20076,37 @@
       <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>97</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>453</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>431</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>386</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>98</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>478</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>100</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>467</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -19505,34 +20132,34 @@
       <c r="L8" t="s">
         <v>83</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>432</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>387</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>108</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>87</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>109</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>110</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>468</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -19558,25 +20185,25 @@
       <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>106</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>117</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>433</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>388</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>511</v>
       </c>
     </row>
@@ -19599,22 +20226,22 @@
       <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>452</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>126</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>434</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>127</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>128</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>512</v>
       </c>
     </row>
@@ -19637,19 +20264,19 @@
       <c r="L11" t="s">
         <v>508</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>116</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>134</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>135</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>136</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -19672,25 +20299,25 @@
       <c r="L12" t="s">
         <v>473</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>125</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>142</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>143</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>144</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
@@ -19707,25 +20334,25 @@
       <c r="L13" t="s">
         <v>509</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>133</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>149</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>150</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>151</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>138</v>
@@ -19742,22 +20369,22 @@
       <c r="L14" t="s">
         <v>115</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>141</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>155</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>156</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
@@ -19771,22 +20398,22 @@
       <c r="L15" t="s">
         <v>124</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>148</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>161</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>162</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>410</v>
@@ -19800,19 +20427,19 @@
       <c r="L16" t="s">
         <v>132</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>167</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>168</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>411</v>
@@ -19823,16 +20450,16 @@
       <c r="J17" t="s">
         <v>154</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>173</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
         <v>445</v>
@@ -19843,13 +20470,13 @@
       <c r="J18" t="s">
         <v>405</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
         <v>152</v>
@@ -19860,13 +20487,13 @@
       <c r="J19" t="s">
         <v>507</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>443</v>
       </c>
       <c r="D20" t="s">
         <v>158</v>
@@ -19877,13 +20504,13 @@
       <c r="J20" t="s">
         <v>160</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>421</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>164</v>
@@ -19894,13 +20521,13 @@
       <c r="J21" t="s">
         <v>417</v>
       </c>
-      <c r="V21" t="s">
-        <v>186</v>
+      <c r="W21" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
@@ -19911,13 +20538,13 @@
       <c r="J22" t="s">
         <v>166</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>174</v>
@@ -19928,13 +20555,13 @@
       <c r="J23" t="s">
         <v>472</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>178</v>
@@ -19945,13 +20572,13 @@
       <c r="J24" t="s">
         <v>172</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>482</v>
@@ -19962,13 +20589,13 @@
       <c r="J25" t="s">
         <v>176</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>181</v>
@@ -19976,13 +20603,13 @@
       <c r="F26" t="s">
         <v>194</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
         <v>184</v>
@@ -19990,18 +20617,21 @@
       <c r="F27" t="s">
         <v>197</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
       <c r="D28" t="s">
         <v>505</v>
       </c>
       <c r="F28" t="s">
         <v>200</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>207</v>
       </c>
     </row>
@@ -20012,7 +20642,7 @@
       <c r="F29" t="s">
         <v>203</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>210</v>
       </c>
     </row>
@@ -20023,7 +20653,7 @@
       <c r="F30" t="s">
         <v>206</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20034,7 +20664,7 @@
       <c r="F31" t="s">
         <v>209</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>214</v>
       </c>
     </row>
@@ -20045,7 +20675,7 @@
       <c r="F32" t="s">
         <v>211</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>216</v>
       </c>
     </row>
@@ -20056,7 +20686,7 @@
       <c r="F33" t="s">
         <v>213</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>218</v>
       </c>
     </row>
@@ -20067,7 +20697,7 @@
       <c r="F34" t="s">
         <v>215</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>220</v>
       </c>
     </row>
@@ -20078,7 +20708,7 @@
       <c r="F35" t="s">
         <v>217</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>222</v>
       </c>
     </row>
@@ -20089,7 +20719,7 @@
       <c r="F36" t="s">
         <v>219</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>224</v>
       </c>
     </row>
@@ -20100,7 +20730,7 @@
       <c r="F37" t="s">
         <v>221</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>459</v>
       </c>
     </row>
@@ -20111,7 +20741,7 @@
       <c r="F38" t="s">
         <v>223</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>418</v>
       </c>
     </row>
@@ -20119,7 +20749,7 @@
       <c r="F39" t="s">
         <v>225</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>226</v>
       </c>
     </row>
@@ -20127,7 +20757,7 @@
       <c r="F40" t="s">
         <v>227</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20135,7 +20765,7 @@
       <c r="F41" t="s">
         <v>229</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>230</v>
       </c>
     </row>
@@ -20143,7 +20773,7 @@
       <c r="F42" t="s">
         <v>231</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>232</v>
       </c>
     </row>
@@ -20151,7 +20781,7 @@
       <c r="F43" t="s">
         <v>233</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>234</v>
       </c>
     </row>
@@ -20159,7 +20789,7 @@
       <c r="F44" t="s">
         <v>235</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>236</v>
       </c>
     </row>
@@ -20167,7 +20797,7 @@
       <c r="F45" t="s">
         <v>237</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>474</v>
       </c>
     </row>
@@ -20175,7 +20805,7 @@
       <c r="F46" t="s">
         <v>239</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>238</v>
       </c>
     </row>
@@ -20183,7 +20813,7 @@
       <c r="F47" t="s">
         <v>241</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>240</v>
       </c>
     </row>
@@ -20191,7 +20821,7 @@
       <c r="F48" t="s">
         <v>243</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>242</v>
       </c>
     </row>
@@ -20199,7 +20829,7 @@
       <c r="F49" t="s">
         <v>393</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>244</v>
       </c>
     </row>
@@ -20207,7 +20837,7 @@
       <c r="F50" t="s">
         <v>246</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>245</v>
       </c>
     </row>
@@ -20215,475 +20845,485 @@
       <c r="F51" t="s">
         <v>248</v>
       </c>
-      <c r="V51" t="s">
-        <v>500</v>
+      <c r="W51" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>252</v>
       </c>
-      <c r="V52" t="s">
-        <v>247</v>
+      <c r="W52" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>254</v>
       </c>
-      <c r="V53" t="s">
-        <v>249</v>
+      <c r="W53" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>256</v>
       </c>
-      <c r="V54" t="s">
-        <v>493</v>
+      <c r="W54" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>258</v>
       </c>
-      <c r="V55" t="s">
-        <v>250</v>
+      <c r="W55" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>260</v>
       </c>
-      <c r="V56" t="s">
-        <v>251</v>
+      <c r="W56" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>262</v>
       </c>
-      <c r="V57" t="s">
-        <v>253</v>
+      <c r="W57" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>264</v>
       </c>
-      <c r="V58" t="s">
-        <v>255</v>
+      <c r="W58" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>266</v>
       </c>
-      <c r="V59" t="s">
-        <v>257</v>
+      <c r="W59" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>268</v>
       </c>
-      <c r="V60" t="s">
-        <v>259</v>
+      <c r="W60" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>270</v>
       </c>
-      <c r="V61" t="s">
-        <v>261</v>
+      <c r="W61" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>394</v>
       </c>
-      <c r="V62" t="s">
-        <v>470</v>
+      <c r="W62" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>395</v>
       </c>
-      <c r="V63" t="s">
-        <v>510</v>
+      <c r="W63" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>274</v>
       </c>
-      <c r="V64" t="s">
-        <v>263</v>
+      <c r="W64" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>276</v>
       </c>
-      <c r="V65" t="s">
-        <v>414</v>
+      <c r="W65" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>278</v>
       </c>
-      <c r="V66" t="s">
-        <v>475</v>
+      <c r="W66" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>280</v>
       </c>
-      <c r="V67" t="s">
-        <v>265</v>
+      <c r="W67" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>282</v>
       </c>
-      <c r="V68" t="s">
-        <v>267</v>
+      <c r="W68" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>440</v>
       </c>
-      <c r="V69" t="s">
-        <v>269</v>
+      <c r="W69" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>284</v>
       </c>
-      <c r="V70" t="s">
-        <v>271</v>
+      <c r="W70" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>441</v>
       </c>
-      <c r="V71" t="s">
-        <v>272</v>
+      <c r="W71" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>286</v>
       </c>
-      <c r="V72" t="s">
-        <v>273</v>
+      <c r="W72" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>288</v>
       </c>
-      <c r="V73" t="s">
-        <v>488</v>
+      <c r="W73" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>290</v>
       </c>
-      <c r="V74" t="s">
-        <v>504</v>
+      <c r="W74" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>292</v>
       </c>
-      <c r="V75" t="s">
-        <v>275</v>
+      <c r="W75" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>294</v>
       </c>
-      <c r="V76" t="s">
-        <v>277</v>
+      <c r="W76" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>447</v>
       </c>
-      <c r="V77" t="s">
-        <v>279</v>
+      <c r="W77" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>296</v>
       </c>
-      <c r="V78" t="s">
-        <v>281</v>
+      <c r="W78" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>298</v>
       </c>
-      <c r="V79" t="s">
-        <v>283</v>
+      <c r="W79" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>299</v>
       </c>
-      <c r="V80" t="s">
-        <v>285</v>
+      <c r="W80" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>301</v>
       </c>
-      <c r="V81" t="s">
-        <v>287</v>
+      <c r="W81" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>303</v>
       </c>
-      <c r="V82" t="s">
-        <v>487</v>
+      <c r="W82" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>305</v>
       </c>
-      <c r="V83" t="s">
-        <v>289</v>
+      <c r="W83" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>307</v>
       </c>
-      <c r="V84" t="s">
-        <v>291</v>
+      <c r="W84" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>309</v>
       </c>
-      <c r="V85" t="s">
-        <v>293</v>
+      <c r="W85" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>311</v>
       </c>
-      <c r="V86" t="s">
-        <v>295</v>
+      <c r="W86" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>313</v>
       </c>
-      <c r="V87" t="s">
-        <v>297</v>
+      <c r="W87" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>315</v>
       </c>
-      <c r="V88" t="s">
-        <v>461</v>
+      <c r="W88" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>317</v>
       </c>
-      <c r="V89" t="s">
-        <v>469</v>
+      <c r="W89" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>319</v>
       </c>
-      <c r="V90" t="s">
-        <v>300</v>
+      <c r="W90" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>321</v>
       </c>
-      <c r="V91" t="s">
-        <v>302</v>
+      <c r="W91" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>323</v>
       </c>
-      <c r="V92" t="s">
-        <v>304</v>
+      <c r="W92" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="93">
-      <c r="V93" t="s">
-        <v>306</v>
+      <c r="W93" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="94">
-      <c r="V94" t="s">
-        <v>308</v>
+      <c r="W94" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="95">
-      <c r="V95" t="s">
-        <v>310</v>
+      <c r="W95" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="96">
-      <c r="V96" t="s">
-        <v>312</v>
+      <c r="W96" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="97">
-      <c r="V97" t="s">
-        <v>408</v>
+      <c r="W97" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="98">
-      <c r="V98" t="s">
-        <v>314</v>
+      <c r="W98" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="99">
-      <c r="V99" t="s">
-        <v>316</v>
+      <c r="W99" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="100">
-      <c r="V100" t="s">
-        <v>318</v>
+      <c r="W100" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="101">
-      <c r="V101" t="s">
-        <v>320</v>
+      <c r="W101" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="102">
-      <c r="V102" t="s">
-        <v>322</v>
+      <c r="W102" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="103">
-      <c r="V103" t="s">
-        <v>324</v>
+      <c r="W103" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="104">
-      <c r="V104" t="s">
-        <v>325</v>
+      <c r="W104" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="105">
-      <c r="V105" t="s">
-        <v>326</v>
+      <c r="W105" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="106">
-      <c r="V106" t="s">
-        <v>327</v>
+      <c r="W106" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="107">
-      <c r="V107" t="s">
-        <v>328</v>
+      <c r="W107" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="108">
-      <c r="V108" t="s">
-        <v>329</v>
+      <c r="W108" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="109">
-      <c r="V109" t="s">
-        <v>330</v>
+      <c r="W109" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="110">
-      <c r="V110" t="s">
-        <v>331</v>
+      <c r="W110" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="111">
-      <c r="V111" t="s">
-        <v>476</v>
+      <c r="W111" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="112">
-      <c r="V112" t="s">
-        <v>332</v>
+      <c r="W112" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="113">
-      <c r="V113" t="s">
-        <v>333</v>
+      <c r="W113" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="114">
-      <c r="V114" t="s">
-        <v>334</v>
+      <c r="W114" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="115">
-      <c r="V115" t="s">
-        <v>335</v>
+      <c r="W115" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="116">
-      <c r="V116" t="s">
-        <v>336</v>
+      <c r="W116" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="117">
-      <c r="V117" t="s">
-        <v>337</v>
+      <c r="W117" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="118">
-      <c r="V118" t="s">
-        <v>338</v>
+      <c r="W118" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="119">
-      <c r="V119" t="s">
-        <v>339</v>
+      <c r="W119" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="120">
-      <c r="V120" t="s">
+      <c r="W120" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="W121" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="W122" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14600" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15094" uniqueCount="522">
   <si>
     <t>target</t>
   </si>
@@ -1629,7 +1629,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="471" x14ac:knownFonts="1">
+  <fonts count="487" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4596,8 +4596,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9206,8 +9307,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="849">
+  <borders count="877">
     <border>
       <left/>
       <right/>
@@ -17767,12 +18021,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="493">
+  <cellXfs count="509">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -19227,52 +19763,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="789" borderId="828" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="828" fillId="789" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="792" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="832" fillId="792" fontId="457" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="795" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="795" fontId="458" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="798" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="798" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="463" fillId="804" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="464" fillId="807" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="810" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="466" fillId="810" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="467" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="840" fillId="804" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="844" fillId="807" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="810" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="810" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="816" borderId="856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="819" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="822" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="825" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="831" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="834" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -18,45 +18,46 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15094" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16099" uniqueCount="532">
   <si>
     <t>target</t>
   </si>
@@ -1622,6 +1623,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="487" x14ac:knownFonts="1">
+  <fonts count="519" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4697,8 +4728,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9460,8 +9693,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="877">
+  <borders count="933">
     <border>
       <left/>
       <right/>
@@ -18303,12 +18842,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="541">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -19811,52 +20914,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="816" borderId="856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="856" fillId="816" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="819" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="860" fillId="819" fontId="473" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="822" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="822" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="825" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="825" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="479" fillId="831" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="834" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="482" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="868" fillId="831" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="872" fillId="834" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="837" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="837" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="884" fillId="843" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="888" fillId="846" fontId="489" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="849" fontId="490" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="852" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="493" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="896" fillId="858" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="900" fillId="861" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="864" fontId="497" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="864" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="870" borderId="912" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="873" borderId="916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="876" borderId="920" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="879" borderId="920" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="885" borderId="924" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="888" borderId="928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="891" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="891" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20174,7 +21373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20196,78 +21395,81 @@
         <v>494</v>
       </c>
       <c r="D1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>513</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>442</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>443</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>421</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>444</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -20282,79 +21484,82 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>483</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>503</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>409</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>448</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>516</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>449</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>450</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>426</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>454</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>455</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>422</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>463</v>
       </c>
-      <c r="AB2" t="s">
-        <v>35</v>
+      <c r="AC2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="3">
@@ -20368,1546 +21573,1573 @@
         <v>496</v>
       </c>
       <c r="D3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" t="s">
         <v>491</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>390</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>514</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>517</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>451</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>427</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>456</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>423</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>49</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>389</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" t="s">
-        <v>52</v>
+      <c r="AC3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>399</v>
       </c>
       <c r="D4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>412</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>484</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>515</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>57</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>518</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>62</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>428</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>457</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>30</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>424</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>63</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>464</v>
       </c>
-      <c r="AB4" t="s">
-        <v>67</v>
+      <c r="AC4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>400</v>
       </c>
       <c r="D5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" t="s">
         <v>492</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>471</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>489</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>56</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>497</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>59</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>60</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>74</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>429</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>458</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>75</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>77</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>78</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>465</v>
       </c>
-      <c r="AB5" t="s">
-        <v>79</v>
+      <c r="AC5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>401</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>413</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>481</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>70</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>72</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>416</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>430</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>385</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>86</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>477</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>88</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>89</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>466</v>
       </c>
-      <c r="AB6" t="s">
-        <v>90</v>
+      <c r="AC6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>402</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>391</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>480</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>84</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>453</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>431</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>386</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>98</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>478</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>100</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>467</v>
       </c>
-      <c r="AB7" t="s">
-        <v>101</v>
+      <c r="AC7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>403</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>392</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>96</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>107</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>432</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>387</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>108</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>87</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>109</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>110</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>468</v>
       </c>
-      <c r="AB8" t="s">
-        <v>111</v>
+      <c r="AC8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>404</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>95</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>106</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>117</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>433</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>388</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>118</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>119</v>
       </c>
-      <c r="AB9" t="s">
-        <v>511</v>
+      <c r="AC9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>485</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>415</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>105</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>452</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>126</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>434</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>127</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>128</v>
       </c>
-      <c r="AB10" t="s">
-        <v>512</v>
+      <c r="AC10" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>112</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>114</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>508</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>116</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>134</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>135</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>136</v>
       </c>
-      <c r="AB11" t="s">
-        <v>120</v>
+      <c r="AC11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>123</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>473</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>125</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>142</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>143</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>144</v>
       </c>
-      <c r="AB12" t="s">
-        <v>129</v>
+      <c r="AC12" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>513</v>
-      </c>
-      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>131</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>509</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>133</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>149</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>150</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>151</v>
       </c>
-      <c r="AB13" t="s">
-        <v>137</v>
+      <c r="AC13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" t="s">
         <v>138</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>140</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>115</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>141</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>155</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>156</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>157</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>145</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>146</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>490</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>124</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>148</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>161</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>162</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>163</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>410</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>153</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>147</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>132</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>167</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>168</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>169</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>411</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>159</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>154</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>173</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>498</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>445</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>165</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>405</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>177</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>442</v>
-      </c>
-      <c r="D19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" t="s">
         <v>152</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>171</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>507</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>443</v>
-      </c>
-      <c r="D20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>175</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>179</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>417</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>170</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>182</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>166</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" t="s">
         <v>174</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>185</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>472</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>178</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>188</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>172</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
         <v>482</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>191</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>176</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
         <v>181</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>194</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>444</v>
-      </c>
-      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
         <v>184</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>197</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" t="s">
         <v>505</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>200</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="s">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
         <v>506</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>203</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>446</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>206</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>187</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>209</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>190</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>211</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>193</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>213</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>196</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>215</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>199</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>217</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>202</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>219</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>205</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>221</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>223</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>225</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>227</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>229</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>231</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>233</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>235</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>237</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>239</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>241</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>243</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>393</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>246</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>248</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>252</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>254</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>256</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>258</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>260</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>262</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>264</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>266</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>268</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>270</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>394</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>395</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>274</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>276</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>278</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>280</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>282</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>440</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>284</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>441</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>286</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>288</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>290</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>292</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>294</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>447</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>296</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>298</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>299</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>301</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>303</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>305</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>307</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>309</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>311</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>313</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>315</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>317</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>319</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>321</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>323</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16099" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16608" uniqueCount="536">
   <si>
     <t>target</t>
   </si>
@@ -1653,6 +1653,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="519" x14ac:knownFonts="1">
+  <fonts count="535" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4930,8 +4942,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9999,8 +10112,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="933">
+  <borders count="961">
     <border>
       <left/>
       <right/>
@@ -19406,12 +19672,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="557">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -21010,52 +21558,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="870" borderId="912" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="912" fillId="870" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="873" borderId="916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="916" fillId="873" fontId="505" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="876" borderId="920" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="876" fontId="506" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="879" borderId="920" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="879" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="509" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="511" fillId="885" borderId="924" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="888" borderId="928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="513" fillId="891" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="514" fillId="891" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="515" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="516" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="517" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="924" fillId="885" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="928" fillId="888" fontId="512" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="891" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="891" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="516" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="897" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="900" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="903" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="906" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="912" borderId="952" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="915" borderId="956" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="918" borderId="960" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="918" borderId="960" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21373,7 +21969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22145,7 +22741,7 @@
         <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14">
@@ -22180,7 +22776,7 @@
         <v>157</v>
       </c>
       <c r="AC14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
@@ -22212,7 +22808,7 @@
         <v>163</v>
       </c>
       <c r="AC15" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16">
@@ -22241,7 +22837,7 @@
         <v>169</v>
       </c>
       <c r="AC16" t="s">
-        <v>120</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17">
@@ -22264,7 +22860,7 @@
         <v>498</v>
       </c>
       <c r="AC17" t="s">
-        <v>129</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18">
@@ -22284,7 +22880,7 @@
         <v>177</v>
       </c>
       <c r="AC18" t="s">
-        <v>137</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19">
@@ -22303,6 +22899,9 @@
       <c r="X19" t="s">
         <v>180</v>
       </c>
+      <c r="AC19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -22320,6 +22919,9 @@
       <c r="X20" t="s">
         <v>183</v>
       </c>
+      <c r="AC20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -22337,6 +22939,9 @@
       <c r="X21" t="s">
         <v>519</v>
       </c>
+      <c r="AC21" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -22886,7 +23491,7 @@
         <v>298</v>
       </c>
       <c r="X79" t="s">
-        <v>281</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80">
@@ -22894,7 +23499,7 @@
         <v>299</v>
       </c>
       <c r="X80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81">
@@ -22902,7 +23507,7 @@
         <v>301</v>
       </c>
       <c r="X81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82">
@@ -22910,7 +23515,7 @@
         <v>303</v>
       </c>
       <c r="X82" t="s">
-        <v>521</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83">
@@ -22918,7 +23523,7 @@
         <v>305</v>
       </c>
       <c r="X83" t="s">
-        <v>287</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84">
@@ -22926,7 +23531,7 @@
         <v>307</v>
       </c>
       <c r="X84" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85">
@@ -22934,7 +23539,7 @@
         <v>309</v>
       </c>
       <c r="X85" t="s">
-        <v>289</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86">
@@ -22942,7 +23547,7 @@
         <v>311</v>
       </c>
       <c r="X86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87">
@@ -22950,7 +23555,7 @@
         <v>313</v>
       </c>
       <c r="X87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88">
@@ -22958,7 +23563,7 @@
         <v>315</v>
       </c>
       <c r="X88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89">
@@ -22966,7 +23571,7 @@
         <v>317</v>
       </c>
       <c r="X89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90">
@@ -22974,7 +23579,7 @@
         <v>319</v>
       </c>
       <c r="X90" t="s">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91">
@@ -22982,7 +23587,7 @@
         <v>321</v>
       </c>
       <c r="X91" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92">
@@ -22990,156 +23595,161 @@
         <v>323</v>
       </c>
       <c r="X92" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>340</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nexial-Project\git\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="435" windowWidth="51195" windowHeight="31560" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51195" xWindow="-15" yWindow="435"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Number_Command_Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Number_Command_Validation" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="529">
   <si>
     <t>target</t>
   </si>
@@ -1640,13 +1640,17 @@
   </si>
   <si>
     <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <numFmts count="0"/>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1716,8 +1720,210 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,8 +1942,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1837,135 +2349,795 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="64">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="12" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="21" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="24" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1999,7 +3171,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2024,10 +3196,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2191,21 +3363,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2222,7 +3394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2276,19 +3448,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD124"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +3549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -2466,7 +3638,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -2549,7 +3721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4">
       <c r="A4" t="s">
         <v>512</v>
       </c>
@@ -2629,7 +3801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2697,7 +3869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +3928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2812,7 +3984,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +4037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +4081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2947,7 +4119,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +4154,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3017,7 +4189,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3052,7 +4224,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14">
       <c r="A14" t="s">
         <v>503</v>
       </c>
@@ -3087,7 +4259,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +4291,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3151,7 +4323,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3165,7 +4337,7 @@
         <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>528</v>
       </c>
       <c r="AA17" t="s">
         <v>490</v>
@@ -3174,7 +4346,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3188,13 +4360,13 @@
         <v>402</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AC18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19">
       <c r="A19" t="s">
         <v>422</v>
       </c>
@@ -3208,13 +4380,13 @@
         <v>497</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AC19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20">
       <c r="A20" t="s">
         <v>439</v>
       </c>
@@ -3228,13 +4400,13 @@
         <v>158</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21">
       <c r="A21" t="s">
         <v>440</v>
       </c>
@@ -3248,13 +4420,13 @@
         <v>414</v>
       </c>
       <c r="X21" t="s">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="AC21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3268,10 +4440,10 @@
         <v>164</v>
       </c>
       <c r="X22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>418</v>
       </c>
@@ -3285,10 +4457,10 @@
         <v>467</v>
       </c>
       <c r="X23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3302,10 +4474,10 @@
         <v>170</v>
       </c>
       <c r="X24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3319,10 +4491,10 @@
         <v>174</v>
       </c>
       <c r="X25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3333,10 +4505,10 @@
         <v>191</v>
       </c>
       <c r="X26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3347,10 +4519,10 @@
         <v>194</v>
       </c>
       <c r="X27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>441</v>
       </c>
@@ -3361,10 +4533,10 @@
         <v>197</v>
       </c>
       <c r="X28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3375,10 +4547,10 @@
         <v>200</v>
       </c>
       <c r="X29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
         <v>443</v>
       </c>
@@ -3386,10 +4558,10 @@
         <v>203</v>
       </c>
       <c r="X30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
         <v>184</v>
       </c>
@@ -3397,10 +4569,10 @@
         <v>206</v>
       </c>
       <c r="X31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
         <v>187</v>
       </c>
@@ -3408,10 +4580,10 @@
         <v>208</v>
       </c>
       <c r="X32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="5:24">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
         <v>190</v>
       </c>
@@ -3419,10 +4591,10 @@
         <v>210</v>
       </c>
       <c r="X33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="5:24">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
         <v>193</v>
       </c>
@@ -3430,10 +4602,10 @@
         <v>212</v>
       </c>
       <c r="X34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="5:24">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="E35" t="s">
         <v>196</v>
       </c>
@@ -3441,10 +4613,10 @@
         <v>214</v>
       </c>
       <c r="X35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="5:24">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="E36" t="s">
         <v>199</v>
       </c>
@@ -3452,10 +4624,10 @@
         <v>216</v>
       </c>
       <c r="X36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="5:24">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="E37" t="s">
         <v>202</v>
       </c>
@@ -3463,10 +4635,10 @@
         <v>218</v>
       </c>
       <c r="X37" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" spans="5:24">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
         <v>205</v>
       </c>
@@ -3474,625 +4646,630 @@
         <v>220</v>
       </c>
       <c r="X38" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="5:24">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="G39" t="s">
         <v>222</v>
       </c>
       <c r="X39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="5:24">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="G40" t="s">
         <v>224</v>
       </c>
       <c r="X40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="5:24">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="G41" t="s">
         <v>226</v>
       </c>
       <c r="X41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="5:24">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="G42" t="s">
         <v>228</v>
       </c>
       <c r="X42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="5:24">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="G43" t="s">
         <v>230</v>
       </c>
       <c r="X43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="5:24">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="G44" t="s">
         <v>232</v>
       </c>
       <c r="X44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="5:24">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="G45" t="s">
         <v>234</v>
       </c>
       <c r="X45" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="46" spans="5:24">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="G46" t="s">
         <v>236</v>
       </c>
       <c r="X46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="5:24">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="G47" t="s">
         <v>238</v>
       </c>
       <c r="X47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="5:24">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="G48" t="s">
         <v>240</v>
       </c>
       <c r="X48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="7:24">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="G49" t="s">
         <v>390</v>
       </c>
       <c r="X49" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="7:24">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="G50" t="s">
         <v>243</v>
       </c>
       <c r="X50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="7:24">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="G51" t="s">
         <v>245</v>
       </c>
       <c r="X51" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="52" spans="7:24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="G52" t="s">
         <v>249</v>
       </c>
       <c r="X52" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="53" spans="7:24">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="G53" t="s">
         <v>251</v>
       </c>
       <c r="X53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="7:24">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="G54" t="s">
         <v>253</v>
       </c>
       <c r="X54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="7:24">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="G55" t="s">
         <v>255</v>
       </c>
       <c r="X55" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="56" spans="7:24">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="G56" t="s">
         <v>257</v>
       </c>
       <c r="X56" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="7:24">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="G57" t="s">
         <v>259</v>
       </c>
       <c r="X57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="7:24">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="G58" t="s">
         <v>261</v>
       </c>
       <c r="X58" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="7:24">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="G59" t="s">
         <v>263</v>
       </c>
       <c r="X59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="7:24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="G60" t="s">
         <v>265</v>
       </c>
       <c r="X60" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="7:24">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="G61" t="s">
         <v>267</v>
       </c>
       <c r="X61" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="7:24">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="G62" t="s">
         <v>391</v>
       </c>
       <c r="X62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="7:24">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="G63" t="s">
         <v>392</v>
       </c>
       <c r="X63" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="64" spans="7:24">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="G64" t="s">
         <v>271</v>
       </c>
       <c r="X64" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="65" spans="7:24">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="G65" t="s">
         <v>273</v>
       </c>
       <c r="X65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" spans="7:24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="G66" t="s">
         <v>275</v>
       </c>
       <c r="X66" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="7:24">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="G67" t="s">
         <v>277</v>
       </c>
       <c r="X67" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="7:24">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="G68" t="s">
         <v>279</v>
       </c>
       <c r="X68" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="7:24">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="G69" t="s">
         <v>437</v>
       </c>
       <c r="X69" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="7:24">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="G70" t="s">
         <v>281</v>
       </c>
       <c r="X70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="7:24">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="G71" t="s">
         <v>438</v>
       </c>
       <c r="X71" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="72" spans="7:24">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="G72" t="s">
         <v>283</v>
       </c>
       <c r="X72" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="7:24">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="G73" t="s">
         <v>285</v>
       </c>
       <c r="X73" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="7:24">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="G74" t="s">
         <v>287</v>
       </c>
       <c r="X74" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="75" spans="7:24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="G75" t="s">
         <v>289</v>
       </c>
       <c r="X75" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="76" spans="7:24">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="G76" t="s">
         <v>291</v>
       </c>
       <c r="X76" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="7:24">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="G77" t="s">
         <v>444</v>
       </c>
       <c r="X77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="7:24">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="G78" t="s">
         <v>293</v>
       </c>
       <c r="X78" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="7:24">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="G79" t="s">
         <v>295</v>
       </c>
       <c r="X79" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="80" spans="7:24">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="G80" t="s">
         <v>296</v>
       </c>
       <c r="X80" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="7:24">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="G81" t="s">
         <v>298</v>
       </c>
       <c r="X81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="7:24">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="G82" t="s">
         <v>300</v>
       </c>
       <c r="X82" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="7:24">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="G83" t="s">
         <v>302</v>
       </c>
       <c r="X83" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="84" spans="7:24">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="G84" t="s">
         <v>304</v>
       </c>
       <c r="X84" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="7:24">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="G85" t="s">
         <v>306</v>
       </c>
       <c r="X85" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="86" spans="7:24">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="G86" t="s">
         <v>308</v>
       </c>
       <c r="X86" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="7:24">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="G87" t="s">
         <v>310</v>
       </c>
       <c r="X87" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="7:24">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="G88" t="s">
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="89" spans="7:24">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="G89" t="s">
         <v>314</v>
       </c>
       <c r="X89" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="90" spans="7:24">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="G90" t="s">
         <v>316</v>
       </c>
       <c r="X90" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="7:24">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="G91" t="s">
         <v>318</v>
       </c>
       <c r="X91" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="92" spans="7:24">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="G92" t="s">
         <v>320</v>
       </c>
       <c r="X92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="X93" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="93" spans="7:24">
-      <c r="X93" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="7:24">
-      <c r="X94" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="7:24">
-      <c r="X95" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="7:24">
-      <c r="X96" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="24:24">
-      <c r="X97" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="98" spans="24:24">
-      <c r="X98" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="99" spans="24:24">
-      <c r="X99" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="24:24">
-      <c r="X100" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="24:24">
-      <c r="X101" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="24:24">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="24:24">
-      <c r="X103" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="24:24">
-      <c r="X104" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="24:24">
-      <c r="X105" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="24:24">
-      <c r="X106" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="24:24">
-      <c r="X107" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="24:24">
-      <c r="X108" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="24:24">
-      <c r="X109" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="24:24">
-      <c r="X110" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="111" spans="24:24">
-      <c r="X111" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="24:24">
-      <c r="X112" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="24:24">
-      <c r="X113" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="24:24">
-      <c r="X114" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="115" spans="24:24">
-      <c r="X115" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="24:24">
-      <c r="X116" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="24:24">
-      <c r="X117" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="24:24">
-      <c r="X118" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="119" spans="24:24">
-      <c r="X119" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="24:24">
-      <c r="X120" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="24:24">
-      <c r="X121" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="24:24">
-      <c r="X122" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="123" spans="24:24">
-      <c r="X123" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="18" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="9.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="32.625" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="5" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>338</v>
       </c>
@@ -4122,7 +5299,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="2" spans="1:15">
       <c r="A2" s="26" t="s">
         <v>343</v>
       </c>
@@ -4142,7 +5319,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -4152,7 +5329,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="1" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>345</v>
       </c>
@@ -4197,7 +5374,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15">
       <c r="A5" s="13" t="s">
         <v>358</v>
       </c>
@@ -4224,7 +5401,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15">
       <c r="A6" s="14"/>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
@@ -4249,7 +5426,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15">
       <c r="A7" s="14"/>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
@@ -4274,7 +5451,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15">
       <c r="A8" s="14"/>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
@@ -4299,7 +5476,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15">
       <c r="A9" s="14"/>
       <c r="B9"/>
       <c r="C9" s="4" t="s">
@@ -4324,7 +5501,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15">
       <c r="A10" s="14"/>
       <c r="B10"/>
       <c r="C10" s="4" t="s">
@@ -4349,7 +5526,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15">
       <c r="A11" s="14"/>
       <c r="B11"/>
       <c r="C11" s="4" t="s">
@@ -4374,7 +5551,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15">
       <c r="A12" s="14"/>
       <c r="B12"/>
       <c r="C12" s="4" t="s">
@@ -4397,7 +5574,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15">
       <c r="A13" s="14"/>
       <c r="B13"/>
       <c r="C13" s="4" t="s">
@@ -4422,7 +5599,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15">
       <c r="A14" s="14"/>
       <c r="B14"/>
       <c r="C14" s="4" t="s">
@@ -4447,7 +5624,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15">
       <c r="A15" s="14"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
@@ -4470,7 +5647,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15">
       <c r="A16" s="14"/>
       <c r="B16"/>
       <c r="C16" s="4" t="s">
@@ -4495,7 +5672,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15">
       <c r="A17" s="14"/>
       <c r="B17"/>
       <c r="C17" s="4" t="s">
@@ -4520,7 +5697,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15">
       <c r="A18" s="14"/>
       <c r="B18"/>
       <c r="C18" s="4" t="s">
@@ -4545,7 +5722,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15">
       <c r="A19" s="14"/>
       <c r="B19"/>
       <c r="C19" s="4" t="s">
@@ -4570,7 +5747,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15">
       <c r="A20" s="14"/>
       <c r="B20"/>
       <c r="C20" s="4" t="s">
@@ -4595,7 +5772,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15">
       <c r="A21" s="14"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
@@ -4620,7 +5797,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15">
       <c r="A22" s="14"/>
       <c r="B22"/>
       <c r="C22" s="4" t="s">
@@ -4645,7 +5822,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15">
       <c r="A23" s="14"/>
       <c r="B23"/>
       <c r="C23" s="4" t="s">
@@ -4670,7 +5847,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15">
       <c r="A24" s="14"/>
       <c r="B24"/>
       <c r="C24" s="4" t="s">
@@ -4695,7 +5872,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15">
       <c r="A25" s="14"/>
       <c r="B25"/>
       <c r="C25" s="4" t="s">
@@ -4720,7 +5897,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15">
       <c r="A26" s="14"/>
       <c r="B26"/>
       <c r="C26" s="4" t="s">
@@ -4745,7 +5922,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15">
       <c r="A27" s="14"/>
       <c r="B27"/>
       <c r="C27" s="4" t="s">
@@ -4770,7 +5947,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
@@ -4795,7 +5972,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15">
       <c r="A29" s="14"/>
       <c r="B29"/>
       <c r="C29" s="4" t="s">
@@ -4820,7 +5997,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15">
       <c r="A30" s="14"/>
       <c r="B30"/>
       <c r="C30" s="4" t="s">
@@ -4845,7 +6022,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15">
       <c r="A31" s="13"/>
       <c r="B31"/>
       <c r="C31" s="4" t="s">
@@ -4867,7 +6044,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15">
       <c r="A32" s="13"/>
       <c r="B32"/>
       <c r="C32" s="4" t="s">
@@ -4891,58 +6068,58 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:1" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="33" spans="1:1">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="34" spans="1:1">
       <c r="A34" s="13"/>
     </row>
-    <row r="35" spans="1:1" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="35" spans="1:1">
       <c r="A35" s="13"/>
     </row>
-    <row r="36" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="37" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="38" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="39" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="40" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="41" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="42" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="43" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="44" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="45" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="47" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="48" spans="1:1" ht="18.95" customHeight="1"/>
-    <row r="49" ht="18.95" customHeight="1"/>
-    <row r="50" ht="18.95" customHeight="1"/>
-    <row r="51" ht="18.95" customHeight="1"/>
-    <row r="52" ht="18.95" customHeight="1"/>
-    <row r="53" ht="18.95" customHeight="1"/>
-    <row r="54" ht="48.95" customHeight="1"/>
-    <row r="55" ht="48.95" customHeight="1"/>
-    <row r="56" ht="18.95" customHeight="1"/>
-    <row r="57" ht="18.95" customHeight="1"/>
-    <row r="58" ht="18.95" customHeight="1"/>
-    <row r="59" ht="18.95" customHeight="1"/>
-    <row r="60" ht="18.95" customHeight="1"/>
-    <row r="61" ht="18.95" customHeight="1"/>
-    <row r="62" ht="18.95" customHeight="1"/>
-    <row r="63" ht="18.95" customHeight="1"/>
-    <row r="64" ht="18.95" customHeight="1"/>
-    <row r="65" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="66" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="67" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="68" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="69" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="70" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="71" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="72" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="73" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="74" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="75" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="76" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="77" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="78" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="79" spans="1:15" s="2" customFormat="1" ht="48" customHeight="1">
+    <row customHeight="1" ht="18.95" r="36" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="37" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="38" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="39" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="40" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="41" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="42" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="43" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="44" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="45" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="47" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="48" spans="1:1"/>
+    <row customHeight="1" ht="18.95" r="49"/>
+    <row customHeight="1" ht="18.95" r="50"/>
+    <row customHeight="1" ht="18.95" r="51"/>
+    <row customHeight="1" ht="18.95" r="52"/>
+    <row customHeight="1" ht="18.95" r="53"/>
+    <row customHeight="1" ht="48.95" r="54"/>
+    <row customHeight="1" ht="48.95" r="55"/>
+    <row customHeight="1" ht="18.95" r="56"/>
+    <row customHeight="1" ht="18.95" r="57"/>
+    <row customHeight="1" ht="18.95" r="58"/>
+    <row customHeight="1" ht="18.95" r="59"/>
+    <row customHeight="1" ht="18.95" r="60"/>
+    <row customHeight="1" ht="18.95" r="61"/>
+    <row customHeight="1" ht="18.95" r="62"/>
+    <row customHeight="1" ht="18.95" r="63"/>
+    <row customHeight="1" ht="18.95" r="64"/>
+    <row customHeight="1" ht="18.95" r="65" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="66" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="67" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="68" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="69" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="70" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="71" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="72" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="73" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="74" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="75" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="76" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="77" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="78" spans="1:15"/>
+    <row customFormat="1" customHeight="1" ht="48" r="79" s="2" spans="1:15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
@@ -4959,936 +6136,936 @@
       <c r="N79" s="7"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="18.95" customHeight="1"/>
-    <row r="81" ht="18.95" customHeight="1"/>
-    <row r="82" ht="18.95" customHeight="1"/>
-    <row r="83" ht="18.95" customHeight="1"/>
-    <row r="84" ht="18.95" customHeight="1"/>
-    <row r="85" ht="18.95" customHeight="1"/>
-    <row r="86" ht="18.95" customHeight="1"/>
-    <row r="87" ht="18.95" customHeight="1"/>
-    <row r="88" ht="18.95" customHeight="1"/>
-    <row r="89" ht="18.95" customHeight="1"/>
-    <row r="90" ht="18.95" customHeight="1"/>
-    <row r="91" ht="18.95" customHeight="1"/>
-    <row r="92" ht="18.95" customHeight="1"/>
-    <row r="93" ht="18.95" customHeight="1"/>
-    <row r="94" ht="18.95" customHeight="1"/>
-    <row r="95" ht="18.95" customHeight="1"/>
-    <row r="96" ht="18.95" customHeight="1"/>
-    <row r="97" ht="18.95" customHeight="1"/>
-    <row r="98" ht="18.95" customHeight="1"/>
-    <row r="99" ht="18.95" customHeight="1"/>
-    <row r="100" ht="18.95" customHeight="1"/>
-    <row r="101" ht="18.95" customHeight="1"/>
-    <row r="102" ht="18.95" customHeight="1"/>
-    <row r="103" ht="18.95" customHeight="1"/>
-    <row r="104" ht="18.95" customHeight="1"/>
-    <row r="105" ht="18.95" customHeight="1"/>
-    <row r="106" ht="18.95" customHeight="1"/>
-    <row r="107" ht="18.95" customHeight="1"/>
-    <row r="108" ht="18.95" customHeight="1"/>
-    <row r="109" ht="18.95" customHeight="1"/>
-    <row r="110" ht="18.95" customHeight="1"/>
-    <row r="111" ht="18.95" customHeight="1"/>
-    <row r="112" ht="18.95" customHeight="1"/>
-    <row r="113" ht="18.95" customHeight="1"/>
-    <row r="114" ht="18.95" customHeight="1"/>
-    <row r="115" ht="18.95" customHeight="1"/>
-    <row r="116" ht="18.95" customHeight="1"/>
-    <row r="117" ht="18.95" customHeight="1"/>
-    <row r="118" ht="18.95" customHeight="1"/>
-    <row r="119" ht="18.95" customHeight="1"/>
-    <row r="120" ht="18.95" customHeight="1"/>
-    <row r="121" ht="18.95" customHeight="1"/>
-    <row r="122" ht="18.95" customHeight="1"/>
-    <row r="123" ht="18.95" customHeight="1"/>
-    <row r="124" ht="18.95" customHeight="1"/>
-    <row r="125" ht="18.95" customHeight="1"/>
-    <row r="126" ht="18.95" customHeight="1"/>
-    <row r="127" ht="18.95" customHeight="1"/>
-    <row r="128" ht="18.95" customHeight="1"/>
-    <row r="129" ht="18.95" customHeight="1"/>
-    <row r="130" ht="18.95" customHeight="1"/>
-    <row r="131" ht="18.95" customHeight="1"/>
-    <row r="132" ht="18.95" customHeight="1"/>
-    <row r="133" ht="18.95" customHeight="1"/>
-    <row r="134" ht="18.95" customHeight="1"/>
-    <row r="135" ht="18.95" customHeight="1"/>
-    <row r="136" ht="18.95" customHeight="1"/>
-    <row r="137" ht="18.95" customHeight="1"/>
-    <row r="138" ht="18.95" customHeight="1"/>
-    <row r="139" ht="18.95" customHeight="1"/>
-    <row r="140" ht="18.95" customHeight="1"/>
-    <row r="141" ht="18.95" customHeight="1"/>
-    <row r="142" ht="18.95" customHeight="1"/>
-    <row r="143" ht="18.95" customHeight="1"/>
-    <row r="144" ht="18.95" customHeight="1"/>
-    <row r="145" ht="18.95" customHeight="1"/>
-    <row r="146" ht="18.95" customHeight="1"/>
-    <row r="147" ht="18.95" customHeight="1"/>
-    <row r="148" ht="18.95" customHeight="1"/>
-    <row r="149" ht="18.95" customHeight="1"/>
-    <row r="150" ht="18.95" customHeight="1"/>
-    <row r="151" ht="18.95" customHeight="1"/>
-    <row r="152" ht="18.95" customHeight="1"/>
-    <row r="153" ht="18.95" customHeight="1"/>
-    <row r="154" ht="18.95" customHeight="1"/>
-    <row r="155" ht="18.95" customHeight="1"/>
-    <row r="156" ht="18.95" customHeight="1"/>
-    <row r="157" ht="18.95" customHeight="1"/>
-    <row r="158" ht="18.95" customHeight="1"/>
-    <row r="159" ht="18.95" customHeight="1"/>
-    <row r="160" ht="18.95" customHeight="1"/>
-    <row r="161" ht="18.95" customHeight="1"/>
-    <row r="162" ht="18.95" customHeight="1"/>
-    <row r="163" ht="18.95" customHeight="1"/>
-    <row r="164" ht="18.95" customHeight="1"/>
-    <row r="165" ht="18.95" customHeight="1"/>
-    <row r="166" ht="18.95" customHeight="1"/>
-    <row r="167" ht="18.95" customHeight="1"/>
-    <row r="168" ht="18.95" customHeight="1"/>
-    <row r="169" ht="18.95" customHeight="1"/>
-    <row r="170" ht="18.95" customHeight="1"/>
-    <row r="171" ht="18.95" customHeight="1"/>
-    <row r="172" ht="18.95" customHeight="1"/>
-    <row r="173" ht="18.95" customHeight="1"/>
-    <row r="174" ht="18.95" customHeight="1"/>
-    <row r="175" ht="18.95" customHeight="1"/>
-    <row r="176" ht="18.95" customHeight="1"/>
-    <row r="177" ht="18.95" customHeight="1"/>
-    <row r="178" ht="18.95" customHeight="1"/>
-    <row r="179" ht="18.95" customHeight="1"/>
-    <row r="180" ht="18.95" customHeight="1"/>
-    <row r="181" ht="18.95" customHeight="1"/>
-    <row r="182" ht="18.95" customHeight="1"/>
-    <row r="183" ht="18.95" customHeight="1"/>
-    <row r="184" ht="18.95" customHeight="1"/>
-    <row r="185" ht="18.95" customHeight="1"/>
-    <row r="186" ht="18.95" customHeight="1"/>
-    <row r="187" ht="18.95" customHeight="1"/>
-    <row r="188" ht="18.95" customHeight="1"/>
-    <row r="189" ht="18.95" customHeight="1"/>
-    <row r="190" ht="18.95" customHeight="1"/>
-    <row r="191" ht="18.95" customHeight="1"/>
-    <row r="192" ht="18.95" customHeight="1"/>
-    <row r="193" ht="18.95" customHeight="1"/>
-    <row r="194" ht="18.95" customHeight="1"/>
-    <row r="195" ht="18.95" customHeight="1"/>
-    <row r="196" ht="18.95" customHeight="1"/>
-    <row r="197" ht="18.95" customHeight="1"/>
-    <row r="198" ht="18.95" customHeight="1"/>
-    <row r="199" ht="18.95" customHeight="1"/>
-    <row r="200" ht="18.95" customHeight="1"/>
-    <row r="201" ht="18.95" customHeight="1"/>
-    <row r="202" ht="18.95" customHeight="1"/>
-    <row r="203" ht="18.95" customHeight="1"/>
-    <row r="204" ht="18.95" customHeight="1"/>
-    <row r="205" ht="18.95" customHeight="1"/>
-    <row r="206" ht="18.95" customHeight="1"/>
-    <row r="207" ht="18.95" customHeight="1"/>
-    <row r="208" ht="18.95" customHeight="1"/>
-    <row r="209" ht="18.95" customHeight="1"/>
-    <row r="210" ht="18.95" customHeight="1"/>
-    <row r="211" ht="18.95" customHeight="1"/>
-    <row r="212" ht="18.95" customHeight="1"/>
-    <row r="213" ht="18.95" customHeight="1"/>
-    <row r="214" ht="18.95" customHeight="1"/>
-    <row r="215" ht="18.95" customHeight="1"/>
-    <row r="216" ht="18.95" customHeight="1"/>
-    <row r="217" ht="18.95" customHeight="1"/>
-    <row r="218" ht="18.95" customHeight="1"/>
-    <row r="219" ht="18.95" customHeight="1"/>
-    <row r="220" ht="18.95" customHeight="1"/>
-    <row r="221" ht="18.95" customHeight="1"/>
-    <row r="222" ht="18.95" customHeight="1"/>
-    <row r="223" ht="18.95" customHeight="1"/>
-    <row r="224" ht="18.95" customHeight="1"/>
-    <row r="225" ht="18.95" customHeight="1"/>
-    <row r="226" ht="18.95" customHeight="1"/>
-    <row r="227" ht="18.95" customHeight="1"/>
-    <row r="228" ht="18.95" customHeight="1"/>
-    <row r="229" ht="18.95" customHeight="1"/>
-    <row r="230" ht="18.95" customHeight="1"/>
-    <row r="231" ht="18.95" customHeight="1"/>
-    <row r="232" ht="18.95" customHeight="1"/>
-    <row r="233" ht="18.95" customHeight="1"/>
-    <row r="234" ht="18.95" customHeight="1"/>
-    <row r="235" ht="18.95" customHeight="1"/>
-    <row r="236" ht="18.95" customHeight="1"/>
-    <row r="237" ht="18.95" customHeight="1"/>
-    <row r="238" ht="18.95" customHeight="1"/>
-    <row r="239" ht="18.95" customHeight="1"/>
-    <row r="240" ht="18.95" customHeight="1"/>
-    <row r="241" ht="18.95" customHeight="1"/>
-    <row r="242" ht="18.95" customHeight="1"/>
-    <row r="243" ht="18.95" customHeight="1"/>
-    <row r="244" ht="18.95" customHeight="1"/>
-    <row r="245" ht="18.95" customHeight="1"/>
-    <row r="246" ht="18.95" customHeight="1"/>
-    <row r="247" ht="18.95" customHeight="1"/>
-    <row r="248" ht="18.95" customHeight="1"/>
-    <row r="249" ht="18.95" customHeight="1"/>
-    <row r="250" ht="18.95" customHeight="1"/>
-    <row r="251" ht="18.95" customHeight="1"/>
-    <row r="252" ht="18.95" customHeight="1"/>
-    <row r="253" ht="18.95" customHeight="1"/>
-    <row r="254" ht="18.95" customHeight="1"/>
-    <row r="255" ht="18.95" customHeight="1"/>
-    <row r="256" ht="18.95" customHeight="1"/>
-    <row r="257" ht="18.95" customHeight="1"/>
-    <row r="258" ht="18.95" customHeight="1"/>
-    <row r="259" ht="18.95" customHeight="1"/>
-    <row r="260" ht="18.95" customHeight="1"/>
-    <row r="261" ht="18.95" customHeight="1"/>
-    <row r="262" ht="18.95" customHeight="1"/>
-    <row r="263" ht="18.95" customHeight="1"/>
-    <row r="264" ht="18.95" customHeight="1"/>
-    <row r="265" ht="18.95" customHeight="1"/>
-    <row r="266" ht="18.95" customHeight="1"/>
-    <row r="267" ht="18.95" customHeight="1"/>
-    <row r="268" ht="18.95" customHeight="1"/>
-    <row r="269" ht="18.95" customHeight="1"/>
-    <row r="270" ht="18.95" customHeight="1"/>
-    <row r="271" ht="18.95" customHeight="1"/>
-    <row r="272" ht="18.95" customHeight="1"/>
-    <row r="273" ht="18.95" customHeight="1"/>
-    <row r="274" ht="18.95" customHeight="1"/>
-    <row r="275" ht="18.95" customHeight="1"/>
-    <row r="276" ht="18.95" customHeight="1"/>
-    <row r="277" ht="18.95" customHeight="1"/>
-    <row r="278" ht="18.95" customHeight="1"/>
-    <row r="279" ht="18.95" customHeight="1"/>
-    <row r="280" ht="18.95" customHeight="1"/>
-    <row r="281" ht="18.95" customHeight="1"/>
-    <row r="282" ht="18.95" customHeight="1"/>
-    <row r="283" ht="18.95" customHeight="1"/>
-    <row r="284" ht="18.95" customHeight="1"/>
-    <row r="285" ht="18.95" customHeight="1"/>
-    <row r="286" ht="18.95" customHeight="1"/>
-    <row r="287" ht="18.95" customHeight="1"/>
-    <row r="288" ht="18.95" customHeight="1"/>
-    <row r="289" ht="18.95" customHeight="1"/>
-    <row r="290" ht="18.95" customHeight="1"/>
-    <row r="291" ht="18.95" customHeight="1"/>
-    <row r="292" ht="18.95" customHeight="1"/>
-    <row r="293" ht="18.95" customHeight="1"/>
-    <row r="294" ht="18.95" customHeight="1"/>
-    <row r="295" ht="18.95" customHeight="1"/>
-    <row r="296" ht="18.95" customHeight="1"/>
-    <row r="297" ht="18.95" customHeight="1"/>
-    <row r="298" ht="18.95" customHeight="1"/>
-    <row r="299" ht="18.95" customHeight="1"/>
-    <row r="300" ht="18.95" customHeight="1"/>
-    <row r="301" ht="18.95" customHeight="1"/>
-    <row r="302" ht="18.95" customHeight="1"/>
-    <row r="303" ht="18.95" customHeight="1"/>
-    <row r="304" ht="18.95" customHeight="1"/>
-    <row r="305" ht="18.95" customHeight="1"/>
-    <row r="306" ht="18.95" customHeight="1"/>
-    <row r="307" ht="18.95" customHeight="1"/>
-    <row r="308" ht="18.95" customHeight="1"/>
-    <row r="309" ht="18.95" customHeight="1"/>
-    <row r="310" ht="18.95" customHeight="1"/>
-    <row r="311" ht="18.95" customHeight="1"/>
-    <row r="312" ht="18.95" customHeight="1"/>
-    <row r="313" ht="18.95" customHeight="1"/>
-    <row r="314" ht="18.95" customHeight="1"/>
-    <row r="315" ht="18.95" customHeight="1"/>
-    <row r="316" ht="18.95" customHeight="1"/>
-    <row r="317" ht="18.95" customHeight="1"/>
-    <row r="318" ht="18.95" customHeight="1"/>
-    <row r="319" ht="18.95" customHeight="1"/>
-    <row r="320" ht="18.95" customHeight="1"/>
-    <row r="321" ht="18.95" customHeight="1"/>
-    <row r="322" ht="18.95" customHeight="1"/>
-    <row r="323" ht="18.95" customHeight="1"/>
-    <row r="324" ht="18.95" customHeight="1"/>
-    <row r="325" ht="18.95" customHeight="1"/>
-    <row r="326" ht="18.95" customHeight="1"/>
-    <row r="327" ht="18.95" customHeight="1"/>
-    <row r="328" ht="18.95" customHeight="1"/>
-    <row r="329" ht="18.95" customHeight="1"/>
-    <row r="330" ht="18.95" customHeight="1"/>
-    <row r="331" ht="18.95" customHeight="1"/>
-    <row r="332" ht="18.95" customHeight="1"/>
-    <row r="333" ht="18.95" customHeight="1"/>
-    <row r="334" ht="18.95" customHeight="1"/>
-    <row r="335" ht="18.95" customHeight="1"/>
-    <row r="336" ht="18.95" customHeight="1"/>
-    <row r="337" ht="18.95" customHeight="1"/>
-    <row r="338" ht="18.95" customHeight="1"/>
-    <row r="339" ht="18.95" customHeight="1"/>
-    <row r="340" ht="18.95" customHeight="1"/>
-    <row r="341" ht="18.95" customHeight="1"/>
-    <row r="342" ht="18.95" customHeight="1"/>
-    <row r="343" ht="18.95" customHeight="1"/>
-    <row r="344" ht="18.95" customHeight="1"/>
-    <row r="345" ht="18.95" customHeight="1"/>
-    <row r="346" ht="18.95" customHeight="1"/>
-    <row r="347" ht="18.95" customHeight="1"/>
-    <row r="348" ht="18.95" customHeight="1"/>
-    <row r="349" ht="18.95" customHeight="1"/>
-    <row r="350" ht="18.95" customHeight="1"/>
-    <row r="351" ht="18.95" customHeight="1"/>
-    <row r="352" ht="18.95" customHeight="1"/>
-    <row r="353" ht="18.95" customHeight="1"/>
-    <row r="354" ht="18.95" customHeight="1"/>
-    <row r="355" ht="18.95" customHeight="1"/>
-    <row r="356" ht="18.95" customHeight="1"/>
-    <row r="357" ht="18.95" customHeight="1"/>
-    <row r="358" ht="18.95" customHeight="1"/>
-    <row r="359" ht="18.95" customHeight="1"/>
-    <row r="360" ht="18.95" customHeight="1"/>
-    <row r="361" ht="18.95" customHeight="1"/>
-    <row r="362" ht="18.95" customHeight="1"/>
-    <row r="363" ht="18.95" customHeight="1"/>
-    <row r="364" ht="18.95" customHeight="1"/>
-    <row r="365" ht="18.95" customHeight="1"/>
-    <row r="366" ht="18.95" customHeight="1"/>
-    <row r="367" ht="18.95" customHeight="1"/>
-    <row r="368" ht="18.95" customHeight="1"/>
-    <row r="369" ht="18.95" customHeight="1"/>
-    <row r="370" ht="18.95" customHeight="1"/>
-    <row r="371" ht="18.95" customHeight="1"/>
-    <row r="372" ht="18.95" customHeight="1"/>
-    <row r="373" ht="18.95" customHeight="1"/>
-    <row r="374" ht="18.95" customHeight="1"/>
-    <row r="375" ht="18.95" customHeight="1"/>
-    <row r="376" ht="18.95" customHeight="1"/>
-    <row r="377" ht="18.95" customHeight="1"/>
-    <row r="378" ht="18.95" customHeight="1"/>
-    <row r="379" ht="18.95" customHeight="1"/>
-    <row r="380" ht="18.95" customHeight="1"/>
-    <row r="381" ht="18.95" customHeight="1"/>
-    <row r="382" ht="18.95" customHeight="1"/>
-    <row r="383" ht="18.95" customHeight="1"/>
-    <row r="384" ht="18.95" customHeight="1"/>
-    <row r="385" ht="18.95" customHeight="1"/>
-    <row r="386" ht="18.95" customHeight="1"/>
-    <row r="387" ht="18.95" customHeight="1"/>
-    <row r="388" ht="18.95" customHeight="1"/>
-    <row r="389" ht="18.95" customHeight="1"/>
-    <row r="390" ht="18.95" customHeight="1"/>
-    <row r="391" ht="18.95" customHeight="1"/>
-    <row r="392" ht="18.95" customHeight="1"/>
-    <row r="393" ht="18.95" customHeight="1"/>
-    <row r="394" ht="18.95" customHeight="1"/>
-    <row r="395" ht="18.95" customHeight="1"/>
-    <row r="396" ht="18.95" customHeight="1"/>
-    <row r="397" ht="18.95" customHeight="1"/>
-    <row r="398" ht="18.95" customHeight="1"/>
-    <row r="399" ht="18.95" customHeight="1"/>
-    <row r="400" ht="18.95" customHeight="1"/>
-    <row r="401" ht="18.95" customHeight="1"/>
-    <row r="402" ht="18.95" customHeight="1"/>
-    <row r="403" ht="18.95" customHeight="1"/>
-    <row r="404" ht="18.95" customHeight="1"/>
-    <row r="405" ht="18.95" customHeight="1"/>
-    <row r="406" ht="18.95" customHeight="1"/>
-    <row r="407" ht="18.95" customHeight="1"/>
-    <row r="408" ht="18.95" customHeight="1"/>
-    <row r="409" ht="18.95" customHeight="1"/>
-    <row r="410" ht="18.95" customHeight="1"/>
-    <row r="411" ht="18.95" customHeight="1"/>
-    <row r="412" ht="18.95" customHeight="1"/>
-    <row r="413" ht="18.95" customHeight="1"/>
-    <row r="414" ht="18.95" customHeight="1"/>
-    <row r="415" ht="18.95" customHeight="1"/>
-    <row r="416" ht="18.95" customHeight="1"/>
-    <row r="417" ht="18.95" customHeight="1"/>
-    <row r="418" ht="18.95" customHeight="1"/>
-    <row r="419" ht="18.95" customHeight="1"/>
-    <row r="420" ht="18.95" customHeight="1"/>
-    <row r="421" ht="18.95" customHeight="1"/>
-    <row r="422" ht="18.95" customHeight="1"/>
-    <row r="423" ht="18.95" customHeight="1"/>
-    <row r="424" ht="18.95" customHeight="1"/>
-    <row r="425" ht="18.95" customHeight="1"/>
-    <row r="426" ht="18.95" customHeight="1"/>
-    <row r="427" ht="18.95" customHeight="1"/>
-    <row r="428" ht="18.95" customHeight="1"/>
-    <row r="429" ht="18.95" customHeight="1"/>
-    <row r="430" ht="18.95" customHeight="1"/>
-    <row r="431" ht="18.95" customHeight="1"/>
-    <row r="432" ht="18.95" customHeight="1"/>
-    <row r="433" ht="18.95" customHeight="1"/>
-    <row r="434" ht="18.95" customHeight="1"/>
-    <row r="435" ht="18.95" customHeight="1"/>
-    <row r="436" ht="18.95" customHeight="1"/>
-    <row r="437" ht="18.95" customHeight="1"/>
-    <row r="438" ht="18.95" customHeight="1"/>
-    <row r="439" ht="18.95" customHeight="1"/>
-    <row r="440" ht="18.95" customHeight="1"/>
-    <row r="441" ht="18.95" customHeight="1"/>
-    <row r="442" ht="18.95" customHeight="1"/>
-    <row r="443" ht="18.95" customHeight="1"/>
-    <row r="444" ht="18.95" customHeight="1"/>
-    <row r="445" ht="18.95" customHeight="1"/>
-    <row r="446" ht="18.95" customHeight="1"/>
-    <row r="447" ht="18.95" customHeight="1"/>
-    <row r="448" ht="18.95" customHeight="1"/>
-    <row r="449" ht="18.95" customHeight="1"/>
-    <row r="450" ht="18.95" customHeight="1"/>
-    <row r="451" ht="18.95" customHeight="1"/>
-    <row r="452" ht="18.95" customHeight="1"/>
-    <row r="453" ht="18.95" customHeight="1"/>
-    <row r="454" ht="18.95" customHeight="1"/>
-    <row r="455" ht="18.95" customHeight="1"/>
-    <row r="456" ht="18.95" customHeight="1"/>
-    <row r="457" ht="18.95" customHeight="1"/>
-    <row r="458" ht="18.95" customHeight="1"/>
-    <row r="459" ht="18.95" customHeight="1"/>
-    <row r="460" ht="18.95" customHeight="1"/>
-    <row r="461" ht="18.95" customHeight="1"/>
-    <row r="462" ht="18.95" customHeight="1"/>
-    <row r="463" ht="18.95" customHeight="1"/>
-    <row r="464" ht="18.95" customHeight="1"/>
-    <row r="465" ht="18.95" customHeight="1"/>
-    <row r="466" ht="18.95" customHeight="1"/>
-    <row r="467" ht="18.95" customHeight="1"/>
-    <row r="468" ht="18.95" customHeight="1"/>
-    <row r="469" ht="18.95" customHeight="1"/>
-    <row r="470" ht="18.95" customHeight="1"/>
-    <row r="471" ht="18.95" customHeight="1"/>
-    <row r="472" ht="18.95" customHeight="1"/>
-    <row r="473" ht="18.95" customHeight="1"/>
-    <row r="474" ht="18.95" customHeight="1"/>
-    <row r="475" ht="18.95" customHeight="1"/>
-    <row r="476" ht="18.95" customHeight="1"/>
-    <row r="477" ht="18.95" customHeight="1"/>
-    <row r="478" ht="18.95" customHeight="1"/>
-    <row r="479" ht="18.95" customHeight="1"/>
-    <row r="480" ht="18.95" customHeight="1"/>
-    <row r="481" ht="18.95" customHeight="1"/>
-    <row r="482" ht="18.95" customHeight="1"/>
-    <row r="483" ht="18.95" customHeight="1"/>
-    <row r="484" ht="18.95" customHeight="1"/>
-    <row r="485" ht="18.95" customHeight="1"/>
-    <row r="486" ht="18.95" customHeight="1"/>
-    <row r="487" ht="18.95" customHeight="1"/>
-    <row r="488" ht="18.95" customHeight="1"/>
-    <row r="489" ht="18.95" customHeight="1"/>
-    <row r="490" ht="18.95" customHeight="1"/>
-    <row r="491" ht="18.95" customHeight="1"/>
-    <row r="492" ht="18.95" customHeight="1"/>
-    <row r="493" ht="18.95" customHeight="1"/>
-    <row r="494" ht="18.95" customHeight="1"/>
-    <row r="495" ht="18.95" customHeight="1"/>
-    <row r="496" ht="18.95" customHeight="1"/>
-    <row r="497" ht="18.95" customHeight="1"/>
-    <row r="498" ht="18.95" customHeight="1"/>
-    <row r="499" ht="18.95" customHeight="1"/>
-    <row r="500" ht="18.95" customHeight="1"/>
-    <row r="501" ht="18.95" customHeight="1"/>
-    <row r="502" ht="18.95" customHeight="1"/>
-    <row r="503" ht="18.95" customHeight="1"/>
-    <row r="504" ht="18.95" customHeight="1"/>
-    <row r="505" ht="18.95" customHeight="1"/>
-    <row r="506" ht="18.95" customHeight="1"/>
-    <row r="507" ht="18.95" customHeight="1"/>
-    <row r="508" ht="18.95" customHeight="1"/>
-    <row r="509" ht="18.95" customHeight="1"/>
-    <row r="510" ht="18.95" customHeight="1"/>
-    <row r="511" ht="18.95" customHeight="1"/>
-    <row r="512" ht="18.95" customHeight="1"/>
-    <row r="513" ht="18.95" customHeight="1"/>
-    <row r="514" ht="18.95" customHeight="1"/>
-    <row r="515" ht="18.95" customHeight="1"/>
-    <row r="516" ht="18.95" customHeight="1"/>
-    <row r="517" ht="18.95" customHeight="1"/>
-    <row r="518" ht="18.95" customHeight="1"/>
-    <row r="519" ht="18.95" customHeight="1"/>
-    <row r="520" ht="18.95" customHeight="1"/>
-    <row r="521" ht="18.95" customHeight="1"/>
-    <row r="522" ht="18.95" customHeight="1"/>
-    <row r="523" ht="18.95" customHeight="1"/>
-    <row r="524" ht="18.95" customHeight="1"/>
-    <row r="525" ht="18.95" customHeight="1"/>
-    <row r="526" ht="18.95" customHeight="1"/>
-    <row r="527" ht="18.95" customHeight="1"/>
-    <row r="528" ht="18.95" customHeight="1"/>
-    <row r="529" ht="18.95" customHeight="1"/>
-    <row r="530" ht="18.95" customHeight="1"/>
-    <row r="531" ht="18.95" customHeight="1"/>
-    <row r="532" ht="18.95" customHeight="1"/>
-    <row r="533" ht="18.95" customHeight="1"/>
-    <row r="534" ht="18.95" customHeight="1"/>
-    <row r="535" ht="18.95" customHeight="1"/>
-    <row r="536" ht="18.95" customHeight="1"/>
-    <row r="537" ht="18.95" customHeight="1"/>
-    <row r="538" ht="18.95" customHeight="1"/>
-    <row r="539" ht="18.95" customHeight="1"/>
-    <row r="540" ht="18.95" customHeight="1"/>
-    <row r="541" ht="18.95" customHeight="1"/>
-    <row r="542" ht="18.95" customHeight="1"/>
-    <row r="543" ht="18.95" customHeight="1"/>
-    <row r="544" ht="18.95" customHeight="1"/>
-    <row r="545" ht="18.95" customHeight="1"/>
-    <row r="546" ht="18.95" customHeight="1"/>
-    <row r="547" ht="18.95" customHeight="1"/>
-    <row r="548" ht="18.95" customHeight="1"/>
-    <row r="549" ht="18.95" customHeight="1"/>
-    <row r="550" ht="18.95" customHeight="1"/>
-    <row r="551" ht="18.95" customHeight="1"/>
-    <row r="552" ht="18.95" customHeight="1"/>
-    <row r="553" ht="18.95" customHeight="1"/>
-    <row r="554" ht="18.95" customHeight="1"/>
-    <row r="555" ht="18.95" customHeight="1"/>
-    <row r="556" ht="18.95" customHeight="1"/>
-    <row r="557" ht="18.95" customHeight="1"/>
-    <row r="558" ht="18.95" customHeight="1"/>
-    <row r="559" ht="18.95" customHeight="1"/>
-    <row r="560" ht="18.95" customHeight="1"/>
-    <row r="561" ht="18.95" customHeight="1"/>
-    <row r="562" ht="18.95" customHeight="1"/>
-    <row r="563" ht="18.95" customHeight="1"/>
-    <row r="564" ht="18.95" customHeight="1"/>
-    <row r="565" ht="18.95" customHeight="1"/>
-    <row r="566" ht="18.95" customHeight="1"/>
-    <row r="567" ht="18.95" customHeight="1"/>
-    <row r="568" ht="18.95" customHeight="1"/>
-    <row r="569" ht="18.95" customHeight="1"/>
-    <row r="570" ht="18.95" customHeight="1"/>
-    <row r="571" ht="18.95" customHeight="1"/>
-    <row r="572" ht="18.95" customHeight="1"/>
-    <row r="573" ht="18.95" customHeight="1"/>
-    <row r="574" ht="18.95" customHeight="1"/>
-    <row r="575" ht="18.95" customHeight="1"/>
-    <row r="576" ht="18.95" customHeight="1"/>
-    <row r="577" ht="18.95" customHeight="1"/>
-    <row r="578" ht="18.95" customHeight="1"/>
-    <row r="579" ht="18.95" customHeight="1"/>
-    <row r="580" ht="18.95" customHeight="1"/>
-    <row r="581" ht="18.95" customHeight="1"/>
-    <row r="582" ht="18.95" customHeight="1"/>
-    <row r="583" ht="18.95" customHeight="1"/>
-    <row r="584" ht="18.95" customHeight="1"/>
-    <row r="585" ht="18.95" customHeight="1"/>
-    <row r="586" ht="18.95" customHeight="1"/>
-    <row r="587" ht="18.95" customHeight="1"/>
-    <row r="588" ht="18.95" customHeight="1"/>
-    <row r="589" ht="18.95" customHeight="1"/>
-    <row r="590" ht="18.95" customHeight="1"/>
-    <row r="591" ht="18.95" customHeight="1"/>
-    <row r="592" ht="18.95" customHeight="1"/>
-    <row r="593" ht="18.95" customHeight="1"/>
-    <row r="594" ht="18.95" customHeight="1"/>
-    <row r="595" ht="18.95" customHeight="1"/>
-    <row r="596" ht="18.95" customHeight="1"/>
-    <row r="597" ht="18.95" customHeight="1"/>
-    <row r="598" ht="18.95" customHeight="1"/>
-    <row r="599" ht="18.95" customHeight="1"/>
-    <row r="600" ht="18.95" customHeight="1"/>
-    <row r="601" ht="18.95" customHeight="1"/>
-    <row r="602" ht="18.95" customHeight="1"/>
-    <row r="603" ht="18.95" customHeight="1"/>
-    <row r="604" ht="18.95" customHeight="1"/>
-    <row r="605" ht="18.95" customHeight="1"/>
-    <row r="606" ht="18.95" customHeight="1"/>
-    <row r="607" ht="18.95" customHeight="1"/>
-    <row r="608" ht="18.95" customHeight="1"/>
-    <row r="609" ht="18.95" customHeight="1"/>
-    <row r="610" ht="18.95" customHeight="1"/>
-    <row r="611" ht="18.95" customHeight="1"/>
-    <row r="612" ht="18.95" customHeight="1"/>
-    <row r="613" ht="18.95" customHeight="1"/>
-    <row r="614" ht="18.95" customHeight="1"/>
-    <row r="615" ht="18.95" customHeight="1"/>
-    <row r="616" ht="18.95" customHeight="1"/>
-    <row r="617" ht="18.95" customHeight="1"/>
-    <row r="618" ht="18.95" customHeight="1"/>
-    <row r="619" ht="18.95" customHeight="1"/>
-    <row r="620" ht="18.95" customHeight="1"/>
-    <row r="621" ht="18.95" customHeight="1"/>
-    <row r="622" ht="18.95" customHeight="1"/>
-    <row r="623" ht="18.95" customHeight="1"/>
-    <row r="624" ht="18.95" customHeight="1"/>
-    <row r="625" ht="18.95" customHeight="1"/>
-    <row r="626" ht="18.95" customHeight="1"/>
-    <row r="627" ht="18.95" customHeight="1"/>
-    <row r="628" ht="18.95" customHeight="1"/>
-    <row r="629" ht="18.95" customHeight="1"/>
-    <row r="630" ht="18.95" customHeight="1"/>
-    <row r="631" ht="18.95" customHeight="1"/>
-    <row r="632" ht="18.95" customHeight="1"/>
-    <row r="633" ht="18.95" customHeight="1"/>
-    <row r="634" ht="18.95" customHeight="1"/>
-    <row r="635" ht="18.95" customHeight="1"/>
-    <row r="636" ht="18.95" customHeight="1"/>
-    <row r="637" ht="18.95" customHeight="1"/>
-    <row r="638" ht="18.95" customHeight="1"/>
-    <row r="639" ht="18.95" customHeight="1"/>
-    <row r="640" ht="18.95" customHeight="1"/>
-    <row r="641" ht="18.95" customHeight="1"/>
-    <row r="642" ht="18.95" customHeight="1"/>
-    <row r="643" ht="18.95" customHeight="1"/>
-    <row r="644" ht="18.95" customHeight="1"/>
-    <row r="645" ht="18.95" customHeight="1"/>
-    <row r="646" ht="18.95" customHeight="1"/>
-    <row r="647" ht="18.95" customHeight="1"/>
-    <row r="648" ht="18.95" customHeight="1"/>
-    <row r="649" ht="18.95" customHeight="1"/>
-    <row r="650" ht="18.95" customHeight="1"/>
-    <row r="651" ht="18.95" customHeight="1"/>
-    <row r="652" ht="18.95" customHeight="1"/>
-    <row r="653" ht="18.95" customHeight="1"/>
-    <row r="654" ht="18.95" customHeight="1"/>
-    <row r="655" ht="18.95" customHeight="1"/>
-    <row r="656" ht="18.95" customHeight="1"/>
-    <row r="657" ht="18.95" customHeight="1"/>
-    <row r="658" ht="18.95" customHeight="1"/>
-    <row r="659" ht="18.95" customHeight="1"/>
-    <row r="660" ht="18.95" customHeight="1"/>
-    <row r="661" ht="18.95" customHeight="1"/>
-    <row r="662" ht="18.95" customHeight="1"/>
-    <row r="663" ht="18.95" customHeight="1"/>
-    <row r="664" ht="18.95" customHeight="1"/>
-    <row r="665" ht="18.95" customHeight="1"/>
-    <row r="666" ht="18.95" customHeight="1"/>
-    <row r="667" ht="18.95" customHeight="1"/>
-    <row r="668" ht="18.95" customHeight="1"/>
-    <row r="669" ht="18.95" customHeight="1"/>
-    <row r="670" ht="18.95" customHeight="1"/>
-    <row r="671" ht="18.95" customHeight="1"/>
-    <row r="672" ht="18.95" customHeight="1"/>
-    <row r="673" ht="18.95" customHeight="1"/>
-    <row r="674" ht="18.95" customHeight="1"/>
-    <row r="675" ht="18.95" customHeight="1"/>
-    <row r="676" ht="18.95" customHeight="1"/>
-    <row r="677" ht="18.95" customHeight="1"/>
-    <row r="678" ht="18.95" customHeight="1"/>
-    <row r="679" ht="18.95" customHeight="1"/>
-    <row r="680" ht="18.95" customHeight="1"/>
-    <row r="681" ht="18.95" customHeight="1"/>
-    <row r="682" ht="18.95" customHeight="1"/>
-    <row r="683" ht="18.95" customHeight="1"/>
-    <row r="684" ht="18.95" customHeight="1"/>
-    <row r="685" ht="18.95" customHeight="1"/>
-    <row r="686" ht="18.95" customHeight="1"/>
-    <row r="687" ht="18.95" customHeight="1"/>
-    <row r="688" ht="18.95" customHeight="1"/>
-    <row r="689" ht="18.95" customHeight="1"/>
-    <row r="690" ht="18.95" customHeight="1"/>
-    <row r="691" ht="18.95" customHeight="1"/>
-    <row r="692" ht="18.95" customHeight="1"/>
-    <row r="693" ht="18.95" customHeight="1"/>
-    <row r="694" ht="18.95" customHeight="1"/>
-    <row r="695" ht="18.95" customHeight="1"/>
-    <row r="696" ht="18.95" customHeight="1"/>
-    <row r="697" ht="18.95" customHeight="1"/>
-    <row r="698" ht="18.95" customHeight="1"/>
-    <row r="699" ht="18.95" customHeight="1"/>
-    <row r="700" ht="18.95" customHeight="1"/>
-    <row r="701" ht="18.95" customHeight="1"/>
-    <row r="702" ht="18.95" customHeight="1"/>
-    <row r="703" ht="18.95" customHeight="1"/>
-    <row r="704" ht="18.95" customHeight="1"/>
-    <row r="705" ht="18.95" customHeight="1"/>
-    <row r="706" ht="18.95" customHeight="1"/>
-    <row r="707" ht="18.95" customHeight="1"/>
-    <row r="708" ht="18.95" customHeight="1"/>
-    <row r="709" ht="18.95" customHeight="1"/>
-    <row r="710" ht="18.95" customHeight="1"/>
-    <row r="711" ht="18.95" customHeight="1"/>
-    <row r="712" ht="18.95" customHeight="1"/>
-    <row r="713" ht="18.95" customHeight="1"/>
-    <row r="714" ht="18.95" customHeight="1"/>
-    <row r="715" ht="18.95" customHeight="1"/>
-    <row r="716" ht="18.95" customHeight="1"/>
-    <row r="717" ht="18.95" customHeight="1"/>
-    <row r="718" ht="18.95" customHeight="1"/>
-    <row r="719" ht="18.95" customHeight="1"/>
-    <row r="720" ht="18.95" customHeight="1"/>
-    <row r="721" ht="18.95" customHeight="1"/>
-    <row r="722" ht="18.95" customHeight="1"/>
-    <row r="723" ht="18.95" customHeight="1"/>
-    <row r="724" ht="18.95" customHeight="1"/>
-    <row r="725" ht="18.95" customHeight="1"/>
-    <row r="726" ht="18.95" customHeight="1"/>
-    <row r="727" ht="18.95" customHeight="1"/>
-    <row r="728" ht="18.95" customHeight="1"/>
-    <row r="729" ht="18.95" customHeight="1"/>
-    <row r="730" ht="18.95" customHeight="1"/>
-    <row r="731" ht="18.95" customHeight="1"/>
-    <row r="732" ht="18.95" customHeight="1"/>
-    <row r="733" ht="18.95" customHeight="1"/>
-    <row r="734" ht="18.95" customHeight="1"/>
-    <row r="735" ht="18.95" customHeight="1"/>
-    <row r="736" ht="18.95" customHeight="1"/>
-    <row r="737" ht="18.95" customHeight="1"/>
-    <row r="738" ht="18.95" customHeight="1"/>
-    <row r="739" ht="18.95" customHeight="1"/>
-    <row r="740" ht="18.95" customHeight="1"/>
-    <row r="741" ht="18.95" customHeight="1"/>
-    <row r="742" ht="18.95" customHeight="1"/>
-    <row r="743" ht="18.95" customHeight="1"/>
-    <row r="744" ht="18.95" customHeight="1"/>
-    <row r="745" ht="18.95" customHeight="1"/>
-    <row r="746" ht="18.95" customHeight="1"/>
-    <row r="747" ht="18.95" customHeight="1"/>
-    <row r="748" ht="18.95" customHeight="1"/>
-    <row r="749" ht="18.95" customHeight="1"/>
-    <row r="750" ht="18.95" customHeight="1"/>
-    <row r="751" ht="18.95" customHeight="1"/>
-    <row r="752" ht="18.95" customHeight="1"/>
-    <row r="753" ht="18.95" customHeight="1"/>
-    <row r="754" ht="18.95" customHeight="1"/>
-    <row r="755" ht="18.95" customHeight="1"/>
-    <row r="756" ht="18.95" customHeight="1"/>
-    <row r="757" ht="18.95" customHeight="1"/>
-    <row r="758" ht="18.95" customHeight="1"/>
-    <row r="759" ht="18.95" customHeight="1"/>
-    <row r="760" ht="18.95" customHeight="1"/>
-    <row r="761" ht="18.95" customHeight="1"/>
-    <row r="762" ht="18.95" customHeight="1"/>
-    <row r="763" ht="18.95" customHeight="1"/>
-    <row r="764" ht="18.95" customHeight="1"/>
-    <row r="765" ht="18.95" customHeight="1"/>
-    <row r="766" ht="18.95" customHeight="1"/>
-    <row r="767" ht="18.95" customHeight="1"/>
-    <row r="768" ht="18.95" customHeight="1"/>
-    <row r="769" ht="18.95" customHeight="1"/>
-    <row r="770" ht="18.95" customHeight="1"/>
-    <row r="771" ht="18.95" customHeight="1"/>
-    <row r="772" ht="18.95" customHeight="1"/>
-    <row r="773" ht="18.95" customHeight="1"/>
-    <row r="774" ht="18.95" customHeight="1"/>
-    <row r="775" ht="18.95" customHeight="1"/>
-    <row r="776" ht="18.95" customHeight="1"/>
-    <row r="777" ht="18.95" customHeight="1"/>
-    <row r="778" ht="18.95" customHeight="1"/>
-    <row r="779" ht="18.95" customHeight="1"/>
-    <row r="780" ht="18.95" customHeight="1"/>
-    <row r="781" ht="18.95" customHeight="1"/>
-    <row r="782" ht="18.95" customHeight="1"/>
-    <row r="783" ht="18.95" customHeight="1"/>
-    <row r="784" ht="18.95" customHeight="1"/>
-    <row r="785" ht="18.95" customHeight="1"/>
-    <row r="786" ht="18.95" customHeight="1"/>
-    <row r="787" ht="18.95" customHeight="1"/>
-    <row r="788" ht="18.95" customHeight="1"/>
-    <row r="789" ht="18.95" customHeight="1"/>
-    <row r="790" ht="18.95" customHeight="1"/>
-    <row r="791" ht="18.95" customHeight="1"/>
-    <row r="792" ht="18.95" customHeight="1"/>
-    <row r="793" ht="18.95" customHeight="1"/>
-    <row r="794" ht="18.95" customHeight="1"/>
-    <row r="795" ht="18.95" customHeight="1"/>
-    <row r="796" ht="18.95" customHeight="1"/>
-    <row r="797" ht="18.95" customHeight="1"/>
-    <row r="798" ht="18.95" customHeight="1"/>
-    <row r="799" ht="18.95" customHeight="1"/>
-    <row r="800" ht="18.95" customHeight="1"/>
-    <row r="801" ht="18.95" customHeight="1"/>
-    <row r="802" ht="18.95" customHeight="1"/>
-    <row r="803" ht="18.95" customHeight="1"/>
-    <row r="804" ht="18.95" customHeight="1"/>
-    <row r="805" ht="18.95" customHeight="1"/>
-    <row r="806" ht="18.95" customHeight="1"/>
-    <row r="807" ht="18.95" customHeight="1"/>
-    <row r="808" ht="18.95" customHeight="1"/>
-    <row r="809" ht="18.95" customHeight="1"/>
-    <row r="810" ht="18.95" customHeight="1"/>
-    <row r="811" ht="18.95" customHeight="1"/>
-    <row r="812" ht="18.95" customHeight="1"/>
-    <row r="813" ht="18.95" customHeight="1"/>
-    <row r="814" ht="18.95" customHeight="1"/>
-    <row r="815" ht="18.95" customHeight="1"/>
-    <row r="816" ht="18.95" customHeight="1"/>
-    <row r="817" ht="18.95" customHeight="1"/>
-    <row r="818" ht="18.95" customHeight="1"/>
-    <row r="819" ht="18.95" customHeight="1"/>
-    <row r="820" ht="18.95" customHeight="1"/>
-    <row r="821" ht="18.95" customHeight="1"/>
-    <row r="822" ht="18.95" customHeight="1"/>
-    <row r="823" ht="18.95" customHeight="1"/>
-    <row r="824" ht="18.95" customHeight="1"/>
-    <row r="825" ht="18.95" customHeight="1"/>
-    <row r="826" ht="18.95" customHeight="1"/>
-    <row r="827" ht="18.95" customHeight="1"/>
-    <row r="828" ht="18.95" customHeight="1"/>
-    <row r="829" ht="18.95" customHeight="1"/>
-    <row r="830" ht="18.95" customHeight="1"/>
-    <row r="831" ht="18.95" customHeight="1"/>
-    <row r="832" ht="18.95" customHeight="1"/>
-    <row r="833" ht="18.95" customHeight="1"/>
-    <row r="834" ht="18.95" customHeight="1"/>
-    <row r="835" ht="18.95" customHeight="1"/>
-    <row r="836" ht="18.95" customHeight="1"/>
-    <row r="837" ht="18.95" customHeight="1"/>
-    <row r="838" ht="18.95" customHeight="1"/>
-    <row r="839" ht="18.95" customHeight="1"/>
-    <row r="840" ht="18.95" customHeight="1"/>
-    <row r="841" ht="18.95" customHeight="1"/>
-    <row r="842" ht="18.95" customHeight="1"/>
-    <row r="843" ht="18.95" customHeight="1"/>
-    <row r="844" ht="18.95" customHeight="1"/>
-    <row r="845" ht="18.95" customHeight="1"/>
-    <row r="846" ht="18.95" customHeight="1"/>
-    <row r="847" ht="18.95" customHeight="1"/>
-    <row r="848" ht="18.95" customHeight="1"/>
-    <row r="849" ht="18.95" customHeight="1"/>
-    <row r="850" ht="18.95" customHeight="1"/>
-    <row r="851" ht="18.95" customHeight="1"/>
-    <row r="852" ht="18.95" customHeight="1"/>
-    <row r="853" ht="18.95" customHeight="1"/>
-    <row r="854" ht="18.95" customHeight="1"/>
-    <row r="855" ht="18.95" customHeight="1"/>
-    <row r="856" ht="18.95" customHeight="1"/>
-    <row r="857" ht="18.95" customHeight="1"/>
-    <row r="858" ht="18.95" customHeight="1"/>
-    <row r="859" ht="18.95" customHeight="1"/>
-    <row r="860" ht="18.95" customHeight="1"/>
-    <row r="861" ht="18.95" customHeight="1"/>
-    <row r="862" ht="18.95" customHeight="1"/>
-    <row r="863" ht="18.95" customHeight="1"/>
-    <row r="864" ht="18.95" customHeight="1"/>
-    <row r="865" ht="18.95" customHeight="1"/>
-    <row r="866" ht="18.95" customHeight="1"/>
-    <row r="867" ht="18.95" customHeight="1"/>
-    <row r="868" ht="18.95" customHeight="1"/>
-    <row r="869" ht="18.95" customHeight="1"/>
-    <row r="870" ht="18.95" customHeight="1"/>
-    <row r="871" ht="18.95" customHeight="1"/>
-    <row r="872" ht="18.95" customHeight="1"/>
-    <row r="873" ht="18.95" customHeight="1"/>
-    <row r="874" ht="18.95" customHeight="1"/>
-    <row r="875" ht="18.95" customHeight="1"/>
-    <row r="876" ht="18.95" customHeight="1"/>
-    <row r="877" ht="18.95" customHeight="1"/>
-    <row r="878" ht="18.95" customHeight="1"/>
-    <row r="879" ht="18.95" customHeight="1"/>
-    <row r="880" ht="18.95" customHeight="1"/>
-    <row r="881" ht="18.95" customHeight="1"/>
-    <row r="882" ht="18.95" customHeight="1"/>
-    <row r="883" ht="18.95" customHeight="1"/>
-    <row r="884" ht="18.95" customHeight="1"/>
-    <row r="885" ht="18.95" customHeight="1"/>
-    <row r="886" ht="18.95" customHeight="1"/>
-    <row r="887" ht="18.95" customHeight="1"/>
-    <row r="888" ht="18.95" customHeight="1"/>
-    <row r="889" ht="18.95" customHeight="1"/>
-    <row r="890" ht="18.95" customHeight="1"/>
-    <row r="891" ht="18.95" customHeight="1"/>
-    <row r="892" ht="18.95" customHeight="1"/>
-    <row r="893" ht="18.95" customHeight="1"/>
-    <row r="894" ht="18.95" customHeight="1"/>
-    <row r="895" ht="18.95" customHeight="1"/>
-    <row r="896" ht="18.95" customHeight="1"/>
-    <row r="897" ht="18.95" customHeight="1"/>
-    <row r="898" ht="18.95" customHeight="1"/>
-    <row r="899" ht="18.95" customHeight="1"/>
-    <row r="900" ht="18.95" customHeight="1"/>
-    <row r="901" ht="18.95" customHeight="1"/>
-    <row r="902" ht="18.95" customHeight="1"/>
-    <row r="903" ht="18.95" customHeight="1"/>
-    <row r="904" ht="18.95" customHeight="1"/>
-    <row r="905" ht="18.95" customHeight="1"/>
-    <row r="906" ht="18.95" customHeight="1"/>
-    <row r="907" ht="18.95" customHeight="1"/>
-    <row r="908" ht="18.95" customHeight="1"/>
-    <row r="909" ht="18.95" customHeight="1"/>
-    <row r="910" ht="18.95" customHeight="1"/>
-    <row r="911" ht="18.95" customHeight="1"/>
-    <row r="912" ht="18.95" customHeight="1"/>
-    <row r="913" ht="18.95" customHeight="1"/>
-    <row r="914" ht="18.95" customHeight="1"/>
-    <row r="915" ht="18.95" customHeight="1"/>
-    <row r="916" ht="18.95" customHeight="1"/>
-    <row r="917" ht="18.95" customHeight="1"/>
-    <row r="918" ht="18.95" customHeight="1"/>
-    <row r="919" ht="18.95" customHeight="1"/>
-    <row r="920" ht="18.95" customHeight="1"/>
-    <row r="921" ht="18.95" customHeight="1"/>
-    <row r="922" ht="18.95" customHeight="1"/>
-    <row r="923" ht="18.95" customHeight="1"/>
-    <row r="924" ht="18.95" customHeight="1"/>
-    <row r="925" ht="18.95" customHeight="1"/>
-    <row r="926" ht="18.95" customHeight="1"/>
-    <row r="927" ht="18.95" customHeight="1"/>
-    <row r="928" ht="18.95" customHeight="1"/>
-    <row r="929" ht="18.95" customHeight="1"/>
-    <row r="930" ht="18.95" customHeight="1"/>
-    <row r="931" ht="18.95" customHeight="1"/>
-    <row r="932" ht="18.95" customHeight="1"/>
-    <row r="933" ht="18.95" customHeight="1"/>
-    <row r="934" ht="18.95" customHeight="1"/>
-    <row r="935" ht="18.95" customHeight="1"/>
-    <row r="936" ht="18.95" customHeight="1"/>
-    <row r="937" ht="18.95" customHeight="1"/>
-    <row r="938" ht="18.95" customHeight="1"/>
-    <row r="939" ht="18.95" customHeight="1"/>
-    <row r="940" ht="18.95" customHeight="1"/>
-    <row r="941" ht="18.95" customHeight="1"/>
-    <row r="942" ht="18.95" customHeight="1"/>
-    <row r="943" ht="18.95" customHeight="1"/>
-    <row r="944" ht="18.95" customHeight="1"/>
-    <row r="945" ht="18.95" customHeight="1"/>
-    <row r="946" ht="18.95" customHeight="1"/>
-    <row r="947" ht="18.95" customHeight="1"/>
-    <row r="948" ht="18.95" customHeight="1"/>
-    <row r="949" ht="18.95" customHeight="1"/>
-    <row r="950" ht="18.95" customHeight="1"/>
-    <row r="951" ht="18.95" customHeight="1"/>
-    <row r="952" ht="18.95" customHeight="1"/>
-    <row r="953" ht="18.95" customHeight="1"/>
-    <row r="954" ht="18.95" customHeight="1"/>
-    <row r="955" ht="18.95" customHeight="1"/>
-    <row r="956" ht="18.95" customHeight="1"/>
-    <row r="957" ht="18.95" customHeight="1"/>
-    <row r="958" ht="18.95" customHeight="1"/>
-    <row r="959" ht="18.95" customHeight="1"/>
-    <row r="960" ht="18.95" customHeight="1"/>
-    <row r="961" ht="18.95" customHeight="1"/>
-    <row r="962" ht="18.95" customHeight="1"/>
-    <row r="963" ht="18.95" customHeight="1"/>
-    <row r="964" ht="18.95" customHeight="1"/>
-    <row r="965" ht="18.95" customHeight="1"/>
-    <row r="966" ht="18.95" customHeight="1"/>
-    <row r="967" ht="18.95" customHeight="1"/>
-    <row r="968" ht="18.95" customHeight="1"/>
-    <row r="969" ht="18.95" customHeight="1"/>
-    <row r="970" ht="18.95" customHeight="1"/>
-    <row r="971" ht="18.95" customHeight="1"/>
-    <row r="972" ht="18.95" customHeight="1"/>
-    <row r="973" ht="18.95" customHeight="1"/>
-    <row r="974" ht="18.95" customHeight="1"/>
-    <row r="975" ht="18.95" customHeight="1"/>
-    <row r="976" ht="18.95" customHeight="1"/>
-    <row r="977" ht="18.95" customHeight="1"/>
-    <row r="978" ht="18.95" customHeight="1"/>
-    <row r="979" ht="18.95" customHeight="1"/>
-    <row r="980" ht="18.95" customHeight="1"/>
-    <row r="981" ht="18.95" customHeight="1"/>
-    <row r="982" ht="18.95" customHeight="1"/>
-    <row r="983" ht="18.95" customHeight="1"/>
-    <row r="984" ht="18.95" customHeight="1"/>
-    <row r="985" ht="18.95" customHeight="1"/>
-    <row r="986" ht="18.95" customHeight="1"/>
-    <row r="987" ht="18.95" customHeight="1"/>
-    <row r="988" ht="18.95" customHeight="1"/>
-    <row r="989" ht="18.95" customHeight="1"/>
-    <row r="990" ht="18.95" customHeight="1"/>
-    <row r="991" ht="18.95" customHeight="1"/>
-    <row r="992" ht="18.95" customHeight="1"/>
-    <row r="993" ht="18.95" customHeight="1"/>
-    <row r="994" ht="18.95" customHeight="1"/>
-    <row r="995" ht="18.95" customHeight="1"/>
-    <row r="996" ht="18.95" customHeight="1"/>
-    <row r="997" ht="18.95" customHeight="1"/>
-    <row r="998" ht="18.95" customHeight="1"/>
-    <row r="999" ht="18.95" customHeight="1"/>
-    <row r="1000" ht="18.95" customHeight="1"/>
-    <row r="1001" ht="18.95" customHeight="1"/>
-    <row r="1002" ht="18.95" customHeight="1"/>
-    <row r="1003" ht="18.95" customHeight="1"/>
-    <row r="1004" ht="18.95" customHeight="1"/>
-    <row r="1005" ht="18.95" customHeight="1"/>
-    <row r="1006" ht="18.95" customHeight="1"/>
-    <row r="1007" ht="18.95" customHeight="1"/>
+    <row customHeight="1" ht="18.95" r="80" spans="1:15"/>
+    <row customHeight="1" ht="18.95" r="81"/>
+    <row customHeight="1" ht="18.95" r="82"/>
+    <row customHeight="1" ht="18.95" r="83"/>
+    <row customHeight="1" ht="18.95" r="84"/>
+    <row customHeight="1" ht="18.95" r="85"/>
+    <row customHeight="1" ht="18.95" r="86"/>
+    <row customHeight="1" ht="18.95" r="87"/>
+    <row customHeight="1" ht="18.95" r="88"/>
+    <row customHeight="1" ht="18.95" r="89"/>
+    <row customHeight="1" ht="18.95" r="90"/>
+    <row customHeight="1" ht="18.95" r="91"/>
+    <row customHeight="1" ht="18.95" r="92"/>
+    <row customHeight="1" ht="18.95" r="93"/>
+    <row customHeight="1" ht="18.95" r="94"/>
+    <row customHeight="1" ht="18.95" r="95"/>
+    <row customHeight="1" ht="18.95" r="96"/>
+    <row customHeight="1" ht="18.95" r="97"/>
+    <row customHeight="1" ht="18.95" r="98"/>
+    <row customHeight="1" ht="18.95" r="99"/>
+    <row customHeight="1" ht="18.95" r="100"/>
+    <row customHeight="1" ht="18.95" r="101"/>
+    <row customHeight="1" ht="18.95" r="102"/>
+    <row customHeight="1" ht="18.95" r="103"/>
+    <row customHeight="1" ht="18.95" r="104"/>
+    <row customHeight="1" ht="18.95" r="105"/>
+    <row customHeight="1" ht="18.95" r="106"/>
+    <row customHeight="1" ht="18.95" r="107"/>
+    <row customHeight="1" ht="18.95" r="108"/>
+    <row customHeight="1" ht="18.95" r="109"/>
+    <row customHeight="1" ht="18.95" r="110"/>
+    <row customHeight="1" ht="18.95" r="111"/>
+    <row customHeight="1" ht="18.95" r="112"/>
+    <row customHeight="1" ht="18.95" r="113"/>
+    <row customHeight="1" ht="18.95" r="114"/>
+    <row customHeight="1" ht="18.95" r="115"/>
+    <row customHeight="1" ht="18.95" r="116"/>
+    <row customHeight="1" ht="18.95" r="117"/>
+    <row customHeight="1" ht="18.95" r="118"/>
+    <row customHeight="1" ht="18.95" r="119"/>
+    <row customHeight="1" ht="18.95" r="120"/>
+    <row customHeight="1" ht="18.95" r="121"/>
+    <row customHeight="1" ht="18.95" r="122"/>
+    <row customHeight="1" ht="18.95" r="123"/>
+    <row customHeight="1" ht="18.95" r="124"/>
+    <row customHeight="1" ht="18.95" r="125"/>
+    <row customHeight="1" ht="18.95" r="126"/>
+    <row customHeight="1" ht="18.95" r="127"/>
+    <row customHeight="1" ht="18.95" r="128"/>
+    <row customHeight="1" ht="18.95" r="129"/>
+    <row customHeight="1" ht="18.95" r="130"/>
+    <row customHeight="1" ht="18.95" r="131"/>
+    <row customHeight="1" ht="18.95" r="132"/>
+    <row customHeight="1" ht="18.95" r="133"/>
+    <row customHeight="1" ht="18.95" r="134"/>
+    <row customHeight="1" ht="18.95" r="135"/>
+    <row customHeight="1" ht="18.95" r="136"/>
+    <row customHeight="1" ht="18.95" r="137"/>
+    <row customHeight="1" ht="18.95" r="138"/>
+    <row customHeight="1" ht="18.95" r="139"/>
+    <row customHeight="1" ht="18.95" r="140"/>
+    <row customHeight="1" ht="18.95" r="141"/>
+    <row customHeight="1" ht="18.95" r="142"/>
+    <row customHeight="1" ht="18.95" r="143"/>
+    <row customHeight="1" ht="18.95" r="144"/>
+    <row customHeight="1" ht="18.95" r="145"/>
+    <row customHeight="1" ht="18.95" r="146"/>
+    <row customHeight="1" ht="18.95" r="147"/>
+    <row customHeight="1" ht="18.95" r="148"/>
+    <row customHeight="1" ht="18.95" r="149"/>
+    <row customHeight="1" ht="18.95" r="150"/>
+    <row customHeight="1" ht="18.95" r="151"/>
+    <row customHeight="1" ht="18.95" r="152"/>
+    <row customHeight="1" ht="18.95" r="153"/>
+    <row customHeight="1" ht="18.95" r="154"/>
+    <row customHeight="1" ht="18.95" r="155"/>
+    <row customHeight="1" ht="18.95" r="156"/>
+    <row customHeight="1" ht="18.95" r="157"/>
+    <row customHeight="1" ht="18.95" r="158"/>
+    <row customHeight="1" ht="18.95" r="159"/>
+    <row customHeight="1" ht="18.95" r="160"/>
+    <row customHeight="1" ht="18.95" r="161"/>
+    <row customHeight="1" ht="18.95" r="162"/>
+    <row customHeight="1" ht="18.95" r="163"/>
+    <row customHeight="1" ht="18.95" r="164"/>
+    <row customHeight="1" ht="18.95" r="165"/>
+    <row customHeight="1" ht="18.95" r="166"/>
+    <row customHeight="1" ht="18.95" r="167"/>
+    <row customHeight="1" ht="18.95" r="168"/>
+    <row customHeight="1" ht="18.95" r="169"/>
+    <row customHeight="1" ht="18.95" r="170"/>
+    <row customHeight="1" ht="18.95" r="171"/>
+    <row customHeight="1" ht="18.95" r="172"/>
+    <row customHeight="1" ht="18.95" r="173"/>
+    <row customHeight="1" ht="18.95" r="174"/>
+    <row customHeight="1" ht="18.95" r="175"/>
+    <row customHeight="1" ht="18.95" r="176"/>
+    <row customHeight="1" ht="18.95" r="177"/>
+    <row customHeight="1" ht="18.95" r="178"/>
+    <row customHeight="1" ht="18.95" r="179"/>
+    <row customHeight="1" ht="18.95" r="180"/>
+    <row customHeight="1" ht="18.95" r="181"/>
+    <row customHeight="1" ht="18.95" r="182"/>
+    <row customHeight="1" ht="18.95" r="183"/>
+    <row customHeight="1" ht="18.95" r="184"/>
+    <row customHeight="1" ht="18.95" r="185"/>
+    <row customHeight="1" ht="18.95" r="186"/>
+    <row customHeight="1" ht="18.95" r="187"/>
+    <row customHeight="1" ht="18.95" r="188"/>
+    <row customHeight="1" ht="18.95" r="189"/>
+    <row customHeight="1" ht="18.95" r="190"/>
+    <row customHeight="1" ht="18.95" r="191"/>
+    <row customHeight="1" ht="18.95" r="192"/>
+    <row customHeight="1" ht="18.95" r="193"/>
+    <row customHeight="1" ht="18.95" r="194"/>
+    <row customHeight="1" ht="18.95" r="195"/>
+    <row customHeight="1" ht="18.95" r="196"/>
+    <row customHeight="1" ht="18.95" r="197"/>
+    <row customHeight="1" ht="18.95" r="198"/>
+    <row customHeight="1" ht="18.95" r="199"/>
+    <row customHeight="1" ht="18.95" r="200"/>
+    <row customHeight="1" ht="18.95" r="201"/>
+    <row customHeight="1" ht="18.95" r="202"/>
+    <row customHeight="1" ht="18.95" r="203"/>
+    <row customHeight="1" ht="18.95" r="204"/>
+    <row customHeight="1" ht="18.95" r="205"/>
+    <row customHeight="1" ht="18.95" r="206"/>
+    <row customHeight="1" ht="18.95" r="207"/>
+    <row customHeight="1" ht="18.95" r="208"/>
+    <row customHeight="1" ht="18.95" r="209"/>
+    <row customHeight="1" ht="18.95" r="210"/>
+    <row customHeight="1" ht="18.95" r="211"/>
+    <row customHeight="1" ht="18.95" r="212"/>
+    <row customHeight="1" ht="18.95" r="213"/>
+    <row customHeight="1" ht="18.95" r="214"/>
+    <row customHeight="1" ht="18.95" r="215"/>
+    <row customHeight="1" ht="18.95" r="216"/>
+    <row customHeight="1" ht="18.95" r="217"/>
+    <row customHeight="1" ht="18.95" r="218"/>
+    <row customHeight="1" ht="18.95" r="219"/>
+    <row customHeight="1" ht="18.95" r="220"/>
+    <row customHeight="1" ht="18.95" r="221"/>
+    <row customHeight="1" ht="18.95" r="222"/>
+    <row customHeight="1" ht="18.95" r="223"/>
+    <row customHeight="1" ht="18.95" r="224"/>
+    <row customHeight="1" ht="18.95" r="225"/>
+    <row customHeight="1" ht="18.95" r="226"/>
+    <row customHeight="1" ht="18.95" r="227"/>
+    <row customHeight="1" ht="18.95" r="228"/>
+    <row customHeight="1" ht="18.95" r="229"/>
+    <row customHeight="1" ht="18.95" r="230"/>
+    <row customHeight="1" ht="18.95" r="231"/>
+    <row customHeight="1" ht="18.95" r="232"/>
+    <row customHeight="1" ht="18.95" r="233"/>
+    <row customHeight="1" ht="18.95" r="234"/>
+    <row customHeight="1" ht="18.95" r="235"/>
+    <row customHeight="1" ht="18.95" r="236"/>
+    <row customHeight="1" ht="18.95" r="237"/>
+    <row customHeight="1" ht="18.95" r="238"/>
+    <row customHeight="1" ht="18.95" r="239"/>
+    <row customHeight="1" ht="18.95" r="240"/>
+    <row customHeight="1" ht="18.95" r="241"/>
+    <row customHeight="1" ht="18.95" r="242"/>
+    <row customHeight="1" ht="18.95" r="243"/>
+    <row customHeight="1" ht="18.95" r="244"/>
+    <row customHeight="1" ht="18.95" r="245"/>
+    <row customHeight="1" ht="18.95" r="246"/>
+    <row customHeight="1" ht="18.95" r="247"/>
+    <row customHeight="1" ht="18.95" r="248"/>
+    <row customHeight="1" ht="18.95" r="249"/>
+    <row customHeight="1" ht="18.95" r="250"/>
+    <row customHeight="1" ht="18.95" r="251"/>
+    <row customHeight="1" ht="18.95" r="252"/>
+    <row customHeight="1" ht="18.95" r="253"/>
+    <row customHeight="1" ht="18.95" r="254"/>
+    <row customHeight="1" ht="18.95" r="255"/>
+    <row customHeight="1" ht="18.95" r="256"/>
+    <row customHeight="1" ht="18.95" r="257"/>
+    <row customHeight="1" ht="18.95" r="258"/>
+    <row customHeight="1" ht="18.95" r="259"/>
+    <row customHeight="1" ht="18.95" r="260"/>
+    <row customHeight="1" ht="18.95" r="261"/>
+    <row customHeight="1" ht="18.95" r="262"/>
+    <row customHeight="1" ht="18.95" r="263"/>
+    <row customHeight="1" ht="18.95" r="264"/>
+    <row customHeight="1" ht="18.95" r="265"/>
+    <row customHeight="1" ht="18.95" r="266"/>
+    <row customHeight="1" ht="18.95" r="267"/>
+    <row customHeight="1" ht="18.95" r="268"/>
+    <row customHeight="1" ht="18.95" r="269"/>
+    <row customHeight="1" ht="18.95" r="270"/>
+    <row customHeight="1" ht="18.95" r="271"/>
+    <row customHeight="1" ht="18.95" r="272"/>
+    <row customHeight="1" ht="18.95" r="273"/>
+    <row customHeight="1" ht="18.95" r="274"/>
+    <row customHeight="1" ht="18.95" r="275"/>
+    <row customHeight="1" ht="18.95" r="276"/>
+    <row customHeight="1" ht="18.95" r="277"/>
+    <row customHeight="1" ht="18.95" r="278"/>
+    <row customHeight="1" ht="18.95" r="279"/>
+    <row customHeight="1" ht="18.95" r="280"/>
+    <row customHeight="1" ht="18.95" r="281"/>
+    <row customHeight="1" ht="18.95" r="282"/>
+    <row customHeight="1" ht="18.95" r="283"/>
+    <row customHeight="1" ht="18.95" r="284"/>
+    <row customHeight="1" ht="18.95" r="285"/>
+    <row customHeight="1" ht="18.95" r="286"/>
+    <row customHeight="1" ht="18.95" r="287"/>
+    <row customHeight="1" ht="18.95" r="288"/>
+    <row customHeight="1" ht="18.95" r="289"/>
+    <row customHeight="1" ht="18.95" r="290"/>
+    <row customHeight="1" ht="18.95" r="291"/>
+    <row customHeight="1" ht="18.95" r="292"/>
+    <row customHeight="1" ht="18.95" r="293"/>
+    <row customHeight="1" ht="18.95" r="294"/>
+    <row customHeight="1" ht="18.95" r="295"/>
+    <row customHeight="1" ht="18.95" r="296"/>
+    <row customHeight="1" ht="18.95" r="297"/>
+    <row customHeight="1" ht="18.95" r="298"/>
+    <row customHeight="1" ht="18.95" r="299"/>
+    <row customHeight="1" ht="18.95" r="300"/>
+    <row customHeight="1" ht="18.95" r="301"/>
+    <row customHeight="1" ht="18.95" r="302"/>
+    <row customHeight="1" ht="18.95" r="303"/>
+    <row customHeight="1" ht="18.95" r="304"/>
+    <row customHeight="1" ht="18.95" r="305"/>
+    <row customHeight="1" ht="18.95" r="306"/>
+    <row customHeight="1" ht="18.95" r="307"/>
+    <row customHeight="1" ht="18.95" r="308"/>
+    <row customHeight="1" ht="18.95" r="309"/>
+    <row customHeight="1" ht="18.95" r="310"/>
+    <row customHeight="1" ht="18.95" r="311"/>
+    <row customHeight="1" ht="18.95" r="312"/>
+    <row customHeight="1" ht="18.95" r="313"/>
+    <row customHeight="1" ht="18.95" r="314"/>
+    <row customHeight="1" ht="18.95" r="315"/>
+    <row customHeight="1" ht="18.95" r="316"/>
+    <row customHeight="1" ht="18.95" r="317"/>
+    <row customHeight="1" ht="18.95" r="318"/>
+    <row customHeight="1" ht="18.95" r="319"/>
+    <row customHeight="1" ht="18.95" r="320"/>
+    <row customHeight="1" ht="18.95" r="321"/>
+    <row customHeight="1" ht="18.95" r="322"/>
+    <row customHeight="1" ht="18.95" r="323"/>
+    <row customHeight="1" ht="18.95" r="324"/>
+    <row customHeight="1" ht="18.95" r="325"/>
+    <row customHeight="1" ht="18.95" r="326"/>
+    <row customHeight="1" ht="18.95" r="327"/>
+    <row customHeight="1" ht="18.95" r="328"/>
+    <row customHeight="1" ht="18.95" r="329"/>
+    <row customHeight="1" ht="18.95" r="330"/>
+    <row customHeight="1" ht="18.95" r="331"/>
+    <row customHeight="1" ht="18.95" r="332"/>
+    <row customHeight="1" ht="18.95" r="333"/>
+    <row customHeight="1" ht="18.95" r="334"/>
+    <row customHeight="1" ht="18.95" r="335"/>
+    <row customHeight="1" ht="18.95" r="336"/>
+    <row customHeight="1" ht="18.95" r="337"/>
+    <row customHeight="1" ht="18.95" r="338"/>
+    <row customHeight="1" ht="18.95" r="339"/>
+    <row customHeight="1" ht="18.95" r="340"/>
+    <row customHeight="1" ht="18.95" r="341"/>
+    <row customHeight="1" ht="18.95" r="342"/>
+    <row customHeight="1" ht="18.95" r="343"/>
+    <row customHeight="1" ht="18.95" r="344"/>
+    <row customHeight="1" ht="18.95" r="345"/>
+    <row customHeight="1" ht="18.95" r="346"/>
+    <row customHeight="1" ht="18.95" r="347"/>
+    <row customHeight="1" ht="18.95" r="348"/>
+    <row customHeight="1" ht="18.95" r="349"/>
+    <row customHeight="1" ht="18.95" r="350"/>
+    <row customHeight="1" ht="18.95" r="351"/>
+    <row customHeight="1" ht="18.95" r="352"/>
+    <row customHeight="1" ht="18.95" r="353"/>
+    <row customHeight="1" ht="18.95" r="354"/>
+    <row customHeight="1" ht="18.95" r="355"/>
+    <row customHeight="1" ht="18.95" r="356"/>
+    <row customHeight="1" ht="18.95" r="357"/>
+    <row customHeight="1" ht="18.95" r="358"/>
+    <row customHeight="1" ht="18.95" r="359"/>
+    <row customHeight="1" ht="18.95" r="360"/>
+    <row customHeight="1" ht="18.95" r="361"/>
+    <row customHeight="1" ht="18.95" r="362"/>
+    <row customHeight="1" ht="18.95" r="363"/>
+    <row customHeight="1" ht="18.95" r="364"/>
+    <row customHeight="1" ht="18.95" r="365"/>
+    <row customHeight="1" ht="18.95" r="366"/>
+    <row customHeight="1" ht="18.95" r="367"/>
+    <row customHeight="1" ht="18.95" r="368"/>
+    <row customHeight="1" ht="18.95" r="369"/>
+    <row customHeight="1" ht="18.95" r="370"/>
+    <row customHeight="1" ht="18.95" r="371"/>
+    <row customHeight="1" ht="18.95" r="372"/>
+    <row customHeight="1" ht="18.95" r="373"/>
+    <row customHeight="1" ht="18.95" r="374"/>
+    <row customHeight="1" ht="18.95" r="375"/>
+    <row customHeight="1" ht="18.95" r="376"/>
+    <row customHeight="1" ht="18.95" r="377"/>
+    <row customHeight="1" ht="18.95" r="378"/>
+    <row customHeight="1" ht="18.95" r="379"/>
+    <row customHeight="1" ht="18.95" r="380"/>
+    <row customHeight="1" ht="18.95" r="381"/>
+    <row customHeight="1" ht="18.95" r="382"/>
+    <row customHeight="1" ht="18.95" r="383"/>
+    <row customHeight="1" ht="18.95" r="384"/>
+    <row customHeight="1" ht="18.95" r="385"/>
+    <row customHeight="1" ht="18.95" r="386"/>
+    <row customHeight="1" ht="18.95" r="387"/>
+    <row customHeight="1" ht="18.95" r="388"/>
+    <row customHeight="1" ht="18.95" r="389"/>
+    <row customHeight="1" ht="18.95" r="390"/>
+    <row customHeight="1" ht="18.95" r="391"/>
+    <row customHeight="1" ht="18.95" r="392"/>
+    <row customHeight="1" ht="18.95" r="393"/>
+    <row customHeight="1" ht="18.95" r="394"/>
+    <row customHeight="1" ht="18.95" r="395"/>
+    <row customHeight="1" ht="18.95" r="396"/>
+    <row customHeight="1" ht="18.95" r="397"/>
+    <row customHeight="1" ht="18.95" r="398"/>
+    <row customHeight="1" ht="18.95" r="399"/>
+    <row customHeight="1" ht="18.95" r="400"/>
+    <row customHeight="1" ht="18.95" r="401"/>
+    <row customHeight="1" ht="18.95" r="402"/>
+    <row customHeight="1" ht="18.95" r="403"/>
+    <row customHeight="1" ht="18.95" r="404"/>
+    <row customHeight="1" ht="18.95" r="405"/>
+    <row customHeight="1" ht="18.95" r="406"/>
+    <row customHeight="1" ht="18.95" r="407"/>
+    <row customHeight="1" ht="18.95" r="408"/>
+    <row customHeight="1" ht="18.95" r="409"/>
+    <row customHeight="1" ht="18.95" r="410"/>
+    <row customHeight="1" ht="18.95" r="411"/>
+    <row customHeight="1" ht="18.95" r="412"/>
+    <row customHeight="1" ht="18.95" r="413"/>
+    <row customHeight="1" ht="18.95" r="414"/>
+    <row customHeight="1" ht="18.95" r="415"/>
+    <row customHeight="1" ht="18.95" r="416"/>
+    <row customHeight="1" ht="18.95" r="417"/>
+    <row customHeight="1" ht="18.95" r="418"/>
+    <row customHeight="1" ht="18.95" r="419"/>
+    <row customHeight="1" ht="18.95" r="420"/>
+    <row customHeight="1" ht="18.95" r="421"/>
+    <row customHeight="1" ht="18.95" r="422"/>
+    <row customHeight="1" ht="18.95" r="423"/>
+    <row customHeight="1" ht="18.95" r="424"/>
+    <row customHeight="1" ht="18.95" r="425"/>
+    <row customHeight="1" ht="18.95" r="426"/>
+    <row customHeight="1" ht="18.95" r="427"/>
+    <row customHeight="1" ht="18.95" r="428"/>
+    <row customHeight="1" ht="18.95" r="429"/>
+    <row customHeight="1" ht="18.95" r="430"/>
+    <row customHeight="1" ht="18.95" r="431"/>
+    <row customHeight="1" ht="18.95" r="432"/>
+    <row customHeight="1" ht="18.95" r="433"/>
+    <row customHeight="1" ht="18.95" r="434"/>
+    <row customHeight="1" ht="18.95" r="435"/>
+    <row customHeight="1" ht="18.95" r="436"/>
+    <row customHeight="1" ht="18.95" r="437"/>
+    <row customHeight="1" ht="18.95" r="438"/>
+    <row customHeight="1" ht="18.95" r="439"/>
+    <row customHeight="1" ht="18.95" r="440"/>
+    <row customHeight="1" ht="18.95" r="441"/>
+    <row customHeight="1" ht="18.95" r="442"/>
+    <row customHeight="1" ht="18.95" r="443"/>
+    <row customHeight="1" ht="18.95" r="444"/>
+    <row customHeight="1" ht="18.95" r="445"/>
+    <row customHeight="1" ht="18.95" r="446"/>
+    <row customHeight="1" ht="18.95" r="447"/>
+    <row customHeight="1" ht="18.95" r="448"/>
+    <row customHeight="1" ht="18.95" r="449"/>
+    <row customHeight="1" ht="18.95" r="450"/>
+    <row customHeight="1" ht="18.95" r="451"/>
+    <row customHeight="1" ht="18.95" r="452"/>
+    <row customHeight="1" ht="18.95" r="453"/>
+    <row customHeight="1" ht="18.95" r="454"/>
+    <row customHeight="1" ht="18.95" r="455"/>
+    <row customHeight="1" ht="18.95" r="456"/>
+    <row customHeight="1" ht="18.95" r="457"/>
+    <row customHeight="1" ht="18.95" r="458"/>
+    <row customHeight="1" ht="18.95" r="459"/>
+    <row customHeight="1" ht="18.95" r="460"/>
+    <row customHeight="1" ht="18.95" r="461"/>
+    <row customHeight="1" ht="18.95" r="462"/>
+    <row customHeight="1" ht="18.95" r="463"/>
+    <row customHeight="1" ht="18.95" r="464"/>
+    <row customHeight="1" ht="18.95" r="465"/>
+    <row customHeight="1" ht="18.95" r="466"/>
+    <row customHeight="1" ht="18.95" r="467"/>
+    <row customHeight="1" ht="18.95" r="468"/>
+    <row customHeight="1" ht="18.95" r="469"/>
+    <row customHeight="1" ht="18.95" r="470"/>
+    <row customHeight="1" ht="18.95" r="471"/>
+    <row customHeight="1" ht="18.95" r="472"/>
+    <row customHeight="1" ht="18.95" r="473"/>
+    <row customHeight="1" ht="18.95" r="474"/>
+    <row customHeight="1" ht="18.95" r="475"/>
+    <row customHeight="1" ht="18.95" r="476"/>
+    <row customHeight="1" ht="18.95" r="477"/>
+    <row customHeight="1" ht="18.95" r="478"/>
+    <row customHeight="1" ht="18.95" r="479"/>
+    <row customHeight="1" ht="18.95" r="480"/>
+    <row customHeight="1" ht="18.95" r="481"/>
+    <row customHeight="1" ht="18.95" r="482"/>
+    <row customHeight="1" ht="18.95" r="483"/>
+    <row customHeight="1" ht="18.95" r="484"/>
+    <row customHeight="1" ht="18.95" r="485"/>
+    <row customHeight="1" ht="18.95" r="486"/>
+    <row customHeight="1" ht="18.95" r="487"/>
+    <row customHeight="1" ht="18.95" r="488"/>
+    <row customHeight="1" ht="18.95" r="489"/>
+    <row customHeight="1" ht="18.95" r="490"/>
+    <row customHeight="1" ht="18.95" r="491"/>
+    <row customHeight="1" ht="18.95" r="492"/>
+    <row customHeight="1" ht="18.95" r="493"/>
+    <row customHeight="1" ht="18.95" r="494"/>
+    <row customHeight="1" ht="18.95" r="495"/>
+    <row customHeight="1" ht="18.95" r="496"/>
+    <row customHeight="1" ht="18.95" r="497"/>
+    <row customHeight="1" ht="18.95" r="498"/>
+    <row customHeight="1" ht="18.95" r="499"/>
+    <row customHeight="1" ht="18.95" r="500"/>
+    <row customHeight="1" ht="18.95" r="501"/>
+    <row customHeight="1" ht="18.95" r="502"/>
+    <row customHeight="1" ht="18.95" r="503"/>
+    <row customHeight="1" ht="18.95" r="504"/>
+    <row customHeight="1" ht="18.95" r="505"/>
+    <row customHeight="1" ht="18.95" r="506"/>
+    <row customHeight="1" ht="18.95" r="507"/>
+    <row customHeight="1" ht="18.95" r="508"/>
+    <row customHeight="1" ht="18.95" r="509"/>
+    <row customHeight="1" ht="18.95" r="510"/>
+    <row customHeight="1" ht="18.95" r="511"/>
+    <row customHeight="1" ht="18.95" r="512"/>
+    <row customHeight="1" ht="18.95" r="513"/>
+    <row customHeight="1" ht="18.95" r="514"/>
+    <row customHeight="1" ht="18.95" r="515"/>
+    <row customHeight="1" ht="18.95" r="516"/>
+    <row customHeight="1" ht="18.95" r="517"/>
+    <row customHeight="1" ht="18.95" r="518"/>
+    <row customHeight="1" ht="18.95" r="519"/>
+    <row customHeight="1" ht="18.95" r="520"/>
+    <row customHeight="1" ht="18.95" r="521"/>
+    <row customHeight="1" ht="18.95" r="522"/>
+    <row customHeight="1" ht="18.95" r="523"/>
+    <row customHeight="1" ht="18.95" r="524"/>
+    <row customHeight="1" ht="18.95" r="525"/>
+    <row customHeight="1" ht="18.95" r="526"/>
+    <row customHeight="1" ht="18.95" r="527"/>
+    <row customHeight="1" ht="18.95" r="528"/>
+    <row customHeight="1" ht="18.95" r="529"/>
+    <row customHeight="1" ht="18.95" r="530"/>
+    <row customHeight="1" ht="18.95" r="531"/>
+    <row customHeight="1" ht="18.95" r="532"/>
+    <row customHeight="1" ht="18.95" r="533"/>
+    <row customHeight="1" ht="18.95" r="534"/>
+    <row customHeight="1" ht="18.95" r="535"/>
+    <row customHeight="1" ht="18.95" r="536"/>
+    <row customHeight="1" ht="18.95" r="537"/>
+    <row customHeight="1" ht="18.95" r="538"/>
+    <row customHeight="1" ht="18.95" r="539"/>
+    <row customHeight="1" ht="18.95" r="540"/>
+    <row customHeight="1" ht="18.95" r="541"/>
+    <row customHeight="1" ht="18.95" r="542"/>
+    <row customHeight="1" ht="18.95" r="543"/>
+    <row customHeight="1" ht="18.95" r="544"/>
+    <row customHeight="1" ht="18.95" r="545"/>
+    <row customHeight="1" ht="18.95" r="546"/>
+    <row customHeight="1" ht="18.95" r="547"/>
+    <row customHeight="1" ht="18.95" r="548"/>
+    <row customHeight="1" ht="18.95" r="549"/>
+    <row customHeight="1" ht="18.95" r="550"/>
+    <row customHeight="1" ht="18.95" r="551"/>
+    <row customHeight="1" ht="18.95" r="552"/>
+    <row customHeight="1" ht="18.95" r="553"/>
+    <row customHeight="1" ht="18.95" r="554"/>
+    <row customHeight="1" ht="18.95" r="555"/>
+    <row customHeight="1" ht="18.95" r="556"/>
+    <row customHeight="1" ht="18.95" r="557"/>
+    <row customHeight="1" ht="18.95" r="558"/>
+    <row customHeight="1" ht="18.95" r="559"/>
+    <row customHeight="1" ht="18.95" r="560"/>
+    <row customHeight="1" ht="18.95" r="561"/>
+    <row customHeight="1" ht="18.95" r="562"/>
+    <row customHeight="1" ht="18.95" r="563"/>
+    <row customHeight="1" ht="18.95" r="564"/>
+    <row customHeight="1" ht="18.95" r="565"/>
+    <row customHeight="1" ht="18.95" r="566"/>
+    <row customHeight="1" ht="18.95" r="567"/>
+    <row customHeight="1" ht="18.95" r="568"/>
+    <row customHeight="1" ht="18.95" r="569"/>
+    <row customHeight="1" ht="18.95" r="570"/>
+    <row customHeight="1" ht="18.95" r="571"/>
+    <row customHeight="1" ht="18.95" r="572"/>
+    <row customHeight="1" ht="18.95" r="573"/>
+    <row customHeight="1" ht="18.95" r="574"/>
+    <row customHeight="1" ht="18.95" r="575"/>
+    <row customHeight="1" ht="18.95" r="576"/>
+    <row customHeight="1" ht="18.95" r="577"/>
+    <row customHeight="1" ht="18.95" r="578"/>
+    <row customHeight="1" ht="18.95" r="579"/>
+    <row customHeight="1" ht="18.95" r="580"/>
+    <row customHeight="1" ht="18.95" r="581"/>
+    <row customHeight="1" ht="18.95" r="582"/>
+    <row customHeight="1" ht="18.95" r="583"/>
+    <row customHeight="1" ht="18.95" r="584"/>
+    <row customHeight="1" ht="18.95" r="585"/>
+    <row customHeight="1" ht="18.95" r="586"/>
+    <row customHeight="1" ht="18.95" r="587"/>
+    <row customHeight="1" ht="18.95" r="588"/>
+    <row customHeight="1" ht="18.95" r="589"/>
+    <row customHeight="1" ht="18.95" r="590"/>
+    <row customHeight="1" ht="18.95" r="591"/>
+    <row customHeight="1" ht="18.95" r="592"/>
+    <row customHeight="1" ht="18.95" r="593"/>
+    <row customHeight="1" ht="18.95" r="594"/>
+    <row customHeight="1" ht="18.95" r="595"/>
+    <row customHeight="1" ht="18.95" r="596"/>
+    <row customHeight="1" ht="18.95" r="597"/>
+    <row customHeight="1" ht="18.95" r="598"/>
+    <row customHeight="1" ht="18.95" r="599"/>
+    <row customHeight="1" ht="18.95" r="600"/>
+    <row customHeight="1" ht="18.95" r="601"/>
+    <row customHeight="1" ht="18.95" r="602"/>
+    <row customHeight="1" ht="18.95" r="603"/>
+    <row customHeight="1" ht="18.95" r="604"/>
+    <row customHeight="1" ht="18.95" r="605"/>
+    <row customHeight="1" ht="18.95" r="606"/>
+    <row customHeight="1" ht="18.95" r="607"/>
+    <row customHeight="1" ht="18.95" r="608"/>
+    <row customHeight="1" ht="18.95" r="609"/>
+    <row customHeight="1" ht="18.95" r="610"/>
+    <row customHeight="1" ht="18.95" r="611"/>
+    <row customHeight="1" ht="18.95" r="612"/>
+    <row customHeight="1" ht="18.95" r="613"/>
+    <row customHeight="1" ht="18.95" r="614"/>
+    <row customHeight="1" ht="18.95" r="615"/>
+    <row customHeight="1" ht="18.95" r="616"/>
+    <row customHeight="1" ht="18.95" r="617"/>
+    <row customHeight="1" ht="18.95" r="618"/>
+    <row customHeight="1" ht="18.95" r="619"/>
+    <row customHeight="1" ht="18.95" r="620"/>
+    <row customHeight="1" ht="18.95" r="621"/>
+    <row customHeight="1" ht="18.95" r="622"/>
+    <row customHeight="1" ht="18.95" r="623"/>
+    <row customHeight="1" ht="18.95" r="624"/>
+    <row customHeight="1" ht="18.95" r="625"/>
+    <row customHeight="1" ht="18.95" r="626"/>
+    <row customHeight="1" ht="18.95" r="627"/>
+    <row customHeight="1" ht="18.95" r="628"/>
+    <row customHeight="1" ht="18.95" r="629"/>
+    <row customHeight="1" ht="18.95" r="630"/>
+    <row customHeight="1" ht="18.95" r="631"/>
+    <row customHeight="1" ht="18.95" r="632"/>
+    <row customHeight="1" ht="18.95" r="633"/>
+    <row customHeight="1" ht="18.95" r="634"/>
+    <row customHeight="1" ht="18.95" r="635"/>
+    <row customHeight="1" ht="18.95" r="636"/>
+    <row customHeight="1" ht="18.95" r="637"/>
+    <row customHeight="1" ht="18.95" r="638"/>
+    <row customHeight="1" ht="18.95" r="639"/>
+    <row customHeight="1" ht="18.95" r="640"/>
+    <row customHeight="1" ht="18.95" r="641"/>
+    <row customHeight="1" ht="18.95" r="642"/>
+    <row customHeight="1" ht="18.95" r="643"/>
+    <row customHeight="1" ht="18.95" r="644"/>
+    <row customHeight="1" ht="18.95" r="645"/>
+    <row customHeight="1" ht="18.95" r="646"/>
+    <row customHeight="1" ht="18.95" r="647"/>
+    <row customHeight="1" ht="18.95" r="648"/>
+    <row customHeight="1" ht="18.95" r="649"/>
+    <row customHeight="1" ht="18.95" r="650"/>
+    <row customHeight="1" ht="18.95" r="651"/>
+    <row customHeight="1" ht="18.95" r="652"/>
+    <row customHeight="1" ht="18.95" r="653"/>
+    <row customHeight="1" ht="18.95" r="654"/>
+    <row customHeight="1" ht="18.95" r="655"/>
+    <row customHeight="1" ht="18.95" r="656"/>
+    <row customHeight="1" ht="18.95" r="657"/>
+    <row customHeight="1" ht="18.95" r="658"/>
+    <row customHeight="1" ht="18.95" r="659"/>
+    <row customHeight="1" ht="18.95" r="660"/>
+    <row customHeight="1" ht="18.95" r="661"/>
+    <row customHeight="1" ht="18.95" r="662"/>
+    <row customHeight="1" ht="18.95" r="663"/>
+    <row customHeight="1" ht="18.95" r="664"/>
+    <row customHeight="1" ht="18.95" r="665"/>
+    <row customHeight="1" ht="18.95" r="666"/>
+    <row customHeight="1" ht="18.95" r="667"/>
+    <row customHeight="1" ht="18.95" r="668"/>
+    <row customHeight="1" ht="18.95" r="669"/>
+    <row customHeight="1" ht="18.95" r="670"/>
+    <row customHeight="1" ht="18.95" r="671"/>
+    <row customHeight="1" ht="18.95" r="672"/>
+    <row customHeight="1" ht="18.95" r="673"/>
+    <row customHeight="1" ht="18.95" r="674"/>
+    <row customHeight="1" ht="18.95" r="675"/>
+    <row customHeight="1" ht="18.95" r="676"/>
+    <row customHeight="1" ht="18.95" r="677"/>
+    <row customHeight="1" ht="18.95" r="678"/>
+    <row customHeight="1" ht="18.95" r="679"/>
+    <row customHeight="1" ht="18.95" r="680"/>
+    <row customHeight="1" ht="18.95" r="681"/>
+    <row customHeight="1" ht="18.95" r="682"/>
+    <row customHeight="1" ht="18.95" r="683"/>
+    <row customHeight="1" ht="18.95" r="684"/>
+    <row customHeight="1" ht="18.95" r="685"/>
+    <row customHeight="1" ht="18.95" r="686"/>
+    <row customHeight="1" ht="18.95" r="687"/>
+    <row customHeight="1" ht="18.95" r="688"/>
+    <row customHeight="1" ht="18.95" r="689"/>
+    <row customHeight="1" ht="18.95" r="690"/>
+    <row customHeight="1" ht="18.95" r="691"/>
+    <row customHeight="1" ht="18.95" r="692"/>
+    <row customHeight="1" ht="18.95" r="693"/>
+    <row customHeight="1" ht="18.95" r="694"/>
+    <row customHeight="1" ht="18.95" r="695"/>
+    <row customHeight="1" ht="18.95" r="696"/>
+    <row customHeight="1" ht="18.95" r="697"/>
+    <row customHeight="1" ht="18.95" r="698"/>
+    <row customHeight="1" ht="18.95" r="699"/>
+    <row customHeight="1" ht="18.95" r="700"/>
+    <row customHeight="1" ht="18.95" r="701"/>
+    <row customHeight="1" ht="18.95" r="702"/>
+    <row customHeight="1" ht="18.95" r="703"/>
+    <row customHeight="1" ht="18.95" r="704"/>
+    <row customHeight="1" ht="18.95" r="705"/>
+    <row customHeight="1" ht="18.95" r="706"/>
+    <row customHeight="1" ht="18.95" r="707"/>
+    <row customHeight="1" ht="18.95" r="708"/>
+    <row customHeight="1" ht="18.95" r="709"/>
+    <row customHeight="1" ht="18.95" r="710"/>
+    <row customHeight="1" ht="18.95" r="711"/>
+    <row customHeight="1" ht="18.95" r="712"/>
+    <row customHeight="1" ht="18.95" r="713"/>
+    <row customHeight="1" ht="18.95" r="714"/>
+    <row customHeight="1" ht="18.95" r="715"/>
+    <row customHeight="1" ht="18.95" r="716"/>
+    <row customHeight="1" ht="18.95" r="717"/>
+    <row customHeight="1" ht="18.95" r="718"/>
+    <row customHeight="1" ht="18.95" r="719"/>
+    <row customHeight="1" ht="18.95" r="720"/>
+    <row customHeight="1" ht="18.95" r="721"/>
+    <row customHeight="1" ht="18.95" r="722"/>
+    <row customHeight="1" ht="18.95" r="723"/>
+    <row customHeight="1" ht="18.95" r="724"/>
+    <row customHeight="1" ht="18.95" r="725"/>
+    <row customHeight="1" ht="18.95" r="726"/>
+    <row customHeight="1" ht="18.95" r="727"/>
+    <row customHeight="1" ht="18.95" r="728"/>
+    <row customHeight="1" ht="18.95" r="729"/>
+    <row customHeight="1" ht="18.95" r="730"/>
+    <row customHeight="1" ht="18.95" r="731"/>
+    <row customHeight="1" ht="18.95" r="732"/>
+    <row customHeight="1" ht="18.95" r="733"/>
+    <row customHeight="1" ht="18.95" r="734"/>
+    <row customHeight="1" ht="18.95" r="735"/>
+    <row customHeight="1" ht="18.95" r="736"/>
+    <row customHeight="1" ht="18.95" r="737"/>
+    <row customHeight="1" ht="18.95" r="738"/>
+    <row customHeight="1" ht="18.95" r="739"/>
+    <row customHeight="1" ht="18.95" r="740"/>
+    <row customHeight="1" ht="18.95" r="741"/>
+    <row customHeight="1" ht="18.95" r="742"/>
+    <row customHeight="1" ht="18.95" r="743"/>
+    <row customHeight="1" ht="18.95" r="744"/>
+    <row customHeight="1" ht="18.95" r="745"/>
+    <row customHeight="1" ht="18.95" r="746"/>
+    <row customHeight="1" ht="18.95" r="747"/>
+    <row customHeight="1" ht="18.95" r="748"/>
+    <row customHeight="1" ht="18.95" r="749"/>
+    <row customHeight="1" ht="18.95" r="750"/>
+    <row customHeight="1" ht="18.95" r="751"/>
+    <row customHeight="1" ht="18.95" r="752"/>
+    <row customHeight="1" ht="18.95" r="753"/>
+    <row customHeight="1" ht="18.95" r="754"/>
+    <row customHeight="1" ht="18.95" r="755"/>
+    <row customHeight="1" ht="18.95" r="756"/>
+    <row customHeight="1" ht="18.95" r="757"/>
+    <row customHeight="1" ht="18.95" r="758"/>
+    <row customHeight="1" ht="18.95" r="759"/>
+    <row customHeight="1" ht="18.95" r="760"/>
+    <row customHeight="1" ht="18.95" r="761"/>
+    <row customHeight="1" ht="18.95" r="762"/>
+    <row customHeight="1" ht="18.95" r="763"/>
+    <row customHeight="1" ht="18.95" r="764"/>
+    <row customHeight="1" ht="18.95" r="765"/>
+    <row customHeight="1" ht="18.95" r="766"/>
+    <row customHeight="1" ht="18.95" r="767"/>
+    <row customHeight="1" ht="18.95" r="768"/>
+    <row customHeight="1" ht="18.95" r="769"/>
+    <row customHeight="1" ht="18.95" r="770"/>
+    <row customHeight="1" ht="18.95" r="771"/>
+    <row customHeight="1" ht="18.95" r="772"/>
+    <row customHeight="1" ht="18.95" r="773"/>
+    <row customHeight="1" ht="18.95" r="774"/>
+    <row customHeight="1" ht="18.95" r="775"/>
+    <row customHeight="1" ht="18.95" r="776"/>
+    <row customHeight="1" ht="18.95" r="777"/>
+    <row customHeight="1" ht="18.95" r="778"/>
+    <row customHeight="1" ht="18.95" r="779"/>
+    <row customHeight="1" ht="18.95" r="780"/>
+    <row customHeight="1" ht="18.95" r="781"/>
+    <row customHeight="1" ht="18.95" r="782"/>
+    <row customHeight="1" ht="18.95" r="783"/>
+    <row customHeight="1" ht="18.95" r="784"/>
+    <row customHeight="1" ht="18.95" r="785"/>
+    <row customHeight="1" ht="18.95" r="786"/>
+    <row customHeight="1" ht="18.95" r="787"/>
+    <row customHeight="1" ht="18.95" r="788"/>
+    <row customHeight="1" ht="18.95" r="789"/>
+    <row customHeight="1" ht="18.95" r="790"/>
+    <row customHeight="1" ht="18.95" r="791"/>
+    <row customHeight="1" ht="18.95" r="792"/>
+    <row customHeight="1" ht="18.95" r="793"/>
+    <row customHeight="1" ht="18.95" r="794"/>
+    <row customHeight="1" ht="18.95" r="795"/>
+    <row customHeight="1" ht="18.95" r="796"/>
+    <row customHeight="1" ht="18.95" r="797"/>
+    <row customHeight="1" ht="18.95" r="798"/>
+    <row customHeight="1" ht="18.95" r="799"/>
+    <row customHeight="1" ht="18.95" r="800"/>
+    <row customHeight="1" ht="18.95" r="801"/>
+    <row customHeight="1" ht="18.95" r="802"/>
+    <row customHeight="1" ht="18.95" r="803"/>
+    <row customHeight="1" ht="18.95" r="804"/>
+    <row customHeight="1" ht="18.95" r="805"/>
+    <row customHeight="1" ht="18.95" r="806"/>
+    <row customHeight="1" ht="18.95" r="807"/>
+    <row customHeight="1" ht="18.95" r="808"/>
+    <row customHeight="1" ht="18.95" r="809"/>
+    <row customHeight="1" ht="18.95" r="810"/>
+    <row customHeight="1" ht="18.95" r="811"/>
+    <row customHeight="1" ht="18.95" r="812"/>
+    <row customHeight="1" ht="18.95" r="813"/>
+    <row customHeight="1" ht="18.95" r="814"/>
+    <row customHeight="1" ht="18.95" r="815"/>
+    <row customHeight="1" ht="18.95" r="816"/>
+    <row customHeight="1" ht="18.95" r="817"/>
+    <row customHeight="1" ht="18.95" r="818"/>
+    <row customHeight="1" ht="18.95" r="819"/>
+    <row customHeight="1" ht="18.95" r="820"/>
+    <row customHeight="1" ht="18.95" r="821"/>
+    <row customHeight="1" ht="18.95" r="822"/>
+    <row customHeight="1" ht="18.95" r="823"/>
+    <row customHeight="1" ht="18.95" r="824"/>
+    <row customHeight="1" ht="18.95" r="825"/>
+    <row customHeight="1" ht="18.95" r="826"/>
+    <row customHeight="1" ht="18.95" r="827"/>
+    <row customHeight="1" ht="18.95" r="828"/>
+    <row customHeight="1" ht="18.95" r="829"/>
+    <row customHeight="1" ht="18.95" r="830"/>
+    <row customHeight="1" ht="18.95" r="831"/>
+    <row customHeight="1" ht="18.95" r="832"/>
+    <row customHeight="1" ht="18.95" r="833"/>
+    <row customHeight="1" ht="18.95" r="834"/>
+    <row customHeight="1" ht="18.95" r="835"/>
+    <row customHeight="1" ht="18.95" r="836"/>
+    <row customHeight="1" ht="18.95" r="837"/>
+    <row customHeight="1" ht="18.95" r="838"/>
+    <row customHeight="1" ht="18.95" r="839"/>
+    <row customHeight="1" ht="18.95" r="840"/>
+    <row customHeight="1" ht="18.95" r="841"/>
+    <row customHeight="1" ht="18.95" r="842"/>
+    <row customHeight="1" ht="18.95" r="843"/>
+    <row customHeight="1" ht="18.95" r="844"/>
+    <row customHeight="1" ht="18.95" r="845"/>
+    <row customHeight="1" ht="18.95" r="846"/>
+    <row customHeight="1" ht="18.95" r="847"/>
+    <row customHeight="1" ht="18.95" r="848"/>
+    <row customHeight="1" ht="18.95" r="849"/>
+    <row customHeight="1" ht="18.95" r="850"/>
+    <row customHeight="1" ht="18.95" r="851"/>
+    <row customHeight="1" ht="18.95" r="852"/>
+    <row customHeight="1" ht="18.95" r="853"/>
+    <row customHeight="1" ht="18.95" r="854"/>
+    <row customHeight="1" ht="18.95" r="855"/>
+    <row customHeight="1" ht="18.95" r="856"/>
+    <row customHeight="1" ht="18.95" r="857"/>
+    <row customHeight="1" ht="18.95" r="858"/>
+    <row customHeight="1" ht="18.95" r="859"/>
+    <row customHeight="1" ht="18.95" r="860"/>
+    <row customHeight="1" ht="18.95" r="861"/>
+    <row customHeight="1" ht="18.95" r="862"/>
+    <row customHeight="1" ht="18.95" r="863"/>
+    <row customHeight="1" ht="18.95" r="864"/>
+    <row customHeight="1" ht="18.95" r="865"/>
+    <row customHeight="1" ht="18.95" r="866"/>
+    <row customHeight="1" ht="18.95" r="867"/>
+    <row customHeight="1" ht="18.95" r="868"/>
+    <row customHeight="1" ht="18.95" r="869"/>
+    <row customHeight="1" ht="18.95" r="870"/>
+    <row customHeight="1" ht="18.95" r="871"/>
+    <row customHeight="1" ht="18.95" r="872"/>
+    <row customHeight="1" ht="18.95" r="873"/>
+    <row customHeight="1" ht="18.95" r="874"/>
+    <row customHeight="1" ht="18.95" r="875"/>
+    <row customHeight="1" ht="18.95" r="876"/>
+    <row customHeight="1" ht="18.95" r="877"/>
+    <row customHeight="1" ht="18.95" r="878"/>
+    <row customHeight="1" ht="18.95" r="879"/>
+    <row customHeight="1" ht="18.95" r="880"/>
+    <row customHeight="1" ht="18.95" r="881"/>
+    <row customHeight="1" ht="18.95" r="882"/>
+    <row customHeight="1" ht="18.95" r="883"/>
+    <row customHeight="1" ht="18.95" r="884"/>
+    <row customHeight="1" ht="18.95" r="885"/>
+    <row customHeight="1" ht="18.95" r="886"/>
+    <row customHeight="1" ht="18.95" r="887"/>
+    <row customHeight="1" ht="18.95" r="888"/>
+    <row customHeight="1" ht="18.95" r="889"/>
+    <row customHeight="1" ht="18.95" r="890"/>
+    <row customHeight="1" ht="18.95" r="891"/>
+    <row customHeight="1" ht="18.95" r="892"/>
+    <row customHeight="1" ht="18.95" r="893"/>
+    <row customHeight="1" ht="18.95" r="894"/>
+    <row customHeight="1" ht="18.95" r="895"/>
+    <row customHeight="1" ht="18.95" r="896"/>
+    <row customHeight="1" ht="18.95" r="897"/>
+    <row customHeight="1" ht="18.95" r="898"/>
+    <row customHeight="1" ht="18.95" r="899"/>
+    <row customHeight="1" ht="18.95" r="900"/>
+    <row customHeight="1" ht="18.95" r="901"/>
+    <row customHeight="1" ht="18.95" r="902"/>
+    <row customHeight="1" ht="18.95" r="903"/>
+    <row customHeight="1" ht="18.95" r="904"/>
+    <row customHeight="1" ht="18.95" r="905"/>
+    <row customHeight="1" ht="18.95" r="906"/>
+    <row customHeight="1" ht="18.95" r="907"/>
+    <row customHeight="1" ht="18.95" r="908"/>
+    <row customHeight="1" ht="18.95" r="909"/>
+    <row customHeight="1" ht="18.95" r="910"/>
+    <row customHeight="1" ht="18.95" r="911"/>
+    <row customHeight="1" ht="18.95" r="912"/>
+    <row customHeight="1" ht="18.95" r="913"/>
+    <row customHeight="1" ht="18.95" r="914"/>
+    <row customHeight="1" ht="18.95" r="915"/>
+    <row customHeight="1" ht="18.95" r="916"/>
+    <row customHeight="1" ht="18.95" r="917"/>
+    <row customHeight="1" ht="18.95" r="918"/>
+    <row customHeight="1" ht="18.95" r="919"/>
+    <row customHeight="1" ht="18.95" r="920"/>
+    <row customHeight="1" ht="18.95" r="921"/>
+    <row customHeight="1" ht="18.95" r="922"/>
+    <row customHeight="1" ht="18.95" r="923"/>
+    <row customHeight="1" ht="18.95" r="924"/>
+    <row customHeight="1" ht="18.95" r="925"/>
+    <row customHeight="1" ht="18.95" r="926"/>
+    <row customHeight="1" ht="18.95" r="927"/>
+    <row customHeight="1" ht="18.95" r="928"/>
+    <row customHeight="1" ht="18.95" r="929"/>
+    <row customHeight="1" ht="18.95" r="930"/>
+    <row customHeight="1" ht="18.95" r="931"/>
+    <row customHeight="1" ht="18.95" r="932"/>
+    <row customHeight="1" ht="18.95" r="933"/>
+    <row customHeight="1" ht="18.95" r="934"/>
+    <row customHeight="1" ht="18.95" r="935"/>
+    <row customHeight="1" ht="18.95" r="936"/>
+    <row customHeight="1" ht="18.95" r="937"/>
+    <row customHeight="1" ht="18.95" r="938"/>
+    <row customHeight="1" ht="18.95" r="939"/>
+    <row customHeight="1" ht="18.95" r="940"/>
+    <row customHeight="1" ht="18.95" r="941"/>
+    <row customHeight="1" ht="18.95" r="942"/>
+    <row customHeight="1" ht="18.95" r="943"/>
+    <row customHeight="1" ht="18.95" r="944"/>
+    <row customHeight="1" ht="18.95" r="945"/>
+    <row customHeight="1" ht="18.95" r="946"/>
+    <row customHeight="1" ht="18.95" r="947"/>
+    <row customHeight="1" ht="18.95" r="948"/>
+    <row customHeight="1" ht="18.95" r="949"/>
+    <row customHeight="1" ht="18.95" r="950"/>
+    <row customHeight="1" ht="18.95" r="951"/>
+    <row customHeight="1" ht="18.95" r="952"/>
+    <row customHeight="1" ht="18.95" r="953"/>
+    <row customHeight="1" ht="18.95" r="954"/>
+    <row customHeight="1" ht="18.95" r="955"/>
+    <row customHeight="1" ht="18.95" r="956"/>
+    <row customHeight="1" ht="18.95" r="957"/>
+    <row customHeight="1" ht="18.95" r="958"/>
+    <row customHeight="1" ht="18.95" r="959"/>
+    <row customHeight="1" ht="18.95" r="960"/>
+    <row customHeight="1" ht="18.95" r="961"/>
+    <row customHeight="1" ht="18.95" r="962"/>
+    <row customHeight="1" ht="18.95" r="963"/>
+    <row customHeight="1" ht="18.95" r="964"/>
+    <row customHeight="1" ht="18.95" r="965"/>
+    <row customHeight="1" ht="18.95" r="966"/>
+    <row customHeight="1" ht="18.95" r="967"/>
+    <row customHeight="1" ht="18.95" r="968"/>
+    <row customHeight="1" ht="18.95" r="969"/>
+    <row customHeight="1" ht="18.95" r="970"/>
+    <row customHeight="1" ht="18.95" r="971"/>
+    <row customHeight="1" ht="18.95" r="972"/>
+    <row customHeight="1" ht="18.95" r="973"/>
+    <row customHeight="1" ht="18.95" r="974"/>
+    <row customHeight="1" ht="18.95" r="975"/>
+    <row customHeight="1" ht="18.95" r="976"/>
+    <row customHeight="1" ht="18.95" r="977"/>
+    <row customHeight="1" ht="18.95" r="978"/>
+    <row customHeight="1" ht="18.95" r="979"/>
+    <row customHeight="1" ht="18.95" r="980"/>
+    <row customHeight="1" ht="18.95" r="981"/>
+    <row customHeight="1" ht="18.95" r="982"/>
+    <row customHeight="1" ht="18.95" r="983"/>
+    <row customHeight="1" ht="18.95" r="984"/>
+    <row customHeight="1" ht="18.95" r="985"/>
+    <row customHeight="1" ht="18.95" r="986"/>
+    <row customHeight="1" ht="18.95" r="987"/>
+    <row customHeight="1" ht="18.95" r="988"/>
+    <row customHeight="1" ht="18.95" r="989"/>
+    <row customHeight="1" ht="18.95" r="990"/>
+    <row customHeight="1" ht="18.95" r="991"/>
+    <row customHeight="1" ht="18.95" r="992"/>
+    <row customHeight="1" ht="18.95" r="993"/>
+    <row customHeight="1" ht="18.95" r="994"/>
+    <row customHeight="1" ht="18.95" r="995"/>
+    <row customHeight="1" ht="18.95" r="996"/>
+    <row customHeight="1" ht="18.95" r="997"/>
+    <row customHeight="1" ht="18.95" r="998"/>
+    <row customHeight="1" ht="18.95" r="999"/>
+    <row customHeight="1" ht="18.95" r="1000"/>
+    <row customHeight="1" ht="18.95" r="1001"/>
+    <row customHeight="1" ht="18.95" r="1002"/>
+    <row customHeight="1" ht="18.95" r="1003"/>
+    <row customHeight="1" ht="18.95" r="1004"/>
+    <row customHeight="1" ht="18.95" r="1005"/>
+    <row customHeight="1" ht="18.95" r="1006"/>
+    <row customHeight="1" ht="18.95" r="1007"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -5896,25 +7073,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C707">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C707" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D705">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D705" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nexial-Project\git\nexial-core\src\test\resources\unittesting\artifact\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18A377-DD03-7043-B160-6AC76095B1EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51195" xWindow="-15" yWindow="435"/>
+    <workbookView xWindow="12800" yWindow="-21160" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
-    <sheet name="Number_Command_Validation" r:id="rId2" sheetId="2"/>
+    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Number_Command_Validation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="545">
   <si>
     <t>target</t>
   </si>
@@ -1090,9 +1091,6 @@
     <t>testcases and showcases of number commands</t>
   </si>
   <si>
-    <t>sentry dev</t>
-  </si>
-  <si>
     <t>activity</t>
   </si>
   <si>
@@ -1643,14 +1641,64 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>number expression</t>
+  </si>
+  <si>
+    <t>automike</t>
+  </si>
+  <si>
+    <t>qty0</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>unitCost0</t>
+  </si>
+  <si>
+    <t>999999999.8</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>[NUMBER(${qty0}) =&gt; multiply(${unitCost0})]</t>
+  </si>
+  <si>
+    <t>formatTC</t>
+  </si>
+  <si>
+    <t>[TEXT(${totalCost}) =&gt; number]</t>
+  </si>
+  <si>
+    <t>formatTC1</t>
+  </si>
+  <si>
+    <t>$(format|number|${formatTC}|#,###.##)</t>
+  </si>
+  <si>
+    <t>${totalCost}</t>
+  </si>
+  <si>
+    <t>${formatTC}</t>
+  </si>
+  <si>
+    <t>${formatTC1}</t>
+  </si>
+  <si>
+    <t>9998999998000.2</t>
+  </si>
+  <si>
+    <t>9,998,999,998,000.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1662,27 +1710,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1690,240 +1738,38 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="58">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1942,314 +1788,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="65">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2349,795 +1889,135 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="12" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="13" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="16" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="21" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="24" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3171,7 +2051,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3196,10 +2076,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3363,21 +2243,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3394,7 +2274,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3448,30 +2328,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
+    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -3501,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -3516,19 +2396,19 @@
         <v>13</v>
       </c>
       <c r="S1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T1" t="s">
+        <v>438</v>
+      </c>
+      <c r="U1" t="s">
         <v>439</v>
-      </c>
-      <c r="U1" t="s">
-        <v>440</v>
       </c>
       <c r="V1" t="s">
         <v>14</v>
       </c>
       <c r="W1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X1" t="s">
         <v>15</v>
@@ -3543,24 +2423,24 @@
         <v>18</v>
       </c>
       <c r="AB1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" t="s">
         <v>393</v>
       </c>
-      <c r="B2" t="s">
-        <v>394</v>
-      </c>
       <c r="C2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -3572,31 +2452,31 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M2" t="s">
+        <v>444</v>
+      </c>
+      <c r="N2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O2" t="s">
         <v>445</v>
       </c>
-      <c r="N2" t="s">
-        <v>506</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>446</v>
-      </c>
-      <c r="P2" t="s">
-        <v>447</v>
       </c>
       <c r="Q2" t="s">
         <v>28</v>
@@ -3605,19 +2485,19 @@
         <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U2" t="s">
         <v>451</v>
       </c>
-      <c r="U2" t="s">
-        <v>452</v>
-      </c>
       <c r="V2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X2" t="s">
         <v>31</v>
@@ -3632,30 +2512,30 @@
         <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
         <v>487</v>
       </c>
-      <c r="B3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" t="s">
-        <v>488</v>
-      </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -3664,7 +2544,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -3679,10 +2559,10 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q3" t="s">
         <v>45</v>
@@ -3691,16 +2571,16 @@
         <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="X3" t="s">
         <v>48</v>
@@ -3712,7 +2592,7 @@
         <v>50</v>
       </c>
       <c r="AA3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB3" t="s">
         <v>65</v>
@@ -3721,15 +2601,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -3738,13 +2618,13 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -3759,7 +2639,7 @@
         <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
@@ -3771,16 +2651,16 @@
         <v>61</v>
       </c>
       <c r="S4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V4" t="s">
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="X4" t="s">
         <v>62</v>
@@ -3795,39 +2675,39 @@
         <v>65</v>
       </c>
       <c r="AB4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AC4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J5" t="s">
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M5" t="s">
         <v>58</v>
@@ -3842,10 +2722,10 @@
         <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V5" t="s">
         <v>47</v>
@@ -3863,27 +2743,27 @@
         <v>77</v>
       </c>
       <c r="AB5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AC5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
         <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J6" t="s">
         <v>69</v>
@@ -3901,19 +2781,19 @@
         <v>84</v>
       </c>
       <c r="R6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X6" t="s">
         <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z6" t="s">
         <v>87</v>
@@ -3922,27 +2802,27 @@
         <v>88</v>
       </c>
       <c r="AB6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AC6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K7" t="s">
         <v>81</v>
@@ -3957,19 +2837,19 @@
         <v>96</v>
       </c>
       <c r="R7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="X7" t="s">
         <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Z7" t="s">
         <v>98</v>
@@ -3978,24 +2858,24 @@
         <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AC7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -4013,10 +2893,10 @@
         <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="X8" t="s">
         <v>107</v>
@@ -4031,18 +2911,18 @@
         <v>109</v>
       </c>
       <c r="AB8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AC8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
@@ -4066,10 +2946,10 @@
         <v>116</v>
       </c>
       <c r="S9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X9" t="s">
         <v>117</v>
@@ -4081,7 +2961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4092,22 +2972,22 @@
         <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M10" t="s">
         <v>104</v>
       </c>
       <c r="P10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q10" t="s">
         <v>125</v>
       </c>
       <c r="S10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X10" t="s">
         <v>126</v>
@@ -4116,10 +2996,10 @@
         <v>127</v>
       </c>
       <c r="AC10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4136,7 +3016,7 @@
         <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P11" t="s">
         <v>115</v>
@@ -4151,10 +3031,10 @@
         <v>135</v>
       </c>
       <c r="AC11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4171,7 +3051,7 @@
         <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P12" t="s">
         <v>124</v>
@@ -4186,10 +3066,10 @@
         <v>143</v>
       </c>
       <c r="AC12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +3086,7 @@
         <v>130</v>
       </c>
       <c r="M13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P13" t="s">
         <v>132</v>
@@ -4221,12 +3101,12 @@
         <v>149</v>
       </c>
       <c r="AC13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E14" t="s">
         <v>137</v>
@@ -4256,10 +3136,10 @@
         <v>155</v>
       </c>
       <c r="AC14" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4270,13 +3150,13 @@
         <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M15" t="s">
         <v>123</v>
       </c>
       <c r="P15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q15" t="s">
         <v>159</v>
@@ -4288,15 +3168,15 @@
         <v>161</v>
       </c>
       <c r="AC15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G16" t="s">
         <v>151</v>
@@ -4308,7 +3188,7 @@
         <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q16" t="s">
         <v>165</v>
@@ -4320,15 +3200,15 @@
         <v>167</v>
       </c>
       <c r="AC16" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G17" t="s">
         <v>157</v>
@@ -4337,38 +3217,38 @@
         <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AC17" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G18" t="s">
         <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X18" t="s">
         <v>171</v>
       </c>
       <c r="AC18" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E19" t="s">
         <v>150</v>
@@ -4377,7 +3257,7 @@
         <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X19" t="s">
         <v>175</v>
@@ -4386,9 +3266,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E20" t="s">
         <v>156</v>
@@ -4406,9 +3286,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E21" t="s">
         <v>162</v>
@@ -4417,7 +3297,7 @@
         <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X21" t="s">
         <v>181</v>
@@ -4426,7 +3306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -4440,12 +3320,12 @@
         <v>164</v>
       </c>
       <c r="X22" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E23" t="s">
         <v>172</v>
@@ -4454,13 +3334,13 @@
         <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -4477,12 +3357,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G25" t="s">
         <v>188</v>
@@ -4494,7 +3374,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4508,7 +3388,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -4522,12 +3402,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G28" t="s">
         <v>197</v>
@@ -4536,12 +3416,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G29" t="s">
         <v>200</v>
@@ -4550,9 +3430,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G30" t="s">
         <v>203</v>
@@ -4561,7 +3441,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>184</v>
       </c>
@@ -4572,7 +3452,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>187</v>
       </c>
@@ -4583,7 +3463,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>190</v>
       </c>
@@ -4594,7 +3474,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>193</v>
       </c>
@@ -4605,7 +3485,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>196</v>
       </c>
@@ -4616,7 +3496,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>199</v>
       </c>
@@ -4627,7 +3507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>202</v>
       </c>
@@ -4638,7 +3518,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>205</v>
       </c>
@@ -4646,18 +3526,18 @@
         <v>220</v>
       </c>
       <c r="X38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>222</v>
       </c>
       <c r="X39" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>224</v>
       </c>
@@ -4665,7 +3545,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>226</v>
       </c>
@@ -4673,7 +3553,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>228</v>
       </c>
@@ -4681,7 +3561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>230</v>
       </c>
@@ -4689,7 +3569,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>232</v>
       </c>
@@ -4697,7 +3577,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
         <v>234</v>
       </c>
@@ -4705,15 +3585,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>236</v>
       </c>
       <c r="X46" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
         <v>238</v>
       </c>
@@ -4721,7 +3601,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
         <v>240</v>
       </c>
@@ -4729,15 +3609,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X49" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
         <v>243</v>
       </c>
@@ -4745,7 +3625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
         <v>245</v>
       </c>
@@ -4753,23 +3633,23 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
         <v>249</v>
       </c>
       <c r="X52" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>251</v>
       </c>
       <c r="X53" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>253</v>
       </c>
@@ -4777,7 +3657,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
         <v>255</v>
       </c>
@@ -4785,15 +3665,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
         <v>257</v>
       </c>
       <c r="X56" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
         <v>259</v>
       </c>
@@ -4801,7 +3681,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
         <v>261</v>
       </c>
@@ -4809,7 +3689,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
         <v>263</v>
       </c>
@@ -4817,7 +3697,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
         <v>265</v>
       </c>
@@ -4825,7 +3705,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
         <v>267</v>
       </c>
@@ -4833,39 +3713,39 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X62" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X63" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>271</v>
       </c>
       <c r="X64" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>273</v>
       </c>
       <c r="X65" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>275</v>
       </c>
@@ -4873,31 +3753,31 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
         <v>277</v>
       </c>
       <c r="X67" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>279</v>
       </c>
       <c r="X68" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X69" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>281</v>
       </c>
@@ -4905,15 +3785,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X71" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>283</v>
       </c>
@@ -4921,7 +3801,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
         <v>285</v>
       </c>
@@ -4929,7 +3809,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
         <v>287</v>
       </c>
@@ -4937,31 +3817,31 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
         <v>289</v>
       </c>
       <c r="X75" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
         <v>291</v>
       </c>
       <c r="X76" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X77" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
         <v>293</v>
       </c>
@@ -4969,7 +3849,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
         <v>295</v>
       </c>
@@ -4977,15 +3857,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>296</v>
       </c>
       <c r="X80" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>298</v>
       </c>
@@ -4993,7 +3873,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>300</v>
       </c>
@@ -5001,7 +3881,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
         <v>302</v>
       </c>
@@ -5009,15 +3889,15 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
         <v>304</v>
       </c>
       <c r="X84" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>306</v>
       </c>
@@ -5025,15 +3905,15 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>308</v>
       </c>
       <c r="X86" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>310</v>
       </c>
@@ -5041,7 +3921,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
         <v>312</v>
       </c>
@@ -5049,7 +3929,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
         <v>314</v>
       </c>
@@ -5057,7 +3937,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G90" t="s">
         <v>316</v>
       </c>
@@ -5065,7 +3945,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
         <v>318</v>
       </c>
@@ -5073,203 +3953,203 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
         <v>320</v>
       </c>
       <c r="X92" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
       <c r="X93" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
       <c r="X94" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
       <c r="X95" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
       <c r="X96" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X97" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X98" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X100" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X101" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X102" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X103" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X104" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X105" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X106" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X108" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X109" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X110" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X111" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X112" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X113" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X114" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X115" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X116" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X117" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X118" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X119" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X120" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X121" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X122" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X123" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X124" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O1009"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="11.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="9.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="32.625" collapsed="true"/>
-    <col min="5" max="10" customWidth="true" style="5" width="18.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="1.625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="7" width="25.875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="6" width="49.875" collapsed="true"/>
-    <col min="16" max="16384" style="9" width="10.875" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="18" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23.1" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>338</v>
       </c>
@@ -5283,10 +4163,10 @@
         <v>340</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>417</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>341</v>
@@ -5299,7 +4179,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row customHeight="1" ht="34.5" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>343</v>
       </c>
@@ -5311,7 +4191,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="12" t="s">
-        <v>344</v>
+        <v>529</v>
       </c>
       <c r="J2" s="7"/>
       <c r="L2" s="29"/>
@@ -5319,7 +4199,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -5329,54 +4209,54 @@
       <c r="I3" s="7"/>
       <c r="J3" s="16"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="O4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.95" r="5" spans="1:15">
-      <c r="A5" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="4" t="s">
@@ -5386,10 +4266,10 @@
         <v>176</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -5401,20 +4281,20 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row customHeight="1" ht="18.95" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -5426,7 +4306,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row customHeight="1" ht="18.95" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
@@ -5436,10 +4316,10 @@
         <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -5451,7 +4331,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row customHeight="1" ht="18.95" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
@@ -5461,10 +4341,10 @@
         <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -5476,7 +4356,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row customHeight="1" ht="18.95" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9"/>
       <c r="C9" s="4" t="s">
@@ -5486,10 +4366,10 @@
         <v>83</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -5501,7 +4381,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row customHeight="1" ht="18.95" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10"/>
       <c r="C10" s="4" t="s">
@@ -5511,10 +4391,10 @@
         <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -5526,20 +4406,20 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row customHeight="1" ht="18.95" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -5551,7 +4431,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row customHeight="1" ht="18.95" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12"/>
       <c r="C12" s="4" t="s">
@@ -5561,7 +4441,7 @@
         <v>105</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -5574,20 +4454,20 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row customHeight="1" ht="18.95" r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -5599,7 +4479,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row customHeight="1" ht="18.95" r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14"/>
       <c r="C14" s="4" t="s">
@@ -5609,10 +4489,10 @@
         <v>176</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5624,7 +4504,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row customHeight="1" ht="18.95" r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
@@ -5634,7 +4514,7 @@
         <v>115</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -5647,20 +4527,20 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row customHeight="1" ht="18.95" r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -5672,7 +4552,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row customHeight="1" ht="18.95" r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17"/>
       <c r="C17" s="4" t="s">
@@ -5682,10 +4562,10 @@
         <v>124</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -5697,20 +4577,20 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row customHeight="1" ht="18.95" r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18"/>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -5722,7 +4602,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row customHeight="1" ht="18.95" r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19"/>
       <c r="C19" s="4" t="s">
@@ -5732,10 +4612,10 @@
         <v>132</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -5747,20 +4627,20 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row customHeight="1" ht="18.95" r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20"/>
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5772,7 +4652,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row customHeight="1" ht="18.95" r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
@@ -5782,10 +4662,10 @@
         <v>140</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -5797,20 +4677,20 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row customHeight="1" ht="18.95" r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22"/>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -5822,20 +4702,20 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row customHeight="1" ht="18.95" r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23"/>
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -5847,20 +4727,20 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row customHeight="1" ht="18.95" r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24"/>
       <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -5872,7 +4752,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row customHeight="1" ht="18.95" r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25"/>
       <c r="C25" s="4" t="s">
@@ -5882,10 +4762,10 @@
         <v>176</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -5897,20 +4777,20 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row customHeight="1" ht="18.95" r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26"/>
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -5922,20 +4802,20 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row customHeight="1" ht="18.95" r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27"/>
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -5947,7 +4827,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row customHeight="1" ht="18.95" r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
@@ -5957,10 +4837,10 @@
         <v>176</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -5972,20 +4852,20 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row customHeight="1" ht="18.95" r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29"/>
       <c r="C29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -5997,20 +4877,20 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row customHeight="1" ht="18.95" r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30"/>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -6022,7 +4902,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row customHeight="1" ht="18.95" r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31"/>
       <c r="C31" s="4" t="s">
@@ -6032,10 +4912,10 @@
         <v>176</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -6044,23 +4924,23 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row customHeight="1" ht="18.95" r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32"/>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -6068,1004 +4948,1110 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row customHeight="1" ht="18.95" r="33" spans="1:1">
-      <c r="A33" s="13"/>
-    </row>
-    <row customHeight="1" ht="18.95" r="34" spans="1:1">
+    <row r="33" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-    </row>
-    <row customHeight="1" ht="18.95" r="35" spans="1:1">
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
-    </row>
-    <row customHeight="1" ht="18.95" r="36" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="37" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="38" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="39" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="40" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="41" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="42" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="43" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="44" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="45" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="47" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="48" spans="1:1"/>
-    <row customHeight="1" ht="18.95" r="49"/>
-    <row customHeight="1" ht="18.95" r="50"/>
-    <row customHeight="1" ht="18.95" r="51"/>
-    <row customHeight="1" ht="18.95" r="52"/>
-    <row customHeight="1" ht="18.95" r="53"/>
-    <row customHeight="1" ht="48.95" r="54"/>
-    <row customHeight="1" ht="48.95" r="55"/>
-    <row customHeight="1" ht="18.95" r="56"/>
-    <row customHeight="1" ht="18.95" r="57"/>
-    <row customHeight="1" ht="18.95" r="58"/>
-    <row customHeight="1" ht="18.95" r="59"/>
-    <row customHeight="1" ht="18.95" r="60"/>
-    <row customHeight="1" ht="18.95" r="61"/>
-    <row customHeight="1" ht="18.95" r="62"/>
-    <row customHeight="1" ht="18.95" r="63"/>
-    <row customHeight="1" ht="18.95" r="64"/>
-    <row customHeight="1" ht="18.95" r="65" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="66" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="67" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="68" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="69" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="70" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="71" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="72" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="73" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="74" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="75" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="76" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="77" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="78" spans="1:15"/>
-    <row customFormat="1" customHeight="1" ht="48" r="79" s="2" spans="1:15">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="6"/>
-    </row>
-    <row customHeight="1" ht="18.95" r="80" spans="1:15"/>
-    <row customHeight="1" ht="18.95" r="81"/>
-    <row customHeight="1" ht="18.95" r="82"/>
-    <row customHeight="1" ht="18.95" r="83"/>
-    <row customHeight="1" ht="18.95" r="84"/>
-    <row customHeight="1" ht="18.95" r="85"/>
-    <row customHeight="1" ht="18.95" r="86"/>
-    <row customHeight="1" ht="18.95" r="87"/>
-    <row customHeight="1" ht="18.95" r="88"/>
-    <row customHeight="1" ht="18.95" r="89"/>
-    <row customHeight="1" ht="18.95" r="90"/>
-    <row customHeight="1" ht="18.95" r="91"/>
-    <row customHeight="1" ht="18.95" r="92"/>
-    <row customHeight="1" ht="18.95" r="93"/>
-    <row customHeight="1" ht="18.95" r="94"/>
-    <row customHeight="1" ht="18.95" r="95"/>
-    <row customHeight="1" ht="18.95" r="96"/>
-    <row customHeight="1" ht="18.95" r="97"/>
-    <row customHeight="1" ht="18.95" r="98"/>
-    <row customHeight="1" ht="18.95" r="99"/>
-    <row customHeight="1" ht="18.95" r="100"/>
-    <row customHeight="1" ht="18.95" r="101"/>
-    <row customHeight="1" ht="18.95" r="102"/>
-    <row customHeight="1" ht="18.95" r="103"/>
-    <row customHeight="1" ht="18.95" r="104"/>
-    <row customHeight="1" ht="18.95" r="105"/>
-    <row customHeight="1" ht="18.95" r="106"/>
-    <row customHeight="1" ht="18.95" r="107"/>
-    <row customHeight="1" ht="18.95" r="108"/>
-    <row customHeight="1" ht="18.95" r="109"/>
-    <row customHeight="1" ht="18.95" r="110"/>
-    <row customHeight="1" ht="18.95" r="111"/>
-    <row customHeight="1" ht="18.95" r="112"/>
-    <row customHeight="1" ht="18.95" r="113"/>
-    <row customHeight="1" ht="18.95" r="114"/>
-    <row customHeight="1" ht="18.95" r="115"/>
-    <row customHeight="1" ht="18.95" r="116"/>
-    <row customHeight="1" ht="18.95" r="117"/>
-    <row customHeight="1" ht="18.95" r="118"/>
-    <row customHeight="1" ht="18.95" r="119"/>
-    <row customHeight="1" ht="18.95" r="120"/>
-    <row customHeight="1" ht="18.95" r="121"/>
-    <row customHeight="1" ht="18.95" r="122"/>
-    <row customHeight="1" ht="18.95" r="123"/>
-    <row customHeight="1" ht="18.95" r="124"/>
-    <row customHeight="1" ht="18.95" r="125"/>
-    <row customHeight="1" ht="18.95" r="126"/>
-    <row customHeight="1" ht="18.95" r="127"/>
-    <row customHeight="1" ht="18.95" r="128"/>
-    <row customHeight="1" ht="18.95" r="129"/>
-    <row customHeight="1" ht="18.95" r="130"/>
-    <row customHeight="1" ht="18.95" r="131"/>
-    <row customHeight="1" ht="18.95" r="132"/>
-    <row customHeight="1" ht="18.95" r="133"/>
-    <row customHeight="1" ht="18.95" r="134"/>
-    <row customHeight="1" ht="18.95" r="135"/>
-    <row customHeight="1" ht="18.95" r="136"/>
-    <row customHeight="1" ht="18.95" r="137"/>
-    <row customHeight="1" ht="18.95" r="138"/>
-    <row customHeight="1" ht="18.95" r="139"/>
-    <row customHeight="1" ht="18.95" r="140"/>
-    <row customHeight="1" ht="18.95" r="141"/>
-    <row customHeight="1" ht="18.95" r="142"/>
-    <row customHeight="1" ht="18.95" r="143"/>
-    <row customHeight="1" ht="18.95" r="144"/>
-    <row customHeight="1" ht="18.95" r="145"/>
-    <row customHeight="1" ht="18.95" r="146"/>
-    <row customHeight="1" ht="18.95" r="147"/>
-    <row customHeight="1" ht="18.95" r="148"/>
-    <row customHeight="1" ht="18.95" r="149"/>
-    <row customHeight="1" ht="18.95" r="150"/>
-    <row customHeight="1" ht="18.95" r="151"/>
-    <row customHeight="1" ht="18.95" r="152"/>
-    <row customHeight="1" ht="18.95" r="153"/>
-    <row customHeight="1" ht="18.95" r="154"/>
-    <row customHeight="1" ht="18.95" r="155"/>
-    <row customHeight="1" ht="18.95" r="156"/>
-    <row customHeight="1" ht="18.95" r="157"/>
-    <row customHeight="1" ht="18.95" r="158"/>
-    <row customHeight="1" ht="18.95" r="159"/>
-    <row customHeight="1" ht="18.95" r="160"/>
-    <row customHeight="1" ht="18.95" r="161"/>
-    <row customHeight="1" ht="18.95" r="162"/>
-    <row customHeight="1" ht="18.95" r="163"/>
-    <row customHeight="1" ht="18.95" r="164"/>
-    <row customHeight="1" ht="18.95" r="165"/>
-    <row customHeight="1" ht="18.95" r="166"/>
-    <row customHeight="1" ht="18.95" r="167"/>
-    <row customHeight="1" ht="18.95" r="168"/>
-    <row customHeight="1" ht="18.95" r="169"/>
-    <row customHeight="1" ht="18.95" r="170"/>
-    <row customHeight="1" ht="18.95" r="171"/>
-    <row customHeight="1" ht="18.95" r="172"/>
-    <row customHeight="1" ht="18.95" r="173"/>
-    <row customHeight="1" ht="18.95" r="174"/>
-    <row customHeight="1" ht="18.95" r="175"/>
-    <row customHeight="1" ht="18.95" r="176"/>
-    <row customHeight="1" ht="18.95" r="177"/>
-    <row customHeight="1" ht="18.95" r="178"/>
-    <row customHeight="1" ht="18.95" r="179"/>
-    <row customHeight="1" ht="18.95" r="180"/>
-    <row customHeight="1" ht="18.95" r="181"/>
-    <row customHeight="1" ht="18.95" r="182"/>
-    <row customHeight="1" ht="18.95" r="183"/>
-    <row customHeight="1" ht="18.95" r="184"/>
-    <row customHeight="1" ht="18.95" r="185"/>
-    <row customHeight="1" ht="18.95" r="186"/>
-    <row customHeight="1" ht="18.95" r="187"/>
-    <row customHeight="1" ht="18.95" r="188"/>
-    <row customHeight="1" ht="18.95" r="189"/>
-    <row customHeight="1" ht="18.95" r="190"/>
-    <row customHeight="1" ht="18.95" r="191"/>
-    <row customHeight="1" ht="18.95" r="192"/>
-    <row customHeight="1" ht="18.95" r="193"/>
-    <row customHeight="1" ht="18.95" r="194"/>
-    <row customHeight="1" ht="18.95" r="195"/>
-    <row customHeight="1" ht="18.95" r="196"/>
-    <row customHeight="1" ht="18.95" r="197"/>
-    <row customHeight="1" ht="18.95" r="198"/>
-    <row customHeight="1" ht="18.95" r="199"/>
-    <row customHeight="1" ht="18.95" r="200"/>
-    <row customHeight="1" ht="18.95" r="201"/>
-    <row customHeight="1" ht="18.95" r="202"/>
-    <row customHeight="1" ht="18.95" r="203"/>
-    <row customHeight="1" ht="18.95" r="204"/>
-    <row customHeight="1" ht="18.95" r="205"/>
-    <row customHeight="1" ht="18.95" r="206"/>
-    <row customHeight="1" ht="18.95" r="207"/>
-    <row customHeight="1" ht="18.95" r="208"/>
-    <row customHeight="1" ht="18.95" r="209"/>
-    <row customHeight="1" ht="18.95" r="210"/>
-    <row customHeight="1" ht="18.95" r="211"/>
-    <row customHeight="1" ht="18.95" r="212"/>
-    <row customHeight="1" ht="18.95" r="213"/>
-    <row customHeight="1" ht="18.95" r="214"/>
-    <row customHeight="1" ht="18.95" r="215"/>
-    <row customHeight="1" ht="18.95" r="216"/>
-    <row customHeight="1" ht="18.95" r="217"/>
-    <row customHeight="1" ht="18.95" r="218"/>
-    <row customHeight="1" ht="18.95" r="219"/>
-    <row customHeight="1" ht="18.95" r="220"/>
-    <row customHeight="1" ht="18.95" r="221"/>
-    <row customHeight="1" ht="18.95" r="222"/>
-    <row customHeight="1" ht="18.95" r="223"/>
-    <row customHeight="1" ht="18.95" r="224"/>
-    <row customHeight="1" ht="18.95" r="225"/>
-    <row customHeight="1" ht="18.95" r="226"/>
-    <row customHeight="1" ht="18.95" r="227"/>
-    <row customHeight="1" ht="18.95" r="228"/>
-    <row customHeight="1" ht="18.95" r="229"/>
-    <row customHeight="1" ht="18.95" r="230"/>
-    <row customHeight="1" ht="18.95" r="231"/>
-    <row customHeight="1" ht="18.95" r="232"/>
-    <row customHeight="1" ht="18.95" r="233"/>
-    <row customHeight="1" ht="18.95" r="234"/>
-    <row customHeight="1" ht="18.95" r="235"/>
-    <row customHeight="1" ht="18.95" r="236"/>
-    <row customHeight="1" ht="18.95" r="237"/>
-    <row customHeight="1" ht="18.95" r="238"/>
-    <row customHeight="1" ht="18.95" r="239"/>
-    <row customHeight="1" ht="18.95" r="240"/>
-    <row customHeight="1" ht="18.95" r="241"/>
-    <row customHeight="1" ht="18.95" r="242"/>
-    <row customHeight="1" ht="18.95" r="243"/>
-    <row customHeight="1" ht="18.95" r="244"/>
-    <row customHeight="1" ht="18.95" r="245"/>
-    <row customHeight="1" ht="18.95" r="246"/>
-    <row customHeight="1" ht="18.95" r="247"/>
-    <row customHeight="1" ht="18.95" r="248"/>
-    <row customHeight="1" ht="18.95" r="249"/>
-    <row customHeight="1" ht="18.95" r="250"/>
-    <row customHeight="1" ht="18.95" r="251"/>
-    <row customHeight="1" ht="18.95" r="252"/>
-    <row customHeight="1" ht="18.95" r="253"/>
-    <row customHeight="1" ht="18.95" r="254"/>
-    <row customHeight="1" ht="18.95" r="255"/>
-    <row customHeight="1" ht="18.95" r="256"/>
-    <row customHeight="1" ht="18.95" r="257"/>
-    <row customHeight="1" ht="18.95" r="258"/>
-    <row customHeight="1" ht="18.95" r="259"/>
-    <row customHeight="1" ht="18.95" r="260"/>
-    <row customHeight="1" ht="18.95" r="261"/>
-    <row customHeight="1" ht="18.95" r="262"/>
-    <row customHeight="1" ht="18.95" r="263"/>
-    <row customHeight="1" ht="18.95" r="264"/>
-    <row customHeight="1" ht="18.95" r="265"/>
-    <row customHeight="1" ht="18.95" r="266"/>
-    <row customHeight="1" ht="18.95" r="267"/>
-    <row customHeight="1" ht="18.95" r="268"/>
-    <row customHeight="1" ht="18.95" r="269"/>
-    <row customHeight="1" ht="18.95" r="270"/>
-    <row customHeight="1" ht="18.95" r="271"/>
-    <row customHeight="1" ht="18.95" r="272"/>
-    <row customHeight="1" ht="18.95" r="273"/>
-    <row customHeight="1" ht="18.95" r="274"/>
-    <row customHeight="1" ht="18.95" r="275"/>
-    <row customHeight="1" ht="18.95" r="276"/>
-    <row customHeight="1" ht="18.95" r="277"/>
-    <row customHeight="1" ht="18.95" r="278"/>
-    <row customHeight="1" ht="18.95" r="279"/>
-    <row customHeight="1" ht="18.95" r="280"/>
-    <row customHeight="1" ht="18.95" r="281"/>
-    <row customHeight="1" ht="18.95" r="282"/>
-    <row customHeight="1" ht="18.95" r="283"/>
-    <row customHeight="1" ht="18.95" r="284"/>
-    <row customHeight="1" ht="18.95" r="285"/>
-    <row customHeight="1" ht="18.95" r="286"/>
-    <row customHeight="1" ht="18.95" r="287"/>
-    <row customHeight="1" ht="18.95" r="288"/>
-    <row customHeight="1" ht="18.95" r="289"/>
-    <row customHeight="1" ht="18.95" r="290"/>
-    <row customHeight="1" ht="18.95" r="291"/>
-    <row customHeight="1" ht="18.95" r="292"/>
-    <row customHeight="1" ht="18.95" r="293"/>
-    <row customHeight="1" ht="18.95" r="294"/>
-    <row customHeight="1" ht="18.95" r="295"/>
-    <row customHeight="1" ht="18.95" r="296"/>
-    <row customHeight="1" ht="18.95" r="297"/>
-    <row customHeight="1" ht="18.95" r="298"/>
-    <row customHeight="1" ht="18.95" r="299"/>
-    <row customHeight="1" ht="18.95" r="300"/>
-    <row customHeight="1" ht="18.95" r="301"/>
-    <row customHeight="1" ht="18.95" r="302"/>
-    <row customHeight="1" ht="18.95" r="303"/>
-    <row customHeight="1" ht="18.95" r="304"/>
-    <row customHeight="1" ht="18.95" r="305"/>
-    <row customHeight="1" ht="18.95" r="306"/>
-    <row customHeight="1" ht="18.95" r="307"/>
-    <row customHeight="1" ht="18.95" r="308"/>
-    <row customHeight="1" ht="18.95" r="309"/>
-    <row customHeight="1" ht="18.95" r="310"/>
-    <row customHeight="1" ht="18.95" r="311"/>
-    <row customHeight="1" ht="18.95" r="312"/>
-    <row customHeight="1" ht="18.95" r="313"/>
-    <row customHeight="1" ht="18.95" r="314"/>
-    <row customHeight="1" ht="18.95" r="315"/>
-    <row customHeight="1" ht="18.95" r="316"/>
-    <row customHeight="1" ht="18.95" r="317"/>
-    <row customHeight="1" ht="18.95" r="318"/>
-    <row customHeight="1" ht="18.95" r="319"/>
-    <row customHeight="1" ht="18.95" r="320"/>
-    <row customHeight="1" ht="18.95" r="321"/>
-    <row customHeight="1" ht="18.95" r="322"/>
-    <row customHeight="1" ht="18.95" r="323"/>
-    <row customHeight="1" ht="18.95" r="324"/>
-    <row customHeight="1" ht="18.95" r="325"/>
-    <row customHeight="1" ht="18.95" r="326"/>
-    <row customHeight="1" ht="18.95" r="327"/>
-    <row customHeight="1" ht="18.95" r="328"/>
-    <row customHeight="1" ht="18.95" r="329"/>
-    <row customHeight="1" ht="18.95" r="330"/>
-    <row customHeight="1" ht="18.95" r="331"/>
-    <row customHeight="1" ht="18.95" r="332"/>
-    <row customHeight="1" ht="18.95" r="333"/>
-    <row customHeight="1" ht="18.95" r="334"/>
-    <row customHeight="1" ht="18.95" r="335"/>
-    <row customHeight="1" ht="18.95" r="336"/>
-    <row customHeight="1" ht="18.95" r="337"/>
-    <row customHeight="1" ht="18.95" r="338"/>
-    <row customHeight="1" ht="18.95" r="339"/>
-    <row customHeight="1" ht="18.95" r="340"/>
-    <row customHeight="1" ht="18.95" r="341"/>
-    <row customHeight="1" ht="18.95" r="342"/>
-    <row customHeight="1" ht="18.95" r="343"/>
-    <row customHeight="1" ht="18.95" r="344"/>
-    <row customHeight="1" ht="18.95" r="345"/>
-    <row customHeight="1" ht="18.95" r="346"/>
-    <row customHeight="1" ht="18.95" r="347"/>
-    <row customHeight="1" ht="18.95" r="348"/>
-    <row customHeight="1" ht="18.95" r="349"/>
-    <row customHeight="1" ht="18.95" r="350"/>
-    <row customHeight="1" ht="18.95" r="351"/>
-    <row customHeight="1" ht="18.95" r="352"/>
-    <row customHeight="1" ht="18.95" r="353"/>
-    <row customHeight="1" ht="18.95" r="354"/>
-    <row customHeight="1" ht="18.95" r="355"/>
-    <row customHeight="1" ht="18.95" r="356"/>
-    <row customHeight="1" ht="18.95" r="357"/>
-    <row customHeight="1" ht="18.95" r="358"/>
-    <row customHeight="1" ht="18.95" r="359"/>
-    <row customHeight="1" ht="18.95" r="360"/>
-    <row customHeight="1" ht="18.95" r="361"/>
-    <row customHeight="1" ht="18.95" r="362"/>
-    <row customHeight="1" ht="18.95" r="363"/>
-    <row customHeight="1" ht="18.95" r="364"/>
-    <row customHeight="1" ht="18.95" r="365"/>
-    <row customHeight="1" ht="18.95" r="366"/>
-    <row customHeight="1" ht="18.95" r="367"/>
-    <row customHeight="1" ht="18.95" r="368"/>
-    <row customHeight="1" ht="18.95" r="369"/>
-    <row customHeight="1" ht="18.95" r="370"/>
-    <row customHeight="1" ht="18.95" r="371"/>
-    <row customHeight="1" ht="18.95" r="372"/>
-    <row customHeight="1" ht="18.95" r="373"/>
-    <row customHeight="1" ht="18.95" r="374"/>
-    <row customHeight="1" ht="18.95" r="375"/>
-    <row customHeight="1" ht="18.95" r="376"/>
-    <row customHeight="1" ht="18.95" r="377"/>
-    <row customHeight="1" ht="18.95" r="378"/>
-    <row customHeight="1" ht="18.95" r="379"/>
-    <row customHeight="1" ht="18.95" r="380"/>
-    <row customHeight="1" ht="18.95" r="381"/>
-    <row customHeight="1" ht="18.95" r="382"/>
-    <row customHeight="1" ht="18.95" r="383"/>
-    <row customHeight="1" ht="18.95" r="384"/>
-    <row customHeight="1" ht="18.95" r="385"/>
-    <row customHeight="1" ht="18.95" r="386"/>
-    <row customHeight="1" ht="18.95" r="387"/>
-    <row customHeight="1" ht="18.95" r="388"/>
-    <row customHeight="1" ht="18.95" r="389"/>
-    <row customHeight="1" ht="18.95" r="390"/>
-    <row customHeight="1" ht="18.95" r="391"/>
-    <row customHeight="1" ht="18.95" r="392"/>
-    <row customHeight="1" ht="18.95" r="393"/>
-    <row customHeight="1" ht="18.95" r="394"/>
-    <row customHeight="1" ht="18.95" r="395"/>
-    <row customHeight="1" ht="18.95" r="396"/>
-    <row customHeight="1" ht="18.95" r="397"/>
-    <row customHeight="1" ht="18.95" r="398"/>
-    <row customHeight="1" ht="18.95" r="399"/>
-    <row customHeight="1" ht="18.95" r="400"/>
-    <row customHeight="1" ht="18.95" r="401"/>
-    <row customHeight="1" ht="18.95" r="402"/>
-    <row customHeight="1" ht="18.95" r="403"/>
-    <row customHeight="1" ht="18.95" r="404"/>
-    <row customHeight="1" ht="18.95" r="405"/>
-    <row customHeight="1" ht="18.95" r="406"/>
-    <row customHeight="1" ht="18.95" r="407"/>
-    <row customHeight="1" ht="18.95" r="408"/>
-    <row customHeight="1" ht="18.95" r="409"/>
-    <row customHeight="1" ht="18.95" r="410"/>
-    <row customHeight="1" ht="18.95" r="411"/>
-    <row customHeight="1" ht="18.95" r="412"/>
-    <row customHeight="1" ht="18.95" r="413"/>
-    <row customHeight="1" ht="18.95" r="414"/>
-    <row customHeight="1" ht="18.95" r="415"/>
-    <row customHeight="1" ht="18.95" r="416"/>
-    <row customHeight="1" ht="18.95" r="417"/>
-    <row customHeight="1" ht="18.95" r="418"/>
-    <row customHeight="1" ht="18.95" r="419"/>
-    <row customHeight="1" ht="18.95" r="420"/>
-    <row customHeight="1" ht="18.95" r="421"/>
-    <row customHeight="1" ht="18.95" r="422"/>
-    <row customHeight="1" ht="18.95" r="423"/>
-    <row customHeight="1" ht="18.95" r="424"/>
-    <row customHeight="1" ht="18.95" r="425"/>
-    <row customHeight="1" ht="18.95" r="426"/>
-    <row customHeight="1" ht="18.95" r="427"/>
-    <row customHeight="1" ht="18.95" r="428"/>
-    <row customHeight="1" ht="18.95" r="429"/>
-    <row customHeight="1" ht="18.95" r="430"/>
-    <row customHeight="1" ht="18.95" r="431"/>
-    <row customHeight="1" ht="18.95" r="432"/>
-    <row customHeight="1" ht="18.95" r="433"/>
-    <row customHeight="1" ht="18.95" r="434"/>
-    <row customHeight="1" ht="18.95" r="435"/>
-    <row customHeight="1" ht="18.95" r="436"/>
-    <row customHeight="1" ht="18.95" r="437"/>
-    <row customHeight="1" ht="18.95" r="438"/>
-    <row customHeight="1" ht="18.95" r="439"/>
-    <row customHeight="1" ht="18.95" r="440"/>
-    <row customHeight="1" ht="18.95" r="441"/>
-    <row customHeight="1" ht="18.95" r="442"/>
-    <row customHeight="1" ht="18.95" r="443"/>
-    <row customHeight="1" ht="18.95" r="444"/>
-    <row customHeight="1" ht="18.95" r="445"/>
-    <row customHeight="1" ht="18.95" r="446"/>
-    <row customHeight="1" ht="18.95" r="447"/>
-    <row customHeight="1" ht="18.95" r="448"/>
-    <row customHeight="1" ht="18.95" r="449"/>
-    <row customHeight="1" ht="18.95" r="450"/>
-    <row customHeight="1" ht="18.95" r="451"/>
-    <row customHeight="1" ht="18.95" r="452"/>
-    <row customHeight="1" ht="18.95" r="453"/>
-    <row customHeight="1" ht="18.95" r="454"/>
-    <row customHeight="1" ht="18.95" r="455"/>
-    <row customHeight="1" ht="18.95" r="456"/>
-    <row customHeight="1" ht="18.95" r="457"/>
-    <row customHeight="1" ht="18.95" r="458"/>
-    <row customHeight="1" ht="18.95" r="459"/>
-    <row customHeight="1" ht="18.95" r="460"/>
-    <row customHeight="1" ht="18.95" r="461"/>
-    <row customHeight="1" ht="18.95" r="462"/>
-    <row customHeight="1" ht="18.95" r="463"/>
-    <row customHeight="1" ht="18.95" r="464"/>
-    <row customHeight="1" ht="18.95" r="465"/>
-    <row customHeight="1" ht="18.95" r="466"/>
-    <row customHeight="1" ht="18.95" r="467"/>
-    <row customHeight="1" ht="18.95" r="468"/>
-    <row customHeight="1" ht="18.95" r="469"/>
-    <row customHeight="1" ht="18.95" r="470"/>
-    <row customHeight="1" ht="18.95" r="471"/>
-    <row customHeight="1" ht="18.95" r="472"/>
-    <row customHeight="1" ht="18.95" r="473"/>
-    <row customHeight="1" ht="18.95" r="474"/>
-    <row customHeight="1" ht="18.95" r="475"/>
-    <row customHeight="1" ht="18.95" r="476"/>
-    <row customHeight="1" ht="18.95" r="477"/>
-    <row customHeight="1" ht="18.95" r="478"/>
-    <row customHeight="1" ht="18.95" r="479"/>
-    <row customHeight="1" ht="18.95" r="480"/>
-    <row customHeight="1" ht="18.95" r="481"/>
-    <row customHeight="1" ht="18.95" r="482"/>
-    <row customHeight="1" ht="18.95" r="483"/>
-    <row customHeight="1" ht="18.95" r="484"/>
-    <row customHeight="1" ht="18.95" r="485"/>
-    <row customHeight="1" ht="18.95" r="486"/>
-    <row customHeight="1" ht="18.95" r="487"/>
-    <row customHeight="1" ht="18.95" r="488"/>
-    <row customHeight="1" ht="18.95" r="489"/>
-    <row customHeight="1" ht="18.95" r="490"/>
-    <row customHeight="1" ht="18.95" r="491"/>
-    <row customHeight="1" ht="18.95" r="492"/>
-    <row customHeight="1" ht="18.95" r="493"/>
-    <row customHeight="1" ht="18.95" r="494"/>
-    <row customHeight="1" ht="18.95" r="495"/>
-    <row customHeight="1" ht="18.95" r="496"/>
-    <row customHeight="1" ht="18.95" r="497"/>
-    <row customHeight="1" ht="18.95" r="498"/>
-    <row customHeight="1" ht="18.95" r="499"/>
-    <row customHeight="1" ht="18.95" r="500"/>
-    <row customHeight="1" ht="18.95" r="501"/>
-    <row customHeight="1" ht="18.95" r="502"/>
-    <row customHeight="1" ht="18.95" r="503"/>
-    <row customHeight="1" ht="18.95" r="504"/>
-    <row customHeight="1" ht="18.95" r="505"/>
-    <row customHeight="1" ht="18.95" r="506"/>
-    <row customHeight="1" ht="18.95" r="507"/>
-    <row customHeight="1" ht="18.95" r="508"/>
-    <row customHeight="1" ht="18.95" r="509"/>
-    <row customHeight="1" ht="18.95" r="510"/>
-    <row customHeight="1" ht="18.95" r="511"/>
-    <row customHeight="1" ht="18.95" r="512"/>
-    <row customHeight="1" ht="18.95" r="513"/>
-    <row customHeight="1" ht="18.95" r="514"/>
-    <row customHeight="1" ht="18.95" r="515"/>
-    <row customHeight="1" ht="18.95" r="516"/>
-    <row customHeight="1" ht="18.95" r="517"/>
-    <row customHeight="1" ht="18.95" r="518"/>
-    <row customHeight="1" ht="18.95" r="519"/>
-    <row customHeight="1" ht="18.95" r="520"/>
-    <row customHeight="1" ht="18.95" r="521"/>
-    <row customHeight="1" ht="18.95" r="522"/>
-    <row customHeight="1" ht="18.95" r="523"/>
-    <row customHeight="1" ht="18.95" r="524"/>
-    <row customHeight="1" ht="18.95" r="525"/>
-    <row customHeight="1" ht="18.95" r="526"/>
-    <row customHeight="1" ht="18.95" r="527"/>
-    <row customHeight="1" ht="18.95" r="528"/>
-    <row customHeight="1" ht="18.95" r="529"/>
-    <row customHeight="1" ht="18.95" r="530"/>
-    <row customHeight="1" ht="18.95" r="531"/>
-    <row customHeight="1" ht="18.95" r="532"/>
-    <row customHeight="1" ht="18.95" r="533"/>
-    <row customHeight="1" ht="18.95" r="534"/>
-    <row customHeight="1" ht="18.95" r="535"/>
-    <row customHeight="1" ht="18.95" r="536"/>
-    <row customHeight="1" ht="18.95" r="537"/>
-    <row customHeight="1" ht="18.95" r="538"/>
-    <row customHeight="1" ht="18.95" r="539"/>
-    <row customHeight="1" ht="18.95" r="540"/>
-    <row customHeight="1" ht="18.95" r="541"/>
-    <row customHeight="1" ht="18.95" r="542"/>
-    <row customHeight="1" ht="18.95" r="543"/>
-    <row customHeight="1" ht="18.95" r="544"/>
-    <row customHeight="1" ht="18.95" r="545"/>
-    <row customHeight="1" ht="18.95" r="546"/>
-    <row customHeight="1" ht="18.95" r="547"/>
-    <row customHeight="1" ht="18.95" r="548"/>
-    <row customHeight="1" ht="18.95" r="549"/>
-    <row customHeight="1" ht="18.95" r="550"/>
-    <row customHeight="1" ht="18.95" r="551"/>
-    <row customHeight="1" ht="18.95" r="552"/>
-    <row customHeight="1" ht="18.95" r="553"/>
-    <row customHeight="1" ht="18.95" r="554"/>
-    <row customHeight="1" ht="18.95" r="555"/>
-    <row customHeight="1" ht="18.95" r="556"/>
-    <row customHeight="1" ht="18.95" r="557"/>
-    <row customHeight="1" ht="18.95" r="558"/>
-    <row customHeight="1" ht="18.95" r="559"/>
-    <row customHeight="1" ht="18.95" r="560"/>
-    <row customHeight="1" ht="18.95" r="561"/>
-    <row customHeight="1" ht="18.95" r="562"/>
-    <row customHeight="1" ht="18.95" r="563"/>
-    <row customHeight="1" ht="18.95" r="564"/>
-    <row customHeight="1" ht="18.95" r="565"/>
-    <row customHeight="1" ht="18.95" r="566"/>
-    <row customHeight="1" ht="18.95" r="567"/>
-    <row customHeight="1" ht="18.95" r="568"/>
-    <row customHeight="1" ht="18.95" r="569"/>
-    <row customHeight="1" ht="18.95" r="570"/>
-    <row customHeight="1" ht="18.95" r="571"/>
-    <row customHeight="1" ht="18.95" r="572"/>
-    <row customHeight="1" ht="18.95" r="573"/>
-    <row customHeight="1" ht="18.95" r="574"/>
-    <row customHeight="1" ht="18.95" r="575"/>
-    <row customHeight="1" ht="18.95" r="576"/>
-    <row customHeight="1" ht="18.95" r="577"/>
-    <row customHeight="1" ht="18.95" r="578"/>
-    <row customHeight="1" ht="18.95" r="579"/>
-    <row customHeight="1" ht="18.95" r="580"/>
-    <row customHeight="1" ht="18.95" r="581"/>
-    <row customHeight="1" ht="18.95" r="582"/>
-    <row customHeight="1" ht="18.95" r="583"/>
-    <row customHeight="1" ht="18.95" r="584"/>
-    <row customHeight="1" ht="18.95" r="585"/>
-    <row customHeight="1" ht="18.95" r="586"/>
-    <row customHeight="1" ht="18.95" r="587"/>
-    <row customHeight="1" ht="18.95" r="588"/>
-    <row customHeight="1" ht="18.95" r="589"/>
-    <row customHeight="1" ht="18.95" r="590"/>
-    <row customHeight="1" ht="18.95" r="591"/>
-    <row customHeight="1" ht="18.95" r="592"/>
-    <row customHeight="1" ht="18.95" r="593"/>
-    <row customHeight="1" ht="18.95" r="594"/>
-    <row customHeight="1" ht="18.95" r="595"/>
-    <row customHeight="1" ht="18.95" r="596"/>
-    <row customHeight="1" ht="18.95" r="597"/>
-    <row customHeight="1" ht="18.95" r="598"/>
-    <row customHeight="1" ht="18.95" r="599"/>
-    <row customHeight="1" ht="18.95" r="600"/>
-    <row customHeight="1" ht="18.95" r="601"/>
-    <row customHeight="1" ht="18.95" r="602"/>
-    <row customHeight="1" ht="18.95" r="603"/>
-    <row customHeight="1" ht="18.95" r="604"/>
-    <row customHeight="1" ht="18.95" r="605"/>
-    <row customHeight="1" ht="18.95" r="606"/>
-    <row customHeight="1" ht="18.95" r="607"/>
-    <row customHeight="1" ht="18.95" r="608"/>
-    <row customHeight="1" ht="18.95" r="609"/>
-    <row customHeight="1" ht="18.95" r="610"/>
-    <row customHeight="1" ht="18.95" r="611"/>
-    <row customHeight="1" ht="18.95" r="612"/>
-    <row customHeight="1" ht="18.95" r="613"/>
-    <row customHeight="1" ht="18.95" r="614"/>
-    <row customHeight="1" ht="18.95" r="615"/>
-    <row customHeight="1" ht="18.95" r="616"/>
-    <row customHeight="1" ht="18.95" r="617"/>
-    <row customHeight="1" ht="18.95" r="618"/>
-    <row customHeight="1" ht="18.95" r="619"/>
-    <row customHeight="1" ht="18.95" r="620"/>
-    <row customHeight="1" ht="18.95" r="621"/>
-    <row customHeight="1" ht="18.95" r="622"/>
-    <row customHeight="1" ht="18.95" r="623"/>
-    <row customHeight="1" ht="18.95" r="624"/>
-    <row customHeight="1" ht="18.95" r="625"/>
-    <row customHeight="1" ht="18.95" r="626"/>
-    <row customHeight="1" ht="18.95" r="627"/>
-    <row customHeight="1" ht="18.95" r="628"/>
-    <row customHeight="1" ht="18.95" r="629"/>
-    <row customHeight="1" ht="18.95" r="630"/>
-    <row customHeight="1" ht="18.95" r="631"/>
-    <row customHeight="1" ht="18.95" r="632"/>
-    <row customHeight="1" ht="18.95" r="633"/>
-    <row customHeight="1" ht="18.95" r="634"/>
-    <row customHeight="1" ht="18.95" r="635"/>
-    <row customHeight="1" ht="18.95" r="636"/>
-    <row customHeight="1" ht="18.95" r="637"/>
-    <row customHeight="1" ht="18.95" r="638"/>
-    <row customHeight="1" ht="18.95" r="639"/>
-    <row customHeight="1" ht="18.95" r="640"/>
-    <row customHeight="1" ht="18.95" r="641"/>
-    <row customHeight="1" ht="18.95" r="642"/>
-    <row customHeight="1" ht="18.95" r="643"/>
-    <row customHeight="1" ht="18.95" r="644"/>
-    <row customHeight="1" ht="18.95" r="645"/>
-    <row customHeight="1" ht="18.95" r="646"/>
-    <row customHeight="1" ht="18.95" r="647"/>
-    <row customHeight="1" ht="18.95" r="648"/>
-    <row customHeight="1" ht="18.95" r="649"/>
-    <row customHeight="1" ht="18.95" r="650"/>
-    <row customHeight="1" ht="18.95" r="651"/>
-    <row customHeight="1" ht="18.95" r="652"/>
-    <row customHeight="1" ht="18.95" r="653"/>
-    <row customHeight="1" ht="18.95" r="654"/>
-    <row customHeight="1" ht="18.95" r="655"/>
-    <row customHeight="1" ht="18.95" r="656"/>
-    <row customHeight="1" ht="18.95" r="657"/>
-    <row customHeight="1" ht="18.95" r="658"/>
-    <row customHeight="1" ht="18.95" r="659"/>
-    <row customHeight="1" ht="18.95" r="660"/>
-    <row customHeight="1" ht="18.95" r="661"/>
-    <row customHeight="1" ht="18.95" r="662"/>
-    <row customHeight="1" ht="18.95" r="663"/>
-    <row customHeight="1" ht="18.95" r="664"/>
-    <row customHeight="1" ht="18.95" r="665"/>
-    <row customHeight="1" ht="18.95" r="666"/>
-    <row customHeight="1" ht="18.95" r="667"/>
-    <row customHeight="1" ht="18.95" r="668"/>
-    <row customHeight="1" ht="18.95" r="669"/>
-    <row customHeight="1" ht="18.95" r="670"/>
-    <row customHeight="1" ht="18.95" r="671"/>
-    <row customHeight="1" ht="18.95" r="672"/>
-    <row customHeight="1" ht="18.95" r="673"/>
-    <row customHeight="1" ht="18.95" r="674"/>
-    <row customHeight="1" ht="18.95" r="675"/>
-    <row customHeight="1" ht="18.95" r="676"/>
-    <row customHeight="1" ht="18.95" r="677"/>
-    <row customHeight="1" ht="18.95" r="678"/>
-    <row customHeight="1" ht="18.95" r="679"/>
-    <row customHeight="1" ht="18.95" r="680"/>
-    <row customHeight="1" ht="18.95" r="681"/>
-    <row customHeight="1" ht="18.95" r="682"/>
-    <row customHeight="1" ht="18.95" r="683"/>
-    <row customHeight="1" ht="18.95" r="684"/>
-    <row customHeight="1" ht="18.95" r="685"/>
-    <row customHeight="1" ht="18.95" r="686"/>
-    <row customHeight="1" ht="18.95" r="687"/>
-    <row customHeight="1" ht="18.95" r="688"/>
-    <row customHeight="1" ht="18.95" r="689"/>
-    <row customHeight="1" ht="18.95" r="690"/>
-    <row customHeight="1" ht="18.95" r="691"/>
-    <row customHeight="1" ht="18.95" r="692"/>
-    <row customHeight="1" ht="18.95" r="693"/>
-    <row customHeight="1" ht="18.95" r="694"/>
-    <row customHeight="1" ht="18.95" r="695"/>
-    <row customHeight="1" ht="18.95" r="696"/>
-    <row customHeight="1" ht="18.95" r="697"/>
-    <row customHeight="1" ht="18.95" r="698"/>
-    <row customHeight="1" ht="18.95" r="699"/>
-    <row customHeight="1" ht="18.95" r="700"/>
-    <row customHeight="1" ht="18.95" r="701"/>
-    <row customHeight="1" ht="18.95" r="702"/>
-    <row customHeight="1" ht="18.95" r="703"/>
-    <row customHeight="1" ht="18.95" r="704"/>
-    <row customHeight="1" ht="18.95" r="705"/>
-    <row customHeight="1" ht="18.95" r="706"/>
-    <row customHeight="1" ht="18.95" r="707"/>
-    <row customHeight="1" ht="18.95" r="708"/>
-    <row customHeight="1" ht="18.95" r="709"/>
-    <row customHeight="1" ht="18.95" r="710"/>
-    <row customHeight="1" ht="18.95" r="711"/>
-    <row customHeight="1" ht="18.95" r="712"/>
-    <row customHeight="1" ht="18.95" r="713"/>
-    <row customHeight="1" ht="18.95" r="714"/>
-    <row customHeight="1" ht="18.95" r="715"/>
-    <row customHeight="1" ht="18.95" r="716"/>
-    <row customHeight="1" ht="18.95" r="717"/>
-    <row customHeight="1" ht="18.95" r="718"/>
-    <row customHeight="1" ht="18.95" r="719"/>
-    <row customHeight="1" ht="18.95" r="720"/>
-    <row customHeight="1" ht="18.95" r="721"/>
-    <row customHeight="1" ht="18.95" r="722"/>
-    <row customHeight="1" ht="18.95" r="723"/>
-    <row customHeight="1" ht="18.95" r="724"/>
-    <row customHeight="1" ht="18.95" r="725"/>
-    <row customHeight="1" ht="18.95" r="726"/>
-    <row customHeight="1" ht="18.95" r="727"/>
-    <row customHeight="1" ht="18.95" r="728"/>
-    <row customHeight="1" ht="18.95" r="729"/>
-    <row customHeight="1" ht="18.95" r="730"/>
-    <row customHeight="1" ht="18.95" r="731"/>
-    <row customHeight="1" ht="18.95" r="732"/>
-    <row customHeight="1" ht="18.95" r="733"/>
-    <row customHeight="1" ht="18.95" r="734"/>
-    <row customHeight="1" ht="18.95" r="735"/>
-    <row customHeight="1" ht="18.95" r="736"/>
-    <row customHeight="1" ht="18.95" r="737"/>
-    <row customHeight="1" ht="18.95" r="738"/>
-    <row customHeight="1" ht="18.95" r="739"/>
-    <row customHeight="1" ht="18.95" r="740"/>
-    <row customHeight="1" ht="18.95" r="741"/>
-    <row customHeight="1" ht="18.95" r="742"/>
-    <row customHeight="1" ht="18.95" r="743"/>
-    <row customHeight="1" ht="18.95" r="744"/>
-    <row customHeight="1" ht="18.95" r="745"/>
-    <row customHeight="1" ht="18.95" r="746"/>
-    <row customHeight="1" ht="18.95" r="747"/>
-    <row customHeight="1" ht="18.95" r="748"/>
-    <row customHeight="1" ht="18.95" r="749"/>
-    <row customHeight="1" ht="18.95" r="750"/>
-    <row customHeight="1" ht="18.95" r="751"/>
-    <row customHeight="1" ht="18.95" r="752"/>
-    <row customHeight="1" ht="18.95" r="753"/>
-    <row customHeight="1" ht="18.95" r="754"/>
-    <row customHeight="1" ht="18.95" r="755"/>
-    <row customHeight="1" ht="18.95" r="756"/>
-    <row customHeight="1" ht="18.95" r="757"/>
-    <row customHeight="1" ht="18.95" r="758"/>
-    <row customHeight="1" ht="18.95" r="759"/>
-    <row customHeight="1" ht="18.95" r="760"/>
-    <row customHeight="1" ht="18.95" r="761"/>
-    <row customHeight="1" ht="18.95" r="762"/>
-    <row customHeight="1" ht="18.95" r="763"/>
-    <row customHeight="1" ht="18.95" r="764"/>
-    <row customHeight="1" ht="18.95" r="765"/>
-    <row customHeight="1" ht="18.95" r="766"/>
-    <row customHeight="1" ht="18.95" r="767"/>
-    <row customHeight="1" ht="18.95" r="768"/>
-    <row customHeight="1" ht="18.95" r="769"/>
-    <row customHeight="1" ht="18.95" r="770"/>
-    <row customHeight="1" ht="18.95" r="771"/>
-    <row customHeight="1" ht="18.95" r="772"/>
-    <row customHeight="1" ht="18.95" r="773"/>
-    <row customHeight="1" ht="18.95" r="774"/>
-    <row customHeight="1" ht="18.95" r="775"/>
-    <row customHeight="1" ht="18.95" r="776"/>
-    <row customHeight="1" ht="18.95" r="777"/>
-    <row customHeight="1" ht="18.95" r="778"/>
-    <row customHeight="1" ht="18.95" r="779"/>
-    <row customHeight="1" ht="18.95" r="780"/>
-    <row customHeight="1" ht="18.95" r="781"/>
-    <row customHeight="1" ht="18.95" r="782"/>
-    <row customHeight="1" ht="18.95" r="783"/>
-    <row customHeight="1" ht="18.95" r="784"/>
-    <row customHeight="1" ht="18.95" r="785"/>
-    <row customHeight="1" ht="18.95" r="786"/>
-    <row customHeight="1" ht="18.95" r="787"/>
-    <row customHeight="1" ht="18.95" r="788"/>
-    <row customHeight="1" ht="18.95" r="789"/>
-    <row customHeight="1" ht="18.95" r="790"/>
-    <row customHeight="1" ht="18.95" r="791"/>
-    <row customHeight="1" ht="18.95" r="792"/>
-    <row customHeight="1" ht="18.95" r="793"/>
-    <row customHeight="1" ht="18.95" r="794"/>
-    <row customHeight="1" ht="18.95" r="795"/>
-    <row customHeight="1" ht="18.95" r="796"/>
-    <row customHeight="1" ht="18.95" r="797"/>
-    <row customHeight="1" ht="18.95" r="798"/>
-    <row customHeight="1" ht="18.95" r="799"/>
-    <row customHeight="1" ht="18.95" r="800"/>
-    <row customHeight="1" ht="18.95" r="801"/>
-    <row customHeight="1" ht="18.95" r="802"/>
-    <row customHeight="1" ht="18.95" r="803"/>
-    <row customHeight="1" ht="18.95" r="804"/>
-    <row customHeight="1" ht="18.95" r="805"/>
-    <row customHeight="1" ht="18.95" r="806"/>
-    <row customHeight="1" ht="18.95" r="807"/>
-    <row customHeight="1" ht="18.95" r="808"/>
-    <row customHeight="1" ht="18.95" r="809"/>
-    <row customHeight="1" ht="18.95" r="810"/>
-    <row customHeight="1" ht="18.95" r="811"/>
-    <row customHeight="1" ht="18.95" r="812"/>
-    <row customHeight="1" ht="18.95" r="813"/>
-    <row customHeight="1" ht="18.95" r="814"/>
-    <row customHeight="1" ht="18.95" r="815"/>
-    <row customHeight="1" ht="18.95" r="816"/>
-    <row customHeight="1" ht="18.95" r="817"/>
-    <row customHeight="1" ht="18.95" r="818"/>
-    <row customHeight="1" ht="18.95" r="819"/>
-    <row customHeight="1" ht="18.95" r="820"/>
-    <row customHeight="1" ht="18.95" r="821"/>
-    <row customHeight="1" ht="18.95" r="822"/>
-    <row customHeight="1" ht="18.95" r="823"/>
-    <row customHeight="1" ht="18.95" r="824"/>
-    <row customHeight="1" ht="18.95" r="825"/>
-    <row customHeight="1" ht="18.95" r="826"/>
-    <row customHeight="1" ht="18.95" r="827"/>
-    <row customHeight="1" ht="18.95" r="828"/>
-    <row customHeight="1" ht="18.95" r="829"/>
-    <row customHeight="1" ht="18.95" r="830"/>
-    <row customHeight="1" ht="18.95" r="831"/>
-    <row customHeight="1" ht="18.95" r="832"/>
-    <row customHeight="1" ht="18.95" r="833"/>
-    <row customHeight="1" ht="18.95" r="834"/>
-    <row customHeight="1" ht="18.95" r="835"/>
-    <row customHeight="1" ht="18.95" r="836"/>
-    <row customHeight="1" ht="18.95" r="837"/>
-    <row customHeight="1" ht="18.95" r="838"/>
-    <row customHeight="1" ht="18.95" r="839"/>
-    <row customHeight="1" ht="18.95" r="840"/>
-    <row customHeight="1" ht="18.95" r="841"/>
-    <row customHeight="1" ht="18.95" r="842"/>
-    <row customHeight="1" ht="18.95" r="843"/>
-    <row customHeight="1" ht="18.95" r="844"/>
-    <row customHeight="1" ht="18.95" r="845"/>
-    <row customHeight="1" ht="18.95" r="846"/>
-    <row customHeight="1" ht="18.95" r="847"/>
-    <row customHeight="1" ht="18.95" r="848"/>
-    <row customHeight="1" ht="18.95" r="849"/>
-    <row customHeight="1" ht="18.95" r="850"/>
-    <row customHeight="1" ht="18.95" r="851"/>
-    <row customHeight="1" ht="18.95" r="852"/>
-    <row customHeight="1" ht="18.95" r="853"/>
-    <row customHeight="1" ht="18.95" r="854"/>
-    <row customHeight="1" ht="18.95" r="855"/>
-    <row customHeight="1" ht="18.95" r="856"/>
-    <row customHeight="1" ht="18.95" r="857"/>
-    <row customHeight="1" ht="18.95" r="858"/>
-    <row customHeight="1" ht="18.95" r="859"/>
-    <row customHeight="1" ht="18.95" r="860"/>
-    <row customHeight="1" ht="18.95" r="861"/>
-    <row customHeight="1" ht="18.95" r="862"/>
-    <row customHeight="1" ht="18.95" r="863"/>
-    <row customHeight="1" ht="18.95" r="864"/>
-    <row customHeight="1" ht="18.95" r="865"/>
-    <row customHeight="1" ht="18.95" r="866"/>
-    <row customHeight="1" ht="18.95" r="867"/>
-    <row customHeight="1" ht="18.95" r="868"/>
-    <row customHeight="1" ht="18.95" r="869"/>
-    <row customHeight="1" ht="18.95" r="870"/>
-    <row customHeight="1" ht="18.95" r="871"/>
-    <row customHeight="1" ht="18.95" r="872"/>
-    <row customHeight="1" ht="18.95" r="873"/>
-    <row customHeight="1" ht="18.95" r="874"/>
-    <row customHeight="1" ht="18.95" r="875"/>
-    <row customHeight="1" ht="18.95" r="876"/>
-    <row customHeight="1" ht="18.95" r="877"/>
-    <row customHeight="1" ht="18.95" r="878"/>
-    <row customHeight="1" ht="18.95" r="879"/>
-    <row customHeight="1" ht="18.95" r="880"/>
-    <row customHeight="1" ht="18.95" r="881"/>
-    <row customHeight="1" ht="18.95" r="882"/>
-    <row customHeight="1" ht="18.95" r="883"/>
-    <row customHeight="1" ht="18.95" r="884"/>
-    <row customHeight="1" ht="18.95" r="885"/>
-    <row customHeight="1" ht="18.95" r="886"/>
-    <row customHeight="1" ht="18.95" r="887"/>
-    <row customHeight="1" ht="18.95" r="888"/>
-    <row customHeight="1" ht="18.95" r="889"/>
-    <row customHeight="1" ht="18.95" r="890"/>
-    <row customHeight="1" ht="18.95" r="891"/>
-    <row customHeight="1" ht="18.95" r="892"/>
-    <row customHeight="1" ht="18.95" r="893"/>
-    <row customHeight="1" ht="18.95" r="894"/>
-    <row customHeight="1" ht="18.95" r="895"/>
-    <row customHeight="1" ht="18.95" r="896"/>
-    <row customHeight="1" ht="18.95" r="897"/>
-    <row customHeight="1" ht="18.95" r="898"/>
-    <row customHeight="1" ht="18.95" r="899"/>
-    <row customHeight="1" ht="18.95" r="900"/>
-    <row customHeight="1" ht="18.95" r="901"/>
-    <row customHeight="1" ht="18.95" r="902"/>
-    <row customHeight="1" ht="18.95" r="903"/>
-    <row customHeight="1" ht="18.95" r="904"/>
-    <row customHeight="1" ht="18.95" r="905"/>
-    <row customHeight="1" ht="18.95" r="906"/>
-    <row customHeight="1" ht="18.95" r="907"/>
-    <row customHeight="1" ht="18.95" r="908"/>
-    <row customHeight="1" ht="18.95" r="909"/>
-    <row customHeight="1" ht="18.95" r="910"/>
-    <row customHeight="1" ht="18.95" r="911"/>
-    <row customHeight="1" ht="18.95" r="912"/>
-    <row customHeight="1" ht="18.95" r="913"/>
-    <row customHeight="1" ht="18.95" r="914"/>
-    <row customHeight="1" ht="18.95" r="915"/>
-    <row customHeight="1" ht="18.95" r="916"/>
-    <row customHeight="1" ht="18.95" r="917"/>
-    <row customHeight="1" ht="18.95" r="918"/>
-    <row customHeight="1" ht="18.95" r="919"/>
-    <row customHeight="1" ht="18.95" r="920"/>
-    <row customHeight="1" ht="18.95" r="921"/>
-    <row customHeight="1" ht="18.95" r="922"/>
-    <row customHeight="1" ht="18.95" r="923"/>
-    <row customHeight="1" ht="18.95" r="924"/>
-    <row customHeight="1" ht="18.95" r="925"/>
-    <row customHeight="1" ht="18.95" r="926"/>
-    <row customHeight="1" ht="18.95" r="927"/>
-    <row customHeight="1" ht="18.95" r="928"/>
-    <row customHeight="1" ht="18.95" r="929"/>
-    <row customHeight="1" ht="18.95" r="930"/>
-    <row customHeight="1" ht="18.95" r="931"/>
-    <row customHeight="1" ht="18.95" r="932"/>
-    <row customHeight="1" ht="18.95" r="933"/>
-    <row customHeight="1" ht="18.95" r="934"/>
-    <row customHeight="1" ht="18.95" r="935"/>
-    <row customHeight="1" ht="18.95" r="936"/>
-    <row customHeight="1" ht="18.95" r="937"/>
-    <row customHeight="1" ht="18.95" r="938"/>
-    <row customHeight="1" ht="18.95" r="939"/>
-    <row customHeight="1" ht="18.95" r="940"/>
-    <row customHeight="1" ht="18.95" r="941"/>
-    <row customHeight="1" ht="18.95" r="942"/>
-    <row customHeight="1" ht="18.95" r="943"/>
-    <row customHeight="1" ht="18.95" r="944"/>
-    <row customHeight="1" ht="18.95" r="945"/>
-    <row customHeight="1" ht="18.95" r="946"/>
-    <row customHeight="1" ht="18.95" r="947"/>
-    <row customHeight="1" ht="18.95" r="948"/>
-    <row customHeight="1" ht="18.95" r="949"/>
-    <row customHeight="1" ht="18.95" r="950"/>
-    <row customHeight="1" ht="18.95" r="951"/>
-    <row customHeight="1" ht="18.95" r="952"/>
-    <row customHeight="1" ht="18.95" r="953"/>
-    <row customHeight="1" ht="18.95" r="954"/>
-    <row customHeight="1" ht="18.95" r="955"/>
-    <row customHeight="1" ht="18.95" r="956"/>
-    <row customHeight="1" ht="18.95" r="957"/>
-    <row customHeight="1" ht="18.95" r="958"/>
-    <row customHeight="1" ht="18.95" r="959"/>
-    <row customHeight="1" ht="18.95" r="960"/>
-    <row customHeight="1" ht="18.95" r="961"/>
-    <row customHeight="1" ht="18.95" r="962"/>
-    <row customHeight="1" ht="18.95" r="963"/>
-    <row customHeight="1" ht="18.95" r="964"/>
-    <row customHeight="1" ht="18.95" r="965"/>
-    <row customHeight="1" ht="18.95" r="966"/>
-    <row customHeight="1" ht="18.95" r="967"/>
-    <row customHeight="1" ht="18.95" r="968"/>
-    <row customHeight="1" ht="18.95" r="969"/>
-    <row customHeight="1" ht="18.95" r="970"/>
-    <row customHeight="1" ht="18.95" r="971"/>
-    <row customHeight="1" ht="18.95" r="972"/>
-    <row customHeight="1" ht="18.95" r="973"/>
-    <row customHeight="1" ht="18.95" r="974"/>
-    <row customHeight="1" ht="18.95" r="975"/>
-    <row customHeight="1" ht="18.95" r="976"/>
-    <row customHeight="1" ht="18.95" r="977"/>
-    <row customHeight="1" ht="18.95" r="978"/>
-    <row customHeight="1" ht="18.95" r="979"/>
-    <row customHeight="1" ht="18.95" r="980"/>
-    <row customHeight="1" ht="18.95" r="981"/>
-    <row customHeight="1" ht="18.95" r="982"/>
-    <row customHeight="1" ht="18.95" r="983"/>
-    <row customHeight="1" ht="18.95" r="984"/>
-    <row customHeight="1" ht="18.95" r="985"/>
-    <row customHeight="1" ht="18.95" r="986"/>
-    <row customHeight="1" ht="18.95" r="987"/>
-    <row customHeight="1" ht="18.95" r="988"/>
-    <row customHeight="1" ht="18.95" r="989"/>
-    <row customHeight="1" ht="18.95" r="990"/>
-    <row customHeight="1" ht="18.95" r="991"/>
-    <row customHeight="1" ht="18.95" r="992"/>
-    <row customHeight="1" ht="18.95" r="993"/>
-    <row customHeight="1" ht="18.95" r="994"/>
-    <row customHeight="1" ht="18.95" r="995"/>
-    <row customHeight="1" ht="18.95" r="996"/>
-    <row customHeight="1" ht="18.95" r="997"/>
-    <row customHeight="1" ht="18.95" r="998"/>
-    <row customHeight="1" ht="18.95" r="999"/>
-    <row customHeight="1" ht="18.95" r="1000"/>
-    <row customHeight="1" ht="18.95" r="1001"/>
-    <row customHeight="1" ht="18.95" r="1002"/>
-    <row customHeight="1" ht="18.95" r="1003"/>
-    <row customHeight="1" ht="18.95" r="1004"/>
-    <row customHeight="1" ht="18.95" r="1005"/>
-    <row customHeight="1" ht="18.95" r="1006"/>
-    <row customHeight="1" ht="18.95" r="1007"/>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:15" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7073,25 +6059,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C707" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C709" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D705" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D707" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18A377-DD03-7043-B160-6AC76095B1EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DC18A377-DD03-7043-B160-6AC76095B1EF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="-21160" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Number_Command_Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Number_Command_Validation" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="550">
   <si>
     <t>target</t>
   </si>
@@ -1692,13 +1692,29 @@
   </si>
   <si>
     <t>9,998,999,998,000.2</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1768,8 +1784,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,8 +1905,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1889,135 +2159,465 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="48">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2051,7 +2651,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2076,10 +2676,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2243,21 +2843,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2274,7 +2874,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2328,19 +2928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +3029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>392</v>
       </c>
@@ -2518,7 +3118,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>486</v>
       </c>
@@ -2601,7 +3201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>511</v>
       </c>
@@ -2681,7 +3281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2749,7 +3349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2759,6 +3359,9 @@
       <c r="E6" t="s">
         <v>52</v>
       </c>
+      <c r="F6" t="s">
+        <v>545</v>
+      </c>
       <c r="G6" t="s">
         <v>409</v>
       </c>
@@ -2808,7 +3411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +3467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +3484,7 @@
         <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>546</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -2917,7 +3520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2934,7 +3537,7 @@
         <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s">
         <v>94</v>
@@ -2961,7 +3564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +3578,7 @@
         <v>478</v>
       </c>
       <c r="K10" t="s">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s">
         <v>104</v>
@@ -2999,7 +3602,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>547</v>
       </c>
       <c r="M11" t="s">
         <v>497</v>
@@ -3034,7 +3637,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3651,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="M12" t="s">
         <v>467</v>
@@ -3069,7 +3672,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3083,7 +3686,7 @@
         <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s">
         <v>498</v>
@@ -3104,7 +3707,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3118,7 +3721,7 @@
         <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s">
         <v>114</v>
@@ -3139,7 +3742,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3150,7 +3753,7 @@
         <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="M15" t="s">
         <v>123</v>
@@ -3171,7 +3774,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3182,7 +3785,7 @@
         <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s">
         <v>131</v>
@@ -3203,7 +3806,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3214,7 +3817,7 @@
         <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="X17" t="s">
         <v>527</v>
@@ -3226,7 +3829,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3237,7 +3840,7 @@
         <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="X18" t="s">
         <v>171</v>
@@ -3246,7 +3849,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>421</v>
       </c>
@@ -3257,7 +3860,7 @@
         <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>496</v>
+        <v>146</v>
       </c>
       <c r="X19" t="s">
         <v>175</v>
@@ -3266,7 +3869,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>438</v>
       </c>
@@ -3277,7 +3880,7 @@
         <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X20" t="s">
         <v>178</v>
@@ -3286,7 +3889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>439</v>
       </c>
@@ -3297,7 +3900,7 @@
         <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="X21" t="s">
         <v>181</v>
@@ -3306,7 +3909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3317,13 +3920,13 @@
         <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
       <c r="X22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>417</v>
       </c>
@@ -3334,13 +3937,13 @@
         <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>466</v>
+        <v>158</v>
       </c>
       <c r="X23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3351,13 +3954,13 @@
         <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
+        <v>413</v>
       </c>
       <c r="X24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3368,13 +3971,13 @@
         <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="X25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3384,11 +3987,14 @@
       <c r="G26" t="s">
         <v>191</v>
       </c>
+      <c r="K26" t="s">
+        <v>466</v>
+      </c>
       <c r="X26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3398,11 +4004,14 @@
       <c r="G27" t="s">
         <v>194</v>
       </c>
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
       <c r="X27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>440</v>
       </c>
@@ -3412,11 +4021,14 @@
       <c r="G28" t="s">
         <v>197</v>
       </c>
+      <c r="K28" t="s">
+        <v>174</v>
+      </c>
       <c r="X28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3430,7 +4042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="E30" t="s">
         <v>442</v>
       </c>
@@ -3441,7 +4053,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>184</v>
       </c>
@@ -3452,7 +4064,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>187</v>
       </c>
@@ -3463,7 +4075,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>190</v>
       </c>
@@ -3474,7 +4086,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>193</v>
       </c>
@@ -3485,7 +4097,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>196</v>
       </c>
@@ -3496,7 +4108,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>199</v>
       </c>
@@ -3507,7 +4119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>202</v>
       </c>
@@ -3518,7 +4130,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>205</v>
       </c>
@@ -3529,7 +4141,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>222</v>
       </c>
@@ -3537,7 +4149,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>224</v>
       </c>
@@ -3545,7 +4157,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>226</v>
       </c>
@@ -3553,7 +4165,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>228</v>
       </c>
@@ -3561,7 +4173,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>230</v>
       </c>
@@ -3569,7 +4181,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>232</v>
       </c>
@@ -3577,7 +4189,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>234</v>
       </c>
@@ -3585,7 +4197,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>236</v>
       </c>
@@ -3593,7 +4205,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>238</v>
       </c>
@@ -3601,7 +4213,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>240</v>
       </c>
@@ -3609,7 +4221,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>389</v>
       </c>
@@ -3617,7 +4229,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>243</v>
       </c>
@@ -3625,7 +4237,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>245</v>
       </c>
@@ -3633,7 +4245,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>249</v>
       </c>
@@ -3641,7 +4253,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>251</v>
       </c>
@@ -3649,7 +4261,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>253</v>
       </c>
@@ -3657,7 +4269,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>255</v>
       </c>
@@ -3665,7 +4277,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>257</v>
       </c>
@@ -3673,7 +4285,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>259</v>
       </c>
@@ -3681,7 +4293,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>261</v>
       </c>
@@ -3689,7 +4301,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>263</v>
       </c>
@@ -3697,7 +4309,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>265</v>
       </c>
@@ -3705,7 +4317,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>267</v>
       </c>
@@ -3713,7 +4325,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>390</v>
       </c>
@@ -3721,7 +4333,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>391</v>
       </c>
@@ -3729,7 +4341,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>271</v>
       </c>
@@ -3737,7 +4349,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>273</v>
       </c>
@@ -3745,7 +4357,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>275</v>
       </c>
@@ -3753,7 +4365,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>277</v>
       </c>
@@ -3761,7 +4373,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>279</v>
       </c>
@@ -3769,7 +4381,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>436</v>
       </c>
@@ -3777,7 +4389,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>281</v>
       </c>
@@ -3785,7 +4397,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>437</v>
       </c>
@@ -3793,7 +4405,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>283</v>
       </c>
@@ -3801,7 +4413,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>285</v>
       </c>
@@ -3809,7 +4421,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>287</v>
       </c>
@@ -3817,7 +4429,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>289</v>
       </c>
@@ -3825,7 +4437,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>291</v>
       </c>
@@ -3833,7 +4445,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>443</v>
       </c>
@@ -3841,7 +4453,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>293</v>
       </c>
@@ -3849,7 +4461,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>295</v>
       </c>
@@ -3857,7 +4469,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>296</v>
       </c>
@@ -3865,7 +4477,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>298</v>
       </c>
@@ -3873,7 +4485,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>300</v>
       </c>
@@ -3881,7 +4493,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>302</v>
       </c>
@@ -3889,7 +4501,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>304</v>
       </c>
@@ -3897,7 +4509,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>306</v>
       </c>
@@ -3905,7 +4517,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>308</v>
       </c>
@@ -3913,7 +4525,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>310</v>
       </c>
@@ -3921,7 +4533,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>312</v>
       </c>
@@ -3929,7 +4541,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>314</v>
       </c>
@@ -3937,7 +4549,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>316</v>
       </c>
@@ -3945,7 +4557,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>318</v>
       </c>
@@ -3953,7 +4565,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>320</v>
       </c>
@@ -3961,195 +4573,200 @@
         <v>456</v>
       </c>
     </row>
-    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="X93" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="X94" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="X95" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="X96" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="X97" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="X98" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="X99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="X100" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="X101" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X101" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X103" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X104" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X105" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X106" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X107" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X108" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X109" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X110" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X111" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X112" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X113" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X114" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X115" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X116" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X117" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X118" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X119" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X120" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X121" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X122" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X123" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X124" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1009"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="true" topLeftCell="A2" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="18" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="36.33203125" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="5" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>338</v>
       </c>
@@ -4179,7 +4796,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34.5" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>343</v>
       </c>
@@ -4199,7 +4816,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -4209,7 +4826,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>344</v>
       </c>
@@ -4254,7 +4871,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>357</v>
       </c>
@@ -4281,7 +4898,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6"/>
       <c r="C6" s="4" t="s">
@@ -4306,7 +4923,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7"/>
       <c r="C7" s="4" t="s">
@@ -4331,7 +4948,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8"/>
       <c r="C8" s="4" t="s">
@@ -4356,7 +4973,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9"/>
       <c r="C9" s="4" t="s">
@@ -4381,7 +4998,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10"/>
       <c r="C10" s="4" t="s">
@@ -4406,7 +5023,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11"/>
       <c r="C11" s="4" t="s">
@@ -4431,7 +5048,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12"/>
       <c r="C12" s="4" t="s">
@@ -4454,7 +5071,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13"/>
       <c r="C13" s="4" t="s">
@@ -4479,7 +5096,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14"/>
       <c r="C14" s="4" t="s">
@@ -4504,7 +5121,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
@@ -4527,7 +5144,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16"/>
       <c r="C16" s="4" t="s">
@@ -4552,7 +5169,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17"/>
       <c r="C17" s="4" t="s">
@@ -4577,7 +5194,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18"/>
       <c r="C18" s="4" t="s">
@@ -4602,7 +5219,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19"/>
       <c r="C19" s="4" t="s">
@@ -4627,7 +5244,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20"/>
       <c r="C20" s="4" t="s">
@@ -4652,7 +5269,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
@@ -4677,7 +5294,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22"/>
       <c r="C22" s="4" t="s">
@@ -4702,7 +5319,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23"/>
       <c r="C23" s="4" t="s">
@@ -4727,7 +5344,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24"/>
       <c r="C24" s="4" t="s">
@@ -4752,7 +5369,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25"/>
       <c r="C25" s="4" t="s">
@@ -4777,7 +5394,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26"/>
       <c r="C26" s="4" t="s">
@@ -4802,7 +5419,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27"/>
       <c r="C27" s="4" t="s">
@@ -4827,7 +5444,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="4" t="s">
@@ -4852,7 +5469,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29"/>
       <c r="C29" s="4" t="s">
@@ -4877,7 +5494,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30"/>
       <c r="C30" s="4" t="s">
@@ -4902,7 +5519,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31"/>
       <c r="C31" s="4" t="s">
@@ -4924,7 +5541,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32"/>
       <c r="C32" s="4" t="s">
@@ -4948,10 +5565,11 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>528</v>
       </c>
+      <c r="B33"/>
       <c r="C33" s="4" t="s">
         <v>1</v>
       </c>
@@ -4964,9 +5582,16 @@
       <c r="F33" s="5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row customHeight="1" ht="19" r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
+      <c r="B34"/>
       <c r="C34" s="4" t="s">
         <v>1</v>
       </c>
@@ -4979,9 +5604,16 @@
       <c r="F34" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row customHeight="1" ht="19" r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
+      <c r="B35"/>
       <c r="C35" s="4" t="s">
         <v>1</v>
       </c>
@@ -4994,9 +5626,16 @@
       <c r="F35" s="5" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row customHeight="1" ht="19" r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
+      <c r="B36"/>
       <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
@@ -5009,8 +5648,16 @@
       <c r="F36" s="5" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row customHeight="1" ht="19" r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
       <c r="C37" s="4" t="s">
         <v>1</v>
       </c>
@@ -5023,8 +5670,16 @@
       <c r="F37" s="5" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row customHeight="1" ht="19" r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
       <c r="C38" s="4" t="s">
         <v>1</v>
       </c>
@@ -5037,8 +5692,16 @@
       <c r="F38" s="5" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row customHeight="1" ht="19" r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
       <c r="C39" s="4" t="s">
         <v>1</v>
       </c>
@@ -5051,8 +5714,16 @@
       <c r="F39" s="5" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row customHeight="1" ht="19" r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="B40"/>
       <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
@@ -5065,47 +5736,53 @@
       <c r="F40" s="5" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:15" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row customHeight="1" ht="19" r="41" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="44" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="45" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="46" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="70" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="79" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="81" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
@@ -5122,936 +5799,936 @@
       <c r="N81" s="7"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1007" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1008" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1009" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6059,25 +6736,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C709" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C709" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D707" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D707" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{DC18A377-DD03-7043-B160-6AC76095B1EF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="552">
   <si>
     <t>target</t>
   </si>
@@ -1707,6 +1707,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1720,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1885,8 +1891,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,8 +2165,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2441,12 +2701,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2566,52 +3108,100 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="12" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="21" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="24" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2931,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4080,7 +4670,7 @@
         <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="X33" t="s">
         <v>213</v>
@@ -4091,7 +4681,7 @@
         <v>193</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X34" t="s">
         <v>215</v>
@@ -4102,7 +4692,7 @@
         <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X35" t="s">
         <v>217</v>
@@ -4113,7 +4703,7 @@
         <v>199</v>
       </c>
       <c r="G36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s">
         <v>219</v>
@@ -4124,7 +4714,7 @@
         <v>202</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X37" t="s">
         <v>221</v>
@@ -4135,7 +4725,7 @@
         <v>205</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X38" t="s">
         <v>455</v>
@@ -4143,7 +4733,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X39" t="s">
         <v>414</v>
@@ -4151,7 +4741,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X40" t="s">
         <v>223</v>
@@ -4159,7 +4749,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X41" t="s">
         <v>225</v>
@@ -4167,7 +4757,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X42" t="s">
         <v>227</v>
@@ -4175,7 +4765,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X43" t="s">
         <v>229</v>
@@ -4183,7 +4773,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X44" t="s">
         <v>231</v>
@@ -4191,7 +4781,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="X45" t="s">
         <v>233</v>
@@ -4199,7 +4789,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X46" t="s">
         <v>468</v>
@@ -4207,7 +4797,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X47" t="s">
         <v>235</v>
@@ -4215,7 +4805,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X48" t="s">
         <v>237</v>
@@ -4223,7 +4813,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>389</v>
+        <v>240</v>
       </c>
       <c r="X49" t="s">
         <v>239</v>
@@ -4231,7 +4821,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="X50" t="s">
         <v>241</v>
@@ -4239,7 +4829,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="X51" t="s">
         <v>242</v>
@@ -4247,7 +4837,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="X52" t="s">
         <v>509</v>
@@ -4255,7 +4845,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X53" t="s">
         <v>491</v>
@@ -4263,7 +4853,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X54" t="s">
         <v>244</v>
@@ -4271,7 +4861,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="X55" t="s">
         <v>246</v>
@@ -4279,7 +4869,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="X56" t="s">
         <v>485</v>
@@ -4287,7 +4877,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="X57" t="s">
         <v>247</v>
@@ -4295,7 +4885,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="X58" t="s">
         <v>248</v>
@@ -4303,7 +4893,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="X59" t="s">
         <v>250</v>
@@ -4311,7 +4901,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X60" t="s">
         <v>252</v>
@@ -4319,7 +4909,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X61" t="s">
         <v>254</v>
@@ -4327,7 +4917,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="X62" t="s">
         <v>256</v>
@@ -4335,7 +4925,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X63" t="s">
         <v>258</v>
@@ -4343,7 +4933,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="X64" t="s">
         <v>464</v>
@@ -4351,7 +4941,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X65" t="s">
         <v>499</v>
@@ -4359,7 +4949,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X66" t="s">
         <v>260</v>
@@ -4367,7 +4957,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X67" t="s">
         <v>410</v>
@@ -4375,7 +4965,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="X68" t="s">
         <v>469</v>
@@ -4383,7 +4973,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>436</v>
+        <v>279</v>
       </c>
       <c r="X69" t="s">
         <v>262</v>
@@ -4391,7 +4981,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>281</v>
+        <v>436</v>
       </c>
       <c r="X70" t="s">
         <v>264</v>
@@ -4399,7 +4989,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="X71" t="s">
         <v>266</v>
@@ -4407,7 +4997,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>283</v>
+        <v>437</v>
       </c>
       <c r="X72" t="s">
         <v>268</v>
@@ -4415,7 +5005,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="X73" t="s">
         <v>269</v>
@@ -4423,7 +5013,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>287</v>
+        <v>551</v>
       </c>
       <c r="X74" t="s">
         <v>270</v>
@@ -4431,7 +5021,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="X75" t="s">
         <v>480</v>
@@ -4439,7 +5029,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="X76" t="s">
         <v>493</v>
@@ -4447,7 +5037,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>443</v>
+        <v>289</v>
       </c>
       <c r="X77" t="s">
         <v>272</v>
@@ -4455,7 +5045,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="X78" t="s">
         <v>274</v>
@@ -4463,7 +5053,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="X79" t="s">
         <v>276</v>
@@ -4471,7 +5061,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X80" t="s">
         <v>521</v>
@@ -4479,7 +5069,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="X81" t="s">
         <v>278</v>
@@ -4487,7 +5077,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="X82" t="s">
         <v>280</v>
@@ -4495,7 +5085,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="X83" t="s">
         <v>282</v>
@@ -4503,7 +5093,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="X84" t="s">
         <v>510</v>
@@ -4511,7 +5101,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="X85" t="s">
         <v>284</v>
@@ -4519,7 +5109,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="X86" t="s">
         <v>479</v>
@@ -4527,7 +5117,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="X87" t="s">
         <v>286</v>
@@ -4535,7 +5125,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X88" t="s">
         <v>288</v>
@@ -4543,7 +5133,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="X89" t="s">
         <v>290</v>
@@ -4551,7 +5141,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>292</v>
@@ -4559,7 +5149,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="X91" t="s">
         <v>294</v>
@@ -4567,18 +5157,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="X92" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>318</v>
+      </c>
       <c r="X93" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>320</v>
+      </c>
       <c r="X94" t="s">
         <v>297</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="554">
   <si>
     <t>target</t>
   </si>
@@ -1713,6 +1713,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1992,8 +1998,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,8 +2425,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2983,12 +3260,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3156,52 +3715,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="42" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="54" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3519,7 +4126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5211,126 +5818,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>309</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>311</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>470</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>330</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>337</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -31,33 +31,34 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="561">
   <si>
     <t>target</t>
   </si>
@@ -1719,6 +1720,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1748,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2099,8 +2121,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="88">
+  <fills count="118">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2595,8 +2718,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -3542,12 +3835,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3763,52 +4338,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="90" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="99" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="108" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="111" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="111" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4126,7 +4749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4178,51 +4801,54 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>421</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>438</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>439</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>417</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>440</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4267,51 +4893,54 @@
         <v>444</v>
       </c>
       <c r="N2" t="s">
+        <v>555</v>
+      </c>
+      <c r="O2" t="s">
         <v>505</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>445</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>446</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>422</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>450</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>451</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>402</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>418</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>457</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4356,45 +4985,48 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
+        <v>556</v>
+      </c>
+      <c r="O3" t="s">
         <v>506</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>447</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>423</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>452</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>403</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>419</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>385</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4436,45 +5068,48 @@
         <v>43</v>
       </c>
       <c r="N4" t="s">
+        <v>557</v>
+      </c>
+      <c r="O4" t="s">
         <v>507</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>60</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>61</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>424</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>453</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>420</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>458</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4509,40 +5144,43 @@
       <c r="M5" t="s">
         <v>58</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q5" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>72</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>73</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>425</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>454</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>47</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>77</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>459</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4574,37 +5212,40 @@
       <c r="M6" t="s">
         <v>70</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q6" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>84</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>412</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>426</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>381</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>471</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>460</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4630,37 +5271,40 @@
       <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q7" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>96</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>449</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>427</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>382</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>97</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>472</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>98</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>461</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4686,34 +5330,34 @@
       <c r="M8" t="s">
         <v>82</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>106</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>428</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>383</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>107</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>108</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>109</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>462</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4739,25 +5383,25 @@
       <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>116</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>429</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>384</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>117</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>118</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4780,22 +5424,22 @@
       <c r="M10" t="s">
         <v>104</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>448</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>125</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>430</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>126</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>127</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4818,19 +5462,19 @@
       <c r="M11" t="s">
         <v>497</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>115</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>133</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>134</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>135</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4853,19 +5497,19 @@
       <c r="M12" t="s">
         <v>467</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>141</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>142</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>143</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4888,25 +5532,25 @@
       <c r="M13" t="s">
         <v>498</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>132</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>147</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>148</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>149</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="E14" t="s">
         <v>137</v>
@@ -4923,25 +5567,25 @@
       <c r="M14" t="s">
         <v>114</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>153</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>154</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>502</v>
       </c>
       <c r="E15" t="s">
         <v>144</v>
@@ -4955,25 +5599,25 @@
       <c r="M15" t="s">
         <v>123</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>525</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>159</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>160</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>161</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>406</v>
@@ -4987,25 +5631,25 @@
       <c r="M16" t="s">
         <v>131</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>526</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>165</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>166</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>167</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>407</v>
@@ -5016,19 +5660,19 @@
       <c r="K17" t="s">
         <v>139</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>527</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>489</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>441</v>
@@ -5039,16 +5683,16 @@
       <c r="K18" t="s">
         <v>482</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>171</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>150</v>
@@ -5059,16 +5703,16 @@
       <c r="K19" t="s">
         <v>146</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>175</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E20" t="s">
         <v>156</v>
@@ -5079,16 +5723,16 @@
       <c r="K20" t="s">
         <v>152</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>178</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
         <v>162</v>
@@ -5099,16 +5743,16 @@
       <c r="K21" t="s">
         <v>401</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>181</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="E22" t="s">
         <v>168</v>
@@ -5119,13 +5763,13 @@
       <c r="K22" t="s">
         <v>496</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>172</v>
@@ -5136,13 +5780,13 @@
       <c r="K23" t="s">
         <v>158</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>417</v>
       </c>
       <c r="E24" t="s">
         <v>176</v>
@@ -5153,13 +5797,13 @@
       <c r="K24" t="s">
         <v>413</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>475</v>
@@ -5170,13 +5814,13 @@
       <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>179</v>
@@ -5187,13 +5831,13 @@
       <c r="K26" t="s">
         <v>466</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>182</v>
@@ -5204,13 +5848,13 @@
       <c r="K27" t="s">
         <v>170</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>494</v>
@@ -5221,13 +5865,13 @@
       <c r="K28" t="s">
         <v>174</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="E29" t="s">
         <v>495</v>
@@ -5235,18 +5879,21 @@
       <c r="G29" t="s">
         <v>200</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" t="s">
         <v>442</v>
       </c>
       <c r="G30" t="s">
         <v>203</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5257,7 +5904,7 @@
       <c r="G31" t="s">
         <v>206</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5268,7 +5915,7 @@
       <c r="G32" t="s">
         <v>208</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5279,7 +5926,7 @@
       <c r="G33" t="s">
         <v>550</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5290,7 +5937,7 @@
       <c r="G34" t="s">
         <v>210</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5301,7 +5948,7 @@
       <c r="G35" t="s">
         <v>212</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5312,7 +5959,7 @@
       <c r="G36" t="s">
         <v>214</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5323,7 +5970,7 @@
       <c r="G37" t="s">
         <v>216</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5334,7 +5981,7 @@
       <c r="G38" t="s">
         <v>218</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5342,7 +5989,7 @@
       <c r="G39" t="s">
         <v>220</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5350,7 +5997,7 @@
       <c r="G40" t="s">
         <v>222</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5358,7 +6005,7 @@
       <c r="G41" t="s">
         <v>224</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5366,7 +6013,7 @@
       <c r="G42" t="s">
         <v>226</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5374,7 +6021,7 @@
       <c r="G43" t="s">
         <v>228</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5382,7 +6029,7 @@
       <c r="G44" t="s">
         <v>230</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5390,7 +6037,7 @@
       <c r="G45" t="s">
         <v>232</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5398,7 +6045,7 @@
       <c r="G46" t="s">
         <v>234</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5406,7 +6053,7 @@
       <c r="G47" t="s">
         <v>236</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5414,7 +6061,7 @@
       <c r="G48" t="s">
         <v>238</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5422,7 +6069,7 @@
       <c r="G49" t="s">
         <v>240</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5430,7 +6077,7 @@
       <c r="G50" t="s">
         <v>389</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5438,7 +6085,7 @@
       <c r="G51" t="s">
         <v>243</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5446,7 +6093,7 @@
       <c r="G52" t="s">
         <v>245</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5454,7 +6101,7 @@
       <c r="G53" t="s">
         <v>249</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5462,7 +6109,7 @@
       <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5470,7 +6117,7 @@
       <c r="G55" t="s">
         <v>253</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5478,7 +6125,7 @@
       <c r="G56" t="s">
         <v>255</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5486,7 +6133,7 @@
       <c r="G57" t="s">
         <v>257</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5494,7 +6141,7 @@
       <c r="G58" t="s">
         <v>259</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5502,7 +6149,7 @@
       <c r="G59" t="s">
         <v>261</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5510,7 +6157,7 @@
       <c r="G60" t="s">
         <v>263</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5518,7 +6165,7 @@
       <c r="G61" t="s">
         <v>265</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5526,7 +6173,7 @@
       <c r="G62" t="s">
         <v>267</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5534,7 +6181,7 @@
       <c r="G63" t="s">
         <v>390</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5542,7 +6189,7 @@
       <c r="G64" t="s">
         <v>391</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5550,7 +6197,7 @@
       <c r="G65" t="s">
         <v>271</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5558,7 +6205,7 @@
       <c r="G66" t="s">
         <v>273</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5566,7 +6213,7 @@
       <c r="G67" t="s">
         <v>275</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5574,7 +6221,7 @@
       <c r="G68" t="s">
         <v>277</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5582,7 +6229,7 @@
       <c r="G69" t="s">
         <v>279</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5590,7 +6237,7 @@
       <c r="G70" t="s">
         <v>436</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5598,7 +6245,7 @@
       <c r="G71" t="s">
         <v>281</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5606,7 +6253,7 @@
       <c r="G72" t="s">
         <v>437</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5614,7 +6261,7 @@
       <c r="G73" t="s">
         <v>283</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5622,7 +6269,7 @@
       <c r="G74" t="s">
         <v>551</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5630,7 +6277,7 @@
       <c r="G75" t="s">
         <v>285</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5638,7 +6285,7 @@
       <c r="G76" t="s">
         <v>287</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5646,7 +6293,7 @@
       <c r="G77" t="s">
         <v>289</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5654,7 +6301,7 @@
       <c r="G78" t="s">
         <v>291</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5662,7 +6309,7 @@
       <c r="G79" t="s">
         <v>443</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5670,7 +6317,7 @@
       <c r="G80" t="s">
         <v>293</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5678,7 +6325,7 @@
       <c r="G81" t="s">
         <v>295</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5686,7 +6333,7 @@
       <c r="G82" t="s">
         <v>296</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5694,7 +6341,7 @@
       <c r="G83" t="s">
         <v>298</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5702,7 +6349,7 @@
       <c r="G84" t="s">
         <v>300</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5710,7 +6357,7 @@
       <c r="G85" t="s">
         <v>302</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5718,7 +6365,7 @@
       <c r="G86" t="s">
         <v>304</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5726,7 +6373,7 @@
       <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5734,7 +6381,7 @@
       <c r="G88" t="s">
         <v>308</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5742,7 +6389,7 @@
       <c r="G89" t="s">
         <v>310</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5750,7 +6397,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5758,7 +6405,7 @@
       <c r="G91" t="s">
         <v>314</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5766,7 +6413,7 @@
       <c r="G92" t="s">
         <v>316</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5774,7 +6421,7 @@
       <c r="G93" t="s">
         <v>318</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5782,172 +6429,172 @@
       <c r="G94" t="s">
         <v>320</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>337</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -51,14 +51,14 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="565">
   <si>
     <t>target</t>
   </si>
@@ -1741,6 +1741,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1760,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2222,8 +2234,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="118">
+  <fills count="178">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2888,8 +3102,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="121">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -4117,12 +4671,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4386,52 +5504,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="93" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="99" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="99" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="111" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="111" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="126" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="129" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="141" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="141" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="150" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="153" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="156" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="168" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="171" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="171" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5145,7 +6359,7 @@
         <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q5" t="s">
         <v>59</v>
@@ -5213,7 +6427,7 @@
         <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q6" t="s">
         <v>71</v>
@@ -5272,7 +6486,7 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q7" t="s">
         <v>83</v>
@@ -5330,6 +6544,9 @@
       <c r="M8" t="s">
         <v>82</v>
       </c>
+      <c r="N8" t="s">
+        <v>558</v>
+      </c>
       <c r="Q8" t="s">
         <v>95</v>
       </c>
@@ -5383,6 +6600,9 @@
       <c r="M9" t="s">
         <v>94</v>
       </c>
+      <c r="N9" t="s">
+        <v>559</v>
+      </c>
       <c r="Q9" t="s">
         <v>105</v>
       </c>
@@ -5424,6 +6644,9 @@
       <c r="M10" t="s">
         <v>104</v>
       </c>
+      <c r="N10" t="s">
+        <v>560</v>
+      </c>
       <c r="Q10" t="s">
         <v>448</v>
       </c>
@@ -5812,7 +7035,7 @@
         <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>564</v>
       </c>
       <c r="Y25" t="s">
         <v>192</v>
@@ -5829,7 +7052,7 @@
         <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="Y26" t="s">
         <v>195</v>
@@ -5846,7 +7069,7 @@
         <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>466</v>
       </c>
       <c r="Y27" t="s">
         <v>198</v>
@@ -5863,7 +7086,7 @@
         <v>197</v>
       </c>
       <c r="K28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y28" t="s">
         <v>201</v>
@@ -5878,6 +7101,9 @@
       </c>
       <c r="G29" t="s">
         <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>174</v>
       </c>
       <c r="Y29" t="s">
         <v>204</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_numberCommand.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -51,14 +51,14 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="569">
   <si>
     <t>target</t>
   </si>
@@ -1753,6 +1753,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1772,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2436,8 +2448,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="178">
+  <fills count="208">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3442,8 +3555,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -5235,12 +5518,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style